--- a/full_gsea_go.xlsx
+++ b/full_gsea_go.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -53,19 +53,34 @@
     <t xml:space="preserve">p.sig</t>
   </si>
   <si>
+    <t xml:space="preserve">GO:0080154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of fertilization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=36%, list=7%, signal=34%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G36490/AT5G36480/AT5G36657/AT3G42565/AT5G36550/AT5G36658/AT5G36310/AT5G36370/AT5G36350/AT5G36320/AT5G36500/AT5G36520/AT5G36540/AT5G36490/AT5G36480/AT5G36657/AT5G36661/AT5G36550/AT5G36658/AT5G36370/AT5G36350/AT5G36500/AT5G36520/AT5G36540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OEM15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0080155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of double fertilization forming a zygote and endosperm</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0009566</t>
   </si>
   <si>
     <t xml:space="preserve">fertilization</t>
   </si>
   <si>
-    <t xml:space="preserve">tags=45%, list=29%, signal=33%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G36490/AT5G36480/AT5G36657/AT3G42565/AT5G36550/AT5G36658/AT5G36310/AT5G36370/AT5G36350/AT5G36320/AT5G36500/AT5G36520/AT5G36540/AT5G36490/AT5G36480/AT5G36657/AT5G36661/AT5G36550/AT5G36658/AT5G36370/AT5G36350/AT5G36500/AT5G36520/AT5G36540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OEM15</t>
+    <t xml:space="preserve">tags=33%, list=7%, signal=31%</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0009567</t>
@@ -74,16 +89,253 @@
     <t xml:space="preserve">double fertilization forming a zygote and endosperm</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0080154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of fertilization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0080155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of double fertilization forming a zygote and endosperm</t>
+    <t xml:space="preserve">GO:0015886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heme transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=100%, list=0%, signal=100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2G07681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OEM20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:1901678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iron coordination entity transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0051259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein complex oligomerization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=53%, list=17%, signal=44%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G37670/AT2G29500/AT1G59860/AT1G73010/AT1G73010/AT1G07400/AT5G40260/AT1G54050/AT1G53540/AT5G41330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0009611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to wounding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=57%, list=24%, signal=44%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT1G43160/AT2G24850/AT5G63450/AT5G20230/AT5G20230/AT2G30020/AT5G06320/AT5G13220/AT5G20230/AT2G24850/AT1G61340/AT5G59820/AT1G66760/AT5G56960/AT1G17380/AT4G35550/AT4G13280/AT5G46590/AT3G17800/AT4G34710/AT1G32640/AT2G30020/AT4G13280/AT4G13300/AT2G30020/AT3G51450/AT1G73500/AT5G63770/AT4G11280/AT3G45640/AT1G21110/AT3G48520/AT1G19020/AT1G32920/AT5G44565/AT1G73500/AT1G76650/AT1G72520/AT1G72920/AT3G61190/AT3G44260/AT1G72920/AT1G80840/AT1G27730/AT1G74930/AT1G80840/AT1G72920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OEP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0051604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=71%, list=27%, signal=52%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2G46240/AT2G46240/AT2G46240/AT5G48570/AT1G53540/AT5G37670/AT2G29500/AT4G04330/AT3G02980/AT2G32120/AT1G07400/AT5G52640/AT5G12020/AT1G59860/AT2G20560/AT1G54050/AT4G04330/AT1G09080/AT2G20560/AT5G52640/AT3G12580/AT3G46230/AT5G12030/AT2G44140/AT3G20210/AT2G04030/AT1G56410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein folding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=68%, list=22%, signal=53%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2G46240/AT2G46240/AT2G46240/AT5G48570/AT1G53540/AT5G37670/AT2G29500/AT4G04330/AT2G32120/AT1G07400/AT5G52640/AT5G12020/AT1G59860/AT2G20560/AT1G54050/AT4G04330/AT1G09080/AT2G20560/AT5G52640/AT3G12580/AT3G46230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0036294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular response to decreased oxygen levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=68%, list=21%, signal=55%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT1G07150/AT5G62520/AT1G72920/AT1G72920/AT1G09070/AT2G40000/AT5G25250/AT1G54050/AT1G14200/AT5G24590/AT3G23170/AT5G06320/AT2G40000/AT4G12720/AT1G72920/AT4G31970/AT1G59860/AT2G41010/AT5G63130/AT1G09070/AT1G72910/AT1G32928/AT1G74310/AT5G57510/AT5G19240/AT5G04340/AT1G72360/AT3G46230/AT5G05410/AT1G19020/AT4G19520/AT5G24590/AT2G40140/AT2G32200/AT1G07400/AT1G15010/AT4G01250/AT4G19520/AT5G27420/AT1G43800/AT5G66650/AT4G27657/AT5G06320/AT2G22500/AT1G21550/AT5G20230/AT5G20230/AT1G27730/AT4G01360/AT3G04640/AT5G63790/AT5G20230/AT5G05410/AT2G26150/AT5G45340/AT1G13300/AT1G61340/AT5G20230/AT2G40140/AT1G19530/AT2G22500/AT1G18300/AT1G07135/AT5G59820/AT2G32210/AT4G24110/AT4G13395/AT4G19520/AT3G46090/AT5G66650/AT1G66090/AT3G55980/AT3G56880/AT4G30280/AT3G46080/AT5G57560/AT5G12020/AT2G46400/AT5G45630/AT5G12030/AT3G04640/AT2G46400/AT1G76650/AT4G24570/AT4G10250/AT1G35140/AT5G42380/AT5G42380/AT5G45340/AT1G35140/AT5G45340/AT4G29780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tmp-M3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0071453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular response to oxygen levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0071456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular response to hypoxia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0001666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to hypoxia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=66%, list=21%, signal=54%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT1G07150/AT5G62520/AT1G72920/AT1G72920/AT1G09070/AT2G40000/AT5G25250/AT1G54050/AT1G14200/AT5G24590/AT3G23170/AT5G06320/AT2G40000/AT4G12720/AT1G72920/AT4G31970/AT1G59860/AT2G41010/AT5G63130/AT1G09070/AT1G72910/AT1G32928/AT1G74310/AT5G57510/AT5G19240/AT5G04340/AT1G72360/AT3G46230/AT5G05410/AT1G19020/AT4G19520/AT5G24590/AT2G40140/AT2G32200/AT1G07400/AT1G15010/AT4G01250/AT4G19520/AT5G27420/AT1G43800/AT5G66650/AT4G27657/AT5G06320/AT2G22500/AT1G21550/AT5G20230/AT5G20230/AT1G27730/AT4G01360/AT3G04640/AT5G63790/AT5G20230/AT5G05410/AT2G26150/AT5G45340/AT1G13300/AT1G61340/AT5G20230/AT3G14230/AT2G40140/AT1G19530/AT2G22500/AT1G18300/AT1G07135/AT5G59820/AT2G32210/AT4G24110/AT4G13395/AT4G19520/AT3G46090/AT5G66650/AT1G66090/AT3G55980/AT3G56880/AT4G30280/AT3G46080/AT5G57560/AT5G12020/AT2G46400/AT5G45630/AT5G12030/AT3G04640/AT2G46400/AT1G76650/AT4G24570/AT4G10250/AT1G35140/AT5G42380/AT5G42380/AT5G45340/AT1G35140/AT5G45340/AT4G29780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0036293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to decreased oxygen levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0070482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to oxygen levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0009607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to biotic stimulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=47%, list=23%, signal=38%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT1G70130/AT5G52640/AT1G51800/AT2G40000/AT5G38030/AT3G50930/AT3G14415/AT4G10490/AT4G36280/AT3G14460/AT1G80460/AT2G40000/AT3G59740/AT1G05460/AT2G14560/AT3G13460/AT3G57960/AT1G10300/AT4G11650/AT1G14200/AT5G13220/AT1G08320/AT5G24590/AT5G52640/AT3G46760/AT2G13810/AT5G50780/AT3G52400/AT3G23170/AT1G61420/AT5G06320/AT2G40000/AT5G50260/AT1G17615/AT4G12720/AT4G04920/AT5G64750/AT3G01420/AT1G14780/AT5G39670/AT3G22600/AT1G61480/AT1G61360/AT3G45640/AT5G22250/AT1G74930/AT3G44300/AT3G23820/AT1G72520/AT1G19020/AT2G27270/AT3G49530/AT5G24590/AT2G40140/AT5G13220/AT5G13740/AT4G31800/AT4G17490/AT1G15010/AT1G68765/AT4G20000/AT5G27420/AT3G44260/AT4G17490/AT4G23810/AT5G36925/AT3G10930/AT3G25830/AT3G25820/AT1G73805/AT2G23810/AT1G56540/AT2G38470/AT5G06320/AT5G39580/AT4G36430/AT5G20230/AT5G20230/AT5G37770/AT5G12340/AT2G30020/AT1G34860/AT3G25180/AT5G20230/AT2G23810/AT1G61340/AT3G48520/AT5G20230/AT2G30020/AT2G23810/AT2G40140/AT2G30020/AT1G48490/AT1G29690/AT2G29460/AT5G66210/AT3G56410/AT1G24140/AT1G06135/AT1G22810/AT1G02660/AT1G17600/AT2G33580/AT1G61800/AT3G14395/AT4G14640/AT5G64810/AT3G49860/AT4G23810/AT3G09440/AT1G61800/AT3G17690/AT3G49530/AT2G46400/AT5G45630/AT1G65390/AT4G34410/AT5G17350/AT1G80840/AT2G46400/AT1G72520/AT5G17350/AT1G80840/AT2G27080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0043207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to external biotic stimulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0044419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biological process involved in interspecies interaction between organisms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0051707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to other organism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0070887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular response to chemical stimulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=48%, list=24%, signal=39%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G64940/AT5G63790/AT1G07150/AT4G22110/AT5G65600/AT1G32640/AT1G51800/AT5G25250/AT1G16530/AT4G24080/AT2G40000/AT3G50930/AT3G49580/AT1G16420/AT1G07150/AT5G21120/AT5G62520/AT1G72920/AT1G72920/AT1G09070/AT2G40000/AT5G62120/AT2G32460/AT5G25250/AT1G54050/AT3G19940/AT1G14200/AT5G13220/AT5G24590/AT2G13810/AT1G78570/AT1G80590/AT3G52400/AT3G23170/AT1G65990/AT5G06320/AT2G40000/AT2G29100/AT4G12720/AT4G04920/AT1G72920/AT4G31970/AT1G59860/AT5G64750/AT2G41010/AT5G63130/AT3G01420/AT1G09070/AT1G72910/AT1G14780/AT1G32928/AT1G74310/AT2G29110/AT5G08150/AT5G57510/AT5G19240/AT3G45640/AT5G04340/AT4G23450/AT3G50060/AT1G72360/AT3G01530/AT3G46230/AT5G05410/AT1G19020/AT5G47230/AT5G49240/AT3G49530/AT4G19520/AT5G24590/AT2G40140/AT2G32200/AT5G13220/AT1G76260/AT2G34600/AT1G07400/AT4G17490/AT1G15010/AT4G01250/AT4G19520/AT5G27420/AT1G43800/AT5G47710/AT2G03840/AT4G08950/AT4G17490/AT4G23810/AT4G08950/AT2G23810/AT2G44840/AT5G66650/AT4G27657/AT5G06320/AT2G22500/AT1G21550/AT5G20230/AT5G20230/AT1G27730/AT4G08950/AT3G12890/AT4G01360/AT2G30020/AT1G17380/AT3G04640/AT5G63790/AT5G20230/AT2G23810/AT5G05410/AT3G48360/AT2G26150/AT5G18320/AT5G45340/AT1G13300/AT1G61340/AT5G20230/AT2G30020/AT2G23810/AT2G40140/AT2G30020/AT1G19530/AT2G22500/AT1G18300/AT1G29690/AT1G07135/AT1G04310/AT5G59820/AT2G32210/AT1G74045/AT4G24110/AT1G22810/AT3G48360/AT4G13395/AT4G19520/AT2G33580/AT3G46090/AT3G48360/AT1G28370/AT5G66650/AT2G31650/AT1G66090/AT3G26790/AT3G14395/AT5G64810/AT4G20940/AT3G55980/AT3G56880/AT4G30280/AT4G23810/AT3G46080/AT5G57560/AT5G12020/AT3G49530/AT2G46400/AT5G45630/AT5G12030/AT1G65390/AT4G34410/AT3G04640/AT2G46400/AT1G76650/AT4G24570/AT4G30430/AT4G10250/AT1G35140/AT5G42380/AT5G42380/AT5G45340/AT1G35140/AT5G45340/AT4G29780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">defense response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=46%, list=23%, signal=37%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT1G70130/AT5G52640/AT1G51800/AT4G15740/AT2G40000/AT3G50930/AT3G14415/AT5G18350/AT4G10490/AT4G36280/AT1G09070/AT3G14460/AT1G80460/AT2G40000/AT3G59740/AT1G05460/AT2G14560/AT2G15010/AT3G57960/AT1G10300/AT4G11650/AT1G72950/AT1G14200/AT5G13220/AT5G24590/AT5G52640/AT3G46760/AT2G13810/AT5G50780/AT3G52400/AT3G23170/AT2G31880/AT1G61420/AT2G03300/AT5G06320/AT2G40000/AT5G50260/AT1G17615/AT4G12720/AT4G04920/AT4G31970/AT5G64750/AT3G01420/AT1G09070/AT1G72910/AT1G14780/AT5G39670/AT3G22600/AT1G61480/AT1G61360/AT5G38350/AT5G22250/AT1G74930/AT1G63860/AT3G23820/AT3G62780/AT3G52450/AT1G72520/AT2G27270/AT3G49530/AT4G19520/AT5G24590/AT2G40140/AT5G13220/AT2G34600/AT4G31800/AT1G15010/AT1G68765/AT4G19520/AT5G27420/AT3G44260/AT2G35930/AT4G23810/AT5G15660/AT5G36925/AT3G10930/AT3G25830/AT3G25820/AT1G73805/AT2G23810/AT1G56540/AT2G38470/AT5G06320/AT5G39580/AT5G41740/AT5G37770/AT2G30020/AT3G25180/AT1G17380/AT2G23810/AT3G48520/AT2G30020/AT2G23810/AT2G31957/AT2G40140/AT2G30020/AT1G48490/AT1G29690/AT5G02140/AT5G41740/AT2G29460/AT5G66210/AT3G56410/AT1G58420/AT1G24140/AT1G06135/AT1G02660/AT1G17600/AT4G19520/AT2G33580/AT1G24010/AT5G45210/AT1G66090/AT3G14395/AT5G41740/AT5G64810/AT3G61190/AT3G49860/AT4G16950/AT4G23810/AT5G43570/AT3G49530/AT2G46400/AT1G65390/AT4G34410/AT1G80840/AT2G46400/AT1G72520/AT1G80840/AT2G27080/AT1G70850/AT1G70850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0033554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular response to stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=55%, list=27%, signal=41%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT3G62680/AT3G47340/AT4G27280/AT5G43370/AT5G48570/AT3G53600/AT1G73500/AT3G25790/AT5G63790/AT5G21160/AT5G54490/AT3G23170/AT1G73500/AT1G78000/AT5G37670/AT5G48850/AT5G64940/AT5G63790/AT1G07150/AT5G65600/AT5G52640/AT5G25250/AT2G40000/AT3G50930/AT3G49580/AT1G16420/AT1G07150/AT1G66870/AT5G62520/AT1G72920/AT4G36280/AT1G72920/AT1G09070/AT2G40000/AT4G36990/AT5G25250/AT1G54050/AT4G05360/AT1G14200/AT5G24590/AT1G61140/AT5G52640/AT5G50780/AT3G52400/AT3G23170/AT1G65990/AT5G06320/AT2G40000/AT5G50260/AT1G17615/AT4G12720/AT2G05642/AT1G72920/AT4G31970/AT2G38340/AT1G59860/AT2G41010/AT5G63130/AT3G01420/AT1G09070/AT1G72910/AT1G14780/AT1G32928/AT1G74310/AT5G52910/AT1G20823/AT1G11100/AT5G57510/AT5G19240/AT3G45640/AT5G04340/AT1G72360/AT4G14690/AT3G46230/AT5G05410/AT1G19020/AT3G49530/AT4G19520/AT5G18620/AT5G24590/AT2G40140/AT2G32200/AT5G54770/AT1G07400/AT1G15010/AT4G01250/AT4G19520/AT5G27420/AT4G17380/AT1G43800/AT2G41240/AT1G21910/AT2G38470/AT5G66650/AT4G27657/AT5G06320/AT2G22500/AT1G21550/AT5G20230/AT5G20230/AT1G27730/AT4G01360/AT3G04640/AT5G63790/AT5G20230/AT5G05410/AT2G26150/AT5G18320/AT5G45340/AT1G13300/AT1G61340/AT5G20230/AT2G40140/AT5G57450/AT1G19530/AT2G22500/AT1G18300/AT1G29690/AT1G07135/AT5G59820/AT2G32210/AT4G24110/AT1G22810/AT4G13395/AT4G19520/AT3G46090/AT5G66650/AT1G66090/AT3G55980/AT3G56880/AT4G30280/AT3G46080/AT5G57560/AT5G12020/AT3G49530/AT2G46400/AT5G45630/AT5G12030/AT3G04640/AT2G46400/AT1G76650/AT4G24570/AT4G10250/AT1G35140/AT5G42380/AT5G42380/AT5G45340/AT1G35140/AT5G45340/AT4G29780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=41%, list=24%, signal=35%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT3G02885/AT2G43480/AT5G37670/AT5G48850/AT1G47600/AT1G51470/AT3G63230/AT5G22530/AT5G64940/AT5G63790/AT1G07150/AT4G26440/AT5G67450/AT5G65600/AT3G20740/AT2G33080/AT1G32640/AT1G70130/AT5G52640/AT1G51800/AT5G25250/AT1G21110/AT4G15740/AT3G28580/AT2G40000/AT2G35380/AT3G50930/AT3G49580/AT3G14415/AT1G16420/AT5G18350/AT1G07150/AT1G66870/AT5G62530/AT5G62520/AT5G61430/AT4G10490/AT1G72920/AT4G36280/AT1G72920/AT4G30170/AT1G09070/AT3G14460/AT1G30100/AT1G80460/AT2G40000/AT4G36990/AT3G17790/AT3G59740/AT1G05460/AT2G17840/AT5G25250/AT2G14560/AT5G65300/AT2G15010/AT3G57960/AT3G44550/AT1G10300/AT4G11650/AT1G72950/AT1G54050/AT4G05360/AT1G14200/AT2G27690/AT5G13220/AT5G24590/AT1G61140/AT5G52640/AT3G46760/AT2G13810/AT4G13280/AT4G13300/AT5G50780/AT1G80590/AT3G52400/AT3G23170/AT1G65990/AT2G31880/AT1G61420/AT2G03300/AT2G17840/AT5G06320/AT2G40000/AT3G03080/AT5G58780/AT5G50260/AT1G17615/AT4G12720/AT4G04920/AT3G55160/AT2G05642/AT1G72920/AT4G31970/AT3G23250/AT2G38340/AT1G59860/AT5G64750/AT2G41010/AT5G63130/AT3G01420/AT1G09070/AT3G14110/AT1G72910/AT1G14780/AT1G32928/AT1G76690/AT1G74310/AT5G52910/AT1G20823/AT5G39670/AT1G11100/AT3G22600/AT1G61480/AT1G61360/AT5G51190/AT1G32920/AT5G57510/AT1G51190/AT5G19240/AT3G45640/AT5G38350/AT5G04340/AT4G23450/AT5G22250/AT1G74930/AT1G63860/AT3G23820/AT1G72360/AT3G62780/AT5G51190/AT4G08940/AT3G52450/AT3G28600/AT4G14690/AT1G72520/AT3G46230/AT5G05410/AT3G46620/AT2G48150/AT1G19020/AT1G17870/AT5G66390/AT5G47230/AT2G27270/AT3G49530/AT4G19520/AT5G18620/AT4G24020/AT5G24590/AT2G40140/AT2G32200/AT3G21370/AT5G54770/AT5G13220/AT2G34600/AT4G31800/AT5G59550/AT1G07400/AT4G17490/AT1G15010/AT1G24110/AT4G01250/AT1G68765/AT3G23250/AT4G19520/AT5G27420/AT3G44260/AT2G35930/AT4G17380/AT1G43800/AT2G41240/AT4G17490/AT4G23810/AT5G15660/AT5G36925/AT3G10930/AT3G25830/AT3G25820/AT1G73805/AT2G23810/AT1G21910/AT1G56540/AT2G38470/AT5G63160/AT5G66650/AT4G27657/AT5G06320/AT2G22500/AT1G21550/AT4G13280/AT5G39580/AT5G41740/AT4G36430/AT5G20230/AT5G20230/AT1G27730/AT5G37770/AT4G01360/AT2G30020/AT3G25180/AT1G17380/AT4G11280/AT3G04640/AT5G63790/AT5G20230/AT2G23810/AT5G05410/AT2G29500/AT3G48360/AT2G26150/AT5G18320/AT5G45340/AT1G13300/AT2G44240/AT1G61340/AT3G48520/AT5G20230/AT2G30020/AT2G23810/AT3G14230/AT2G23400/AT2G31957/AT2G40140/AT2G30020/AT5G57450/AT1G48490/AT1G19530/AT2G22500/AT1G18300/AT1G29690/AT5G56960/AT1G07135/AT5G02140/AT5G41740/AT2G29460/AT2G40340/AT5G66210/AT5G59820/AT2G32210/AT3G56410/AT1G58420/AT1G24140/AT1G06135/AT1G68850/AT4G24110/AT1G22810/AT3G48360/AT1G53540/AT3G28340/AT4G13395/AT1G02660/AT1G17600/AT4G19520/AT2G33580/AT3G46090/AT5G63770/AT3G48360/AT5G66650/AT1G24010/AT2G31650/AT5G45210/AT1G66090/AT3G14395/AT5G41740/AT5G64810/AT3G61190/AT3G49860/AT3G28340/AT4G16950/AT3G55980/AT3G56880/AT4G30280/AT4G23810/AT3G46080/AT4G17090/AT5G43570/AT3G09440/AT5G57560/AT4G25490/AT5G12020/AT3G49530/AT2G46400/AT5G45630/AT5G12030/AT1G65390/AT4G34410/AT3G04640/AT5G52050/AT1G80840/AT2G46400/AT1G76650/AT1G72520/AT4G24570/AT1G12610/AT4G25470/AT1G80840/AT4G10250/AT1G35140/AT5G42380/AT4G27670/AT3G02840/AT5G42380/AT5G45340/AT1G35140/AT2G27080/AT5G45340/AT4G29780/AT2G38380/AT1G70850/AT1G70850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0009628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to abiotic stimulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=33%, list=17%, signal=30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2G17840/AT5G06320/AT2G40000/AT2G29100/AT5G48010/AT5G58780/AT4G12720/AT4G04920/AT3G55160/AT1G72920/AT4G31970/AT3G23250/AT2G38340/AT1G59860/AT5G64750/AT2G41010/AT5G63130/AT1G09070/AT1G72910/AT1G32928/AT1G74310/AT1G20823/AT2G29110/AT5G51190/AT5G57510/AT1G51190/AT5G19240/AT3G45640/AT5G04340/AT4G23450/AT1G72360/AT5G51190/AT3G52450/AT3G28600/AT4G14690/AT3G46230/AT5G05410/AT3G46620/AT1G19020/AT1G17870/AT5G47230/AT3G49530/AT4G19520/AT5G18620/AT4G24020/AT5G24590/AT1G10390/AT2G40140/AT1G60980/AT2G32200/AT3G21370/AT5G54770/AT5G59550/AT1G07400/AT4G17490/AT1G15010/AT4G01250/AT3G23250/AT4G19520/AT5G27420/AT2G35930/AT1G43800/AT2G41240/AT4G17490/AT5G36925/AT3G10930/AT1G73805/AT1G21910/AT2G38470/AT5G66650/AT4G27657/AT5G06320/AT2G22500/AT1G21550/AT3G62610/AT1G36060/AT5G20230/AT5G20230/AT1G27730/AT5G37770/AT4G01360/AT4G11280/AT3G04640/AT5G63790/AT5G20230/AT5G05410/AT2G29500/AT3G48360/AT2G26150/AT5G18320/AT5G45340/AT1G13300/AT4G15480/AT1G61340/AT5G20230/AT3G14230/AT2G23400/AT5G09530/AT2G40140/AT1G19530/AT2G22500/AT1G18300/AT1G07135/AT2G40340/AT5G59820/AT2G32210/AT5G55040/AT4G24110/AT1G22810/AT3G48360/AT1G53540/AT4G13395/AT1G02660/AT4G19520/AT3G46090/AT5G63770/AT3G20130/AT3G48360/AT5G66650/AT1G61800/AT2G31650/AT1G66090/AT3G61190/AT4G20940/AT3G55980/AT3G56880/AT2G22880/AT4G30280/AT3G46080/AT4G17090/AT3G09440/AT1G61800/AT5G57560/AT4G25490/AT5G12020/AT3G49530/AT2G46400/AT5G45630/AT5G12030/AT3G04640/AT3G21320/AT5G52050/AT2G46400/AT1G76650/AT4G24570/AT1G12610/AT4G25470/AT4G10250/AT1G35140/AT5G09530/AT5G42380/AT4G27670/AT3G02840/AT5G42380/AT5G45340/AT1G35140/AT5G45340/AT4G29780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0051716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular response to stimulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=46%, list=27%, signal=37%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT1G67160/AT3G47340/AT1G34670/AT4G27280/AT5G43370/AT5G48570/AT1G60987/AT3G53600/AT1G73500/AT5G37740/AT3G25790/AT5G63790/AT1G72260/AT4G26890/AT3G27810/AT5G21160/AT5G54490/AT3G23170/AT1G08090/AT1G73500/AT1G78000/AT1G69910/AT5G37670/AT5G48850/AT5G64940/AT4G36070/AT5G63790/AT1G07150/AT4G22110/AT5G65600/AT2G33080/AT1G32640/AT5G52640/AT1G51800/AT5G25250/AT1G16530/AT4G32780/AT2G05117/AT4G24080/AT2G40000/AT3G50930/AT3G49580/AT1G16420/AT5G18350/AT1G07150/AT1G66870/AT5G21120/AT5G62520/AT1G72920/AT4G36280/AT1G72920/AT1G09070/AT2G40000/AT4G22105/AT2G06983/AT4G36990/AT5G62120/AT2G32460/AT5G25250/AT4G12020/AT1G72950/AT1G54050/AT4G24580/AT4G05360/AT3G19940/AT1G14200/AT5G13220/AT1G08320/AT5G24590/AT1G61140/AT5G52640/AT2G13810/AT5G50780/AT1G78570/AT1G80590/AT1G22720/AT1G73200/AT3G52400/AT5G44920/AT3G23170/AT1G65990/AT2G03300/AT5G06320/AT2G40000/AT2G29100/AT3G29780/AT5G50260/AT5G67080/AT1G17615/AT4G12720/AT4G04920/AT3G55160/AT2G05642/AT1G72920/AT4G31970/AT2G31500/AT2G38340/AT1G59860/AT3G45790/AT5G64750/AT2G41010/AT1G61566/AT5G63130/AT3G08860/AT3G01420/AT1G09070/AT1G72910/AT1G14780/AT1G32928/AT1G74310/AT5G52910/AT1G20823/AT1G11100/AT2G29110/AT3G22600/AT2G33775/AT5G08150/AT5G57510/AT5G19240/AT1G63750/AT3G45640/AT5G04340/AT4G23450/AT3G50060/AT1G63860/AT1G72360/AT4G33465/AT4G14690/AT3G01530/AT3G46230/AT5G05410/AT1G19020/AT5G17970/AT3G23270/AT2G34825/AT5G47230/AT5G49240/AT3G49530/AT4G19520/AT5G18620/AT5G24590/AT2G40140/AT2G32200/AT5G54770/AT5G13220/AT1G76260/AT2G34600/AT3G06630/AT1G33610/AT1G07400/AT4G17490/AT1G15010/AT3G50720/AT4G01250/AT4G19520/AT5G27420/AT4G17380/AT1G43800/AT2G41240/AT5G47710/AT2G03840/AT4G08950/AT4G17490/AT4G23810/AT1G61950/AT1G73805/AT4G08950/AT2G23810/AT1G21910/AT1G56540/AT2G44840/AT2G38470/AT5G66650/AT1G60983/AT4G27657/AT5G06320/AT2G22500/AT1G21550/AT5G41740/AT5G20230/AT5G20230/AT2G30040/AT1G27730/AT4G08950/AT3G12890/AT4G01360/AT2G30020/AT1G17380/AT3G04640/AT5G63790/AT2G32140/AT5G20230/AT2G23810/AT5G05410/AT5G12180/AT4G23515/AT3G48360/AT2G26150/AT5G18320/AT5G45340/AT1G13300/AT2G20142/AT1G61340/AT5G20230/AT2G30020/AT2G23810/AT2G40140/AT2G30020/AT5G57450/AT1G48490/AT1G19530/AT2G22500/AT1G18300/AT1G29690/AT1G07135/AT1G04310/AT5G41740/AT1G16130/AT5G66210/AT5G59820/AT2G32210/AT1G57850/AT1G06135/AT1G74045/AT4G24110/AT1G22810/AT3G48360/AT4G13395/AT1G17600/AT4G19520/AT2G33580/AT3G46090/AT5G63770/AT3G48360/AT1G28370/AT5G66650/AT2G31650/AT5G41750/AT5G45210/AT1G66090/AT3G26790/AT3G14395/AT4G14640/AT5G41740/AT5G41750/AT5G64810/AT4G20940/AT4G16950/AT3G55980/AT3G56880/AT4G30280/AT4G23810/AT3G46080/AT5G57560/AT5G12020/AT3G49530/AT2G46400/AT5G45630/AT5G12030/AT1G65390/AT4G34410/AT3G04640/AT2G46400/AT1G76650/AT4G24570/AT4G30430/AT4G10250/AT1G35140/AT5G42380/AT5G42380/AT5G45340/AT1G35140/AT5G45340/AT4G29780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0042221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to chemical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=40%, list=24%, signal=33%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2G39030/AT3G02885/AT5G37670/AT5G22530/AT5G64940/AT4G36070/AT5G63790/AT1G07150/AT3G23030/AT4G22110/AT5G65600/AT2G33080/AT1G74650/AT1G32640/AT5G23220/AT5G52640/AT1G51800/AT5G25250/AT1G16530/AT4G24080/AT3G28580/AT2G40000/AT5G38030/AT3G50930/AT3G49580/AT1G16420/AT5G07990/AT4G38825/AT1G07150/AT5G21120/AT5G62520/AT1G72920/AT1G72920/AT4G31320/AT1G09070/AT1G08430/AT1G30100/AT1G80460/AT2G40000/AT3G10585/AT3G17790/AT5G62120/AT2G31910/AT2G17840/AT2G32460/AT5G25250/AT2G14560/AT3G13460/AT1G54050/AT5G44460/AT3G19940/AT1G14200/AT5G13220/AT1G08320/AT5G24590/AT5G52640/AT2G13810/AT1G78570/AT1G80590/AT3G52400/AT3G23170/AT1G65990/AT2G17840/AT5G06320/AT2G40000/AT2G29100/AT5G59090/AT3G59030/AT4G12720/AT4G04920/AT5G16020/AT2G34680/AT1G72920/AT4G31970/AT3G23250/AT2G38340/AT1G59860/AT5G64750/AT2G41010/AT5G63130/AT3G01420/AT1G09070/AT3G14110/AT1G72910/AT1G14780/AT1G32928/AT3G26520/AT1G74310/AT2G29110/AT3G22600/AT5G08150/AT5G57510/AT1G51190/AT5G19240/AT1G11670/AT3G45640/AT5G04340/AT4G23450/AT3G50060/AT3G44300/AT1G65510/AT5G17920/AT1G72360/AT3G52450/AT1G72520/AT3G01530/AT3G46230/AT5G05410/AT3G46620/AT1G19020/AT3G12750/ATMG00940/AT5G47230/AT5G49240/AT3G49530/AT4G19520/AT4G24020/AT5G24590/AT2G40140/AT2G32200/AT5G13220/AT5G13740/AT1G76260/AT2G34600/AT4G31800/AT5G59550/AT1G64820/AT1G07400/AT4G17490/AT1G15010/AT4G01250/AT1G68765/AT3G23250/AT1G15160/AT4G19520/AT5G27420/AT2G35930/AT1G43800/AT2G41240/AT5G47710/AT2G03840/AT4G08950/AT4G17490/AT4G23810/AT5G43890/AT5G15660/AT5G36925/AT3G10930/AT1G73805/AT4G08950/AT2G23810/AT1G21910/AT2G44840/AT2G38470/AT5G63160/AT5G66650/AT3G51200/AT4G27657/AT5G06320/AT2G22500/AT1G21550/AT1G36060/AT5G20230/AT5G20230/AT1G27730/AT5G37770/AT5G06650/AT2G40170/AT4G08950/AT5G12330/AT3G12890/AT4G01360/AT2G30020/AT1G17380/AT4G11280/AT3G04640/AT5G63790/AT5G20230/AT2G23810/AT5G05410/AT2G29500/AT3G48360/AT2G26150/AT5G18320/AT5G45340/AT1G13300/AT1G61340/AT5G20230/AT2G30020/AT2G23810/AT2G40140/AT2G30020/AT1G19530/AT2G22500/AT1G18300/AT1G29690/AT5G56960/AT1G07135/AT1G04310/AT2G29460/AT2G40340/AT5G59820/AT2G32210/AT1G69930/AT1G74045/AT4G24110/AT1G22810/AT3G48360/AT1G53540/AT4G13395/AT4G19520/AT2G33580/AT3G46090/AT3G48360/AT1G28370/AT5G66650/AT1G61800/AT2G31650/AT1G66090/AT3G26790/AT3G14395/AT4G14640/AT5G64810/AT3G61190/AT4G20940/AT3G55980/AT3G56880/AT4G30280/AT4G23810/AT3G46080/AT1G61800/AT3G17690/AT5G57560/AT4G25490/AT5G12020/AT3G49530/AT2G46400/AT5G45630/AT5G12030/AT1G65390/AT4G34410/AT3G04640/AT5G52050/AT1G80840/AT2G46400/AT1G76650/AT1G72520/AT4G24570/AT1G12610/AT1G80840/AT4G30430/AT4G10250/AT1G35140/AT5G42380/AT3G02840/AT5G42380/AT5G45340/AT1G35140/AT5G45340/AT4G29780/AT2G38380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0050896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to stimulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=36%, list=24%, signal=34%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2G39030/AT3G02885/AT1G69910/AT2G43480/AT5G37670/AT5G48850/AT1G47600/AT1G51470/AT3G63230/AT5G22530/AT5G64940/AT4G36070/AT5G63790/AT1G07150/AT3G23030/AT4G26440/AT4G22110/AT5G67450/AT5G65600/AT3G20740/AT2G33080/AT1G74650/AT1G35210/AT1G32640/AT5G23220/AT1G70130/AT5G52640/AT1G51800/AT5G25250/AT1G21110/AT1G16530/AT4G32780/AT2G05117/AT4G24080/AT4G15740/AT3G28580/AT2G40000/AT2G35380/AT5G38030/AT3G50930/AT3G49580/AT3G14415/AT1G16420/AT5G07990/AT5G18350/AT4G38825/AT1G07150/AT1G66870/AT5G21120/AT5G62530/AT5G62520/AT5G61430/AT4G10490/AT1G72920/AT4G36280/AT1G72920/AT4G30170/AT4G31320/AT1G09070/AT3G14460/AT1G08430/AT1G30100/AT1G80460/AT2G40000/AT4G22105/AT2G06983/AT3G10585/AT4G36990/AT3G17790/AT3G59740/AT5G62120/AT1G05460/AT2G31910/AT2G17840/AT2G32460/AT5G25250/AT2G14560/AT5G65300/AT2G15010/AT3G13460/AT3G57960/AT3G44550/AT1G10300/AT4G11650/AT4G12020/AT1G72950/AT1G54050/AT3G61850/AT4G24580/AT4G05360/AT5G44460/AT3G19940/AT1G14200/AT2G27690/AT5G13220/AT1G08320/AT5G24590/AT1G61140/AT5G52640/AT3G46760/AT2G13810/AT4G13280/AT4G13300/AT5G50780/AT1G78570/AT1G80590/AT1G22720/AT1G73200/AT3G52400/AT5G44920/AT3G23170/AT1G65990/AT2G31880/AT1G61420/AT2G03300/AT2G17840/AT5G06320/AT2G40000/AT2G29100/AT5G59090/AT3G29780/AT3G59030/AT3G03080/AT5G48010/AT5G58780/AT5G50260/AT5G67080/AT1G17615/AT4G12720/AT4G04920/AT5G16020/AT2G34680/AT3G55160/AT2G05642/AT1G72920/AT4G31970/AT3G23250/AT2G31500/AT2G38340/AT1G59860/AT3G45790/AT5G64750/AT2G41010/AT1G61566/AT5G63130/AT3G08860/AT3G01420/AT1G09070/AT3G14110/AT1G72910/AT1G14780/AT1G32928/AT3G26520/AT1G76690/AT1G74310/AT5G52910/AT1G20823/AT5G39670/AT1G11100/AT2G29110/AT3G22600/AT1G61480/AT2G33775/AT5G08150/AT1G61360/AT5G51190/AT1G32920/AT5G57510/AT1G51190/AT5G19240/AT1G11670/AT1G63750/AT3G45640/AT5G38350/AT5G04340/AT4G23450/AT5G22250/AT1G74930/AT3G50060/AT3G44300/AT1G65510/AT1G63860/AT5G17920/AT3G23820/AT1G72360/AT4G33465/AT3G62780/AT5G51190/AT4G08940/AT3G52450/AT3G28600/AT4G14690/AT1G72520/AT3G01530/AT3G46230/AT5G05410/AT3G46620/AT2G48150/AT1G19020/AT1G17870/AT5G17970/AT3G23270/AT2G34825/AT3G12750/ATMG00940/AT5G66390/AT5G47230/AT2G27270/AT5G49240/AT3G49530/AT4G19520/AT5G18620/AT4G24020/AT5G24590/AT1G10390/AT2G40140/AT1G60980/AT2G32200/AT3G21370/AT5G54770/AT5G13220/AT5G13740/AT1G76260/AT2G34600/AT3G06630/AT4G31800/AT1G33610/AT5G59550/AT1G64820/AT1G07400/AT4G17490/AT1G15010/AT3G50720/AT1G24110/AT4G01250/AT1G68765/AT3G23250/AT4G20000/AT1G15160/AT4G19520/AT5G27420/AT3G44260/AT2G35930/AT4G17380/AT1G43800/AT2G41240/AT5G47710/AT2G03840/AT4G08950/AT4G17490/AT4G23810/AT5G43890/AT5G15660/AT5G36925/AT3G10930/AT3G25830/AT3G25820/AT1G61950/AT1G73805/AT4G08950/AT2G23810/AT1G21910/AT1G56540/AT2G44840/AT2G38470/AT5G63160/AT5G66650/AT1G60983/AT3G51200/AT4G27657/AT5G06320/AT2G22500/AT1G21550/AT4G13280/AT5G39580/AT5G41740/AT3G62610/AT4G36430/AT1G36060/AT5G20230/AT5G20230/AT2G30040/AT1G27730/AT5G37770/AT5G06650/AT2G40170/AT5G12340/AT4G08950/AT5G12330/AT3G12890/AT4G01360/AT2G30020/AT1G34860/AT3G25180/AT1G17380/AT4G11280/AT3G04640/AT5G63790/AT2G32140/AT5G20230/AT2G23810/AT5G05410/AT5G12180/AT4G23515/AT2G29500/AT3G48360/AT2G26150/AT5G18320/AT5G45340/AT1G13300/AT4G15480/AT2G20142/AT2G44240/AT1G61340/AT3G48520/AT5G20230/AT2G30020/AT2G23810/AT3G14230/AT2G23400/AT5G09530/AT2G31957/AT2G40140/AT2G30020/AT5G57450/AT1G48490/AT1G19530/AT2G22500/AT1G18300/AT1G29690/AT5G56960/AT1G07135/AT5G02140/AT1G04310/AT5G41740/AT2G29460/AT2G40340/AT1G16130/AT5G66210/AT5G59820/AT2G32210/AT3G56410/AT5G55040/AT1G57850/AT1G69930/AT1G58420/AT1G24140/AT1G06135/AT1G68850/AT1G74045/AT4G24110/AT1G22810/AT3G48360/AT1G53540/AT3G28340/AT4G13395/AT1G02660/AT1G17600/AT4G19520/AT2G33580/AT3G46090/AT5G63770/AT3G20130/AT3G48360/AT1G28370/AT5G66650/AT1G61800/AT1G24010/AT2G31650/AT5G41750/AT5G45210/AT1G66090/AT3G26790/AT3G14395/AT4G14640/AT5G41740/AT5G41750/AT5G64810/AT3G61190/AT3G49860/AT3G28340/AT4G20940/AT4G16950/AT3G55980/AT3G56880/AT2G22880/AT4G30280/AT4G23810/AT3G46080/AT4G17090/AT5G43570/AT3G09440/AT1G61800/AT3G17690/AT5G57560/AT4G25490/AT5G12020/AT3G49530/AT2G46400/AT5G45630/AT5G12030/AT1G65390/AT4G34410/AT3G04640/AT3G21320/AT5G52050/AT5G17350/AT1G80840/AT2G46400/AT1G76650/AT1G72520/AT5G17350/AT4G24570/AT1G12610/AT4G25470/AT1G80840/AT4G30430/AT4G10250/AT1G35140/AT5G09530/AT5G42380/AT4G27670/AT3G02840/AT5G42380/AT5G45340/AT1G35140/AT2G27080/AT5G45340/AT4G29780/AT2G38380/AT1G70850/AT1G70850</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0009987</t>
@@ -92,130 +344,79 @@
     <t xml:space="preserve">cellular process</t>
   </si>
   <si>
-    <t xml:space="preserve">tags=57%, list=44%, signal=43%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT1G27220/AT5G58170/AT1G35467/AT1G28350/AT5G54920/AT4G04404/AT2G18640/AT3G51700/AT1G47220/AT5G49750/AT4G01680/AT1G11100/AT1G23320/AT1G59530/AT5G21120/AT5G55020/AT1G20570/AT2G22750/AT1G04370/AT3G44920/AT1G31640/AT4G02320/AT1G72260/AT1G06140/AT2G42660/AT1G43640/AT4G28420/AT5G41540/AT3G09010/AT3G17360/AT4G11730/AT1G29830/AT4G17220/AT3G61850/AT5G62240/AT5G06160/AT1G65990/AT5G39300/AT5G14010/AT5G35190/AT1G69320/AT5G01690/AT2G42210/AT3G12820/AT2G43330/AT3G05750/AT5G41550/AT1G71170/AT3G62680/AT1G48090/AT3G16280/AT5G49240/AT2G35990/AT5G57980/AT1G47890/AT2G34180/AT5G09750/AT4G26210/AT1G63530/AT4G38000/AT2G19500/AT5G52270/AT1G34220/AT5G14870/AT1G10800/AT1G72590/AT1G60740/AT5G25420/AT4G36580/AT3G03620/AT2G26940/AT2G33775/AT2G47040/AT1G03980/AT1G48490/AT5G50780/AT4G20940/AT3G47740/AT2G02860/AT4G10350/AT5G28646/AT2G39380/AT3G55790/AT4G32780/AT4G01840/AT5G48930/AT2G41540/AT1G17615/AT1G30420/AT1G05460/AT4G24580/AT4G36070/AT1G48640/AT5G57450/AT2G31310/AT4G21200/AT2G04300/AT5G39700/AT1G08100/AT1G07890/AT2G46290/AT2G41690/AT3G21150/AT3G06470/AT5G54770/AT3G01530/AT5G09330/AT1G56680/AT4G13750/AT1G61820/AT4G36380/AT3G24790/AT1G36580/AT1G23300/AT2G39510/AT4G10490/AT3G52930/AT2G29110/AT4G12750/AT4G17350/AT2G34890/AT4G29580/AT3G49700/AT1G08140/AT5G12280/AT1G27040/AT3G42180/AT4G24000/AT3G05930/AT2G31215/AT3G15340/AT2G41800/AT1G08090/AT4G15520/AT5G60830/AT2G17420/AT1G08320/AT4G27290/AT3G15930/AT3G14490/AT4G13280/AT4G17220/AT5G50960/AT3G11460/AT4G21180/AT4G02650/AT2G29460/AT3G55160/AT3G13610/AT1G72540/AT4G17380/AT4G28940/AT1G11160/AT1G74420/AT2G47300/AT2G30660/AT4G31970/AT2G16200/AT2G42890/AT5G61180/AT1G67300/AT4G36590/AT1G51870/AT4G21770/AT4G25590/AT2G15350/AT4G16950/AT1G60350/AT2G33310/AT3G01700/AT1G72570/AT4G09990/AT2G27220/AT1G32510/AT1G80590/AT4G08150/AT5G47710/AT3G43190/AT5G41310/AT5G64060/AT3G53640/AT2G05117/AT5G50260/AT5G58780/AT2G22900/AT5G23020/AT3G55440/AT4G27910/AT1G69500/AT4G10250/AT1G16010/AT4G38210/AT1G12630/AT5G17920/AT5G61850/AT1G78570/AT4G31940/AT2G23400/AT3G20740/AT5G62120/AT5G01570/AT1G62220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0008150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biological_process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=100%, list=100%, signal=1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G15700/AT1G12870/AT1G21610/AT2G33790/AT3G27940/AT2G15090/AT2G19970/AT4G17710/AT4G37900/AT4G35280/AT5G05600/AT2G37520/AT1G66850/AT4G03090/AT3G06260/AT5G35688/ATMG00010/AT1G80390/AT3G01190/ATMG00290/AT2G07734/AT5G57550/AT3G28390/AT4G29090/AT5G41840/AT3G29636/AT5G38920/AT4G31280/AT4G36740/AT1G08985/AT5G07490/AT5G02600/AT5G35900/AT1G29100/AT1G57670/AT3G06090/AT4G20670/AT3G21990/AT4G31760/AT2G17080/AT3G30775/AT1G08890/AT1G55560/AT2G13450/AT3G22275/AT5G67480/AT4G26701/AT1G48020/AT5G51430/AT1G65360/AT4G30030/AT2G48060/AT1G24250/ATMG01240/AT2G07825/AT5G52770/AT4G33145/AT1G11110/ATMG00880/ATMG00870/AT5G45090/AT5G40595/AT4G15393/AT4G15396/AT3G47720/ATMG00520/ATMG00540/AT2G07713/AT2G15185/AT2G07728/AT5G11080/AT5G12000/AT2G32310/AT2G03720/AT5G07500/AT3G44070/AT2G11851/AT3G17152/AT1G64800/AT2G44470/ATMG00530/AT2G07776/AT3G15550/AT3G25490/AT1G47300/AT1G60095/AT1G04950/AT2G05580/AT1G02040/AT3G28560/AT1G73130/AT3G05860/AT5G63085/AT1G56300/AT2G28120/AT2G07835/AT1G43970/AT5G17080/AT5G36490/AT5G36480/AT5G36657/AT5G36440/AT3G42565/AT5G36550/AT5G36390/AT5G36380/AT5G36340/AT5G36410/AT5G36658/AT5G36310/AT5G36460/AT5G36420/AT5G36370/AT5G36350/AT5G36320/AT5G36450/AT5G36400/AT5G36470/AT5G36500/AT5G36520/AT5G36540/AT5G36360/AT5G36430/AT1G47980/AT4G29620/AT5G17960/AT2G29045/AT2G05370/AT3G62680/AT4G04330/AT4G04320/AT1G44085/AT5G48000/AT5G35300/AT2G12405/AT5G23660/AT1G74140/AT3G45480/AT3G51560/AT5G64240/AT4G12510/AT2G33260/AT1G62770/AT5G01130/AT4G22210/AT5G60090/AT1G75910/AT5G56950/AT3G28520/AT2G13960/AT4G14465/AT1G17770/AT2G14935/AT5G26740/AT2G01960/ATMG01410/AT2G16190/AT5G19315/AT3G50010/AT4G08593/AT4G08730/AT5G60000/AT5G35737/AT2G47480/AT1G57830/AT2G07734/AT4G37780/AT3G59690/AT1G67265/AT5G45830/ATMG00710/AT1G35820/AT1G54860/AT5G05260/AT3G05660/AT5G53510/AT5G03980/AT3G05090/AT3G05080/AT2G33385/AT5G39510/AT4G24070/AT1G31790/AT3G58590/AT2G33720/AT1G78360/AT1G71320/AT5G24780/AT3G11680/ATMG00270/AT4G38990/AT2G21420/ATMG00580/AT5G47075/ATMG01350/AT2G07787/AT2G20380/AT2G42870/AT1G19900/AT1G23810/AT5G35550/AT4G35150/AT1G26799/ATMG00090/AT1G07747/AT2G22160/AT3G16680/AT3G44440/AT5G62165/AT5G63090/AT5G56440/AT1G75470/AT5G28510/AT4G15755/AT1G32560/AT3G20660/AT5G07780/AT1G66860/AT1G50470/AT3G53400/AT5G29050/AT5G34887/AT5G16330/AT1G59630/AT1G26773/AT1G47990/AT2G31180/AT3G51590/AT1G30920/AT2G24617/AT2G24620/AT2G01880/AT3G47720/AT1G05291/AT5G10760/AT5G34887/AT5G34881/AT3G30385/AT3G30387/AT4G32990/AT3G42560/AT5G08130/AT3G02100/AT3G30725/AT5G36490/AT5G36480/AT5G36657/AT5G36661/AT5G36440/AT5G36550/AT5G36390/AT5G36380/AT5G36410/AT5G36658/AT5G36460/AT5G36420/AT5G36370/AT5G36350/AT5G36450/AT5G36400/AT5G36470/AT5G36738/AT5G36500/AT5G36520/AT5G36540/AT5G36430/AT5G36360/AT1G07901/AT1G11050/AT5G55690/AT1G49720/AT2G04480/AT1G14940/AT4G12350/AT5G46660/AT5G15110/AT2G23060/ATMG00520/AT1G08630/AT3G46150/AT1G73160/AT5G24780/AT1G22010/AT2G07706/AT1G52695/ATMG00890/AT4G13480/AT5G45775/AT4G24310/AT1G32480/AT5G67480/AT2G34020/AT1G61700/AT3G02040/AT4G03510/AT3G27831/AT4G37950/AT5G10625/AT4G04330/AT3G42473/AT3G22235/AT4G02830/AT5G05030/AT5G02070/AT1G65120/AT3G08900/AT5G05780/AT5G17100/AT3G07070/AT5G06200/AT1G08440/AT1G09260/AT3G44180/AT2G20380/AT4G33600/AT1G59740/AT3G43120/ATMG00690/AT1G77340/AT1G70450/AT1G50390/AT2G25330/AT5G63090/AT5G20470/AT2G02026/AT1G47370/AT5G54010/AT3G53232/AT5G62623/AT1G56300/AT2G16365/AT3G01322/AT5G14650/AT4G00830/AT3G44340/ATMG00900/AT2G07771/AT2G07681/AT2G26370/AT5G14990/AT3G09130/ATMG00940/AT2G36450/AT3G54730/AT3G48920/AT1G54445/AT3G31910/AT3G28560/AT3G21970/AT2G47550/AT2G14830/ATMG00120/AT1G72980/AT4G01890/AT5G13150/AT4G20200/AT1G50050/AT1G10480/AT2G21655/AT4G08850/AT3G19700/AT1G10070/AT2G29780/AT3G52700/AT1G76930/AT1G80100/AT3G12880/AT5G20710/AT2G14870/AT2G07787/AT4G32810/AT4G12510/AT1G30974/AT4G23780/AT3G17500/AT5G67080/AT5G36680/AT5G36770/AT1G77100/AT4G39756/AT1G61060/AT4G37010/AT4G30120/AT1G09090/AT5G10200/AT1G43330/AT1G08480/AT5G07530/AT1G54720/AT1G74210/AT5G14602/AT3G49300/AT4G10780/AT1G55290/AT1G22130/AT3G02960/AT2G18620/AT1G48190/ATMG00880/AT1G44085/AT5G38920/AT3G20740/AT3G45480/AT3G19530/AT3G13610/AT3G02100/AT1G08890/AT1G76930/AT5G17090/AT1G26510/AT1G59630/AT5G34887/AT5G34881/AT3G30385/AT3G30387/AT5G45830/AT1G75920/AT1G48190/AT1G23520/AT1G50050/AT5G36490/AT5G36440/AT5G36550/AT5G36380/AT5G36340/AT5G36390/AT5G36410/AT5G36310/AT5G36460/AT5G36420/AT5G36370/AT5G36350/AT5G36450/AT5G36400/AT5G36470/AT5G36500/AT5G36520/AT5G36540/AT5G36430/AT5G36360/AT3G22235/AT1G61060/AT5G21080/ATMG00580/AT3G30385/AT3G30387/AT5G11360/AT5G02600/AT4G17780/AT2G24617/AT2G24620/AT5G11360/AT5G62165/AT5G26740/AT5G36490/AT5G36480/AT5G36657/AT5G36440/AT5G36550/AT5G36390/AT5G36380/AT5G36410/AT5G36658/AT5G36460/AT5G36420/AT5G36370/AT5G36350/AT5G36450/AT5G36400/AT5G36470/AT5G36500/AT5G36430/AT5G36360/AT2G22750/AT5G34887/AT5G34881/AT3G30385/AT3G30387/AT1G72540/AT1G63530/AT1G61060/AT5G36657/AT5G36658/AT1G22010/AT4G16260/AT1G07890/AT4G38210/AT5G48000/AT3G12880/AT4G28940/AT2G44470/AT5G09370/AT4G15393/AT1G34440/AT1G09090/AT1G79450/AT5G33393/AT1G78570/AT2G29780/AT5G36490/AT5G36657/AT5G36440/AT5G36390/AT5G36380/AT5G36410/AT5G36658/AT5G36460/AT5G36420/AT5G36370/AT5G36350/AT5G36450/AT5G36400/AT5G36470/AT5G36500/AT5G36520/AT5G36540/AT5G36430/AT5G36360/AT1G27220/AT3G31910/AT1G69320/AT5G07490/AT3G21990/AT5G52720/AT4G14465/AT4G27415/AT1G70260/AT2G40170/AT3G48920/AT4G13280/AT2G11851/AT2G05580/AT4G12510/AT3G17360/AT4G15740/AT3G44235/AT3G59170/AT1G27220/AT3G24517/AT5G58170/AT1G35467/AT1G28350/AT5G54920/AT2G17920/AT2G32470/AT5G41890/AT1G48940/AT4G04404/AT2G18640/AT1G55546/AT2G07280/AT3G51700/AT1G23250/AT4G02700/AT2G07750/AT2G30310/AT5G15725/AT1G47220/AT5G49750/AT4G01680/AT1G11100/AT1G23320/AT5G13825/AT1G59530/AT5G21120/AT5G25290/AT5G55020/AT1G20570/AT2G22750/AT5G20810/AT3G17270/AT1G53640/AT2G02490/AT1G04370/AT3G44920/AT3G44570/AT2G19300/AT2G40910/AT1G66235/AT1G36095/AT5G63595/AT1G31640/AT1G22670/AT5G38350/AT4G02320/AT1G72260/AT2G05970/AT1G10250/AT3G45248/AT1G06140/AT1G25310/AT2G42660/AT1G34440/AT1G69100/AT4G27415/AT5G24370/AT1G43640/AT5G56430/AT5G09370/AT4G28420/AT1G30795/AT1G75920/AT5G41540/AT3G09010/AT3G17360/AT4G11730/AT1G29830/AT4G17220/AT1G49310/AT3G43574/AT3G16432/AT1G30080/AT3G61850/AT5G62240/AT4G21240/AT1G07850/AT4G31630/AT5G06160/AT1G65990/AT2G34120/AT5G39300/AT5G36340/AT5G36310/AT5G36550/AT4G37060/AT5G14010/AT5G35190/AT1G69320/AT4G12930/AT5G01690/AT1G31400/AT1G42710/AT1G16770/AT1G06320/AT5G17730/AT2G42210/AT3G12820/AT2G23148/AT3G03405/AT4G22100/AT3G02885/AT2G28830/AT5G42930/AT2G43330/AT3G05750/AT5G41550/AT1G71170/AT2G44000/AT3G62680/AT1G48090/AT3G04545/AT1G43780/AT3G16280/AT1G11920/AT4G35170/AT4G17780/AT3G51200/AT3G58300/AT5G49240/AT2G35990/AT1G54700/AT3G14030/AT5G57980/AT1G47890/AT2G34180/AT5G15620/AT5G09750/AT4G26210/AT1G63530/AT2G15340/AT4G38000/AT4G15056/AT2G19500/AT5G52270/AT3G44790/AT1G64295/AT1G34220/AT5G14870/AT1G73340/AT1G10800/AT5G29613/AT1G72590/AT2G02147/AT1G52440/AT4G09740/AT1G60740/AT5G25420/AT4G36580/AT5G37990/AT3G32050/AT3G03620/AT1G23520/AT1G48010/AT2G26940/AT5G35510/AT2G33775/AT5G20640/AT2G47040/AT1G03980/AT1G48490/AT2G31770/AT5G50780/AT2G43660/AT4G20940/AT3G47740/AT4G28090/AT3G53550/AT2G31780/AT2G02860/AT4G10350/AT5G28646/AT2G39380/AT3G55790/AT4G32780/AT4G34170/AT4G01840/AT1G11608/AT5G48930/AT4G05250/AT2G41540/AT1G17615/AT1G30420/AT1G05460/AT1G29000/AT3G45673/AT4G24580/AT2G24780/AT4G36070/AT5G11220/AT3G58440/AT1G48640/AT5G57450/AT2G31310/AT4G21200/AT2G04300/AT3G50250/AT2G48140/AT4G15680/AT3G10890/AT5G17090/AT5G67400/AT2G32905/AT1G75920/AT2G24780/AT5G39700/AT1G08100/AT5G11370/AT1G69090/AT1G07890/AT2G46290/AT2G44010/AT5G54410/AT5G37920/AT2G41690/AT3G21150/AT3G06470/AT5G54770/AT3G01530/AT5G09330/AT3G56610/AT3G55680/AT4G22090/AT2G19510/AT1G22000/AT1G56680/AT4G13750/AT1G61820/AT1G32975/AT5G49340/AT4G36380/AT3G24790/AT1G36580/AT3G19610/AT5G49570/AT1G04945/AT2G34500/AT1G23300/AT2G39510/AT3G15604/AT3G20140/AT4G10490/AT3G52930/AT5G61120/AT2G29110/AT4G16260/AT3G59260/AT4G12750/AT5G20340/AT4G17350/AT2G34890/AT4G29580/AT3G49700/AT1G08140/AT5G63780/AT1G57580/AT5G12280/AT3G62710/AT5G11360/AT2G16300/AT2G20870/AT1G67450/AT1G27040/AT3G60950/AT3G61030/AT3G42180/AT4G24000/AT3G05930/AT2G31215/AT1G60090/AT1G65510/AT3G15340/AT1G23600/AT3G25650/AT2G41800/AT1G08090/AT4G15520/AT5G60830/AT2G17420/AT3G24850/AT1G32250/AT1G08320/AT4G27290/AT1G41820/AT3G15930/AT4G02810/AT4G10695/AT3G14490/AT4G13280/AT4G17220/AT5G50960/AT3G11460/AT4G21180/AT4G02650/AT5G06905/AT3G21320/AT1G11610/AT2G29460/AT3G55160/AT4G37070/AT4G37060/AT1G31200/AT3G15440/AT2G16230/AT3G22580/AT5G07990/AT3G44800/AT3G13610/AT3G32896/AT5G55132/AT3G03350/AT1G72540/AT2G44735/AT3G28790/AT3G57210/AT5G50140/AT1G62130/AT4G11650/AT4G17380/AT4G10950/AT4G28940/AT1G32960/AT1G11160/AT2G40170/AT1G74420/AT2G47300/AT2G30660/AT4G17505/AT5G03060/AT4G31970/AT3G19140/AT4G15740/AT1G40083/AT2G44000/AT2G16200/AT2G42890/AT5G61180/AT3G22620/AT4G03830/AT1G67300/AT3G52770/AT4G36590/AT5G62400/AT1G51870/AT4G08190/AT4G21760/AT4G21770/AT4G25590/AT3G29560/AT2G15350/AT4G16950/AT1G60350/AT5G21080/AT2G20597/AT5G39870/AT2G33310/AT2G33300/AT3G12240/AT3G01700/AT1G51250/AT4G28170/AT1G72570/AT4G09990/AT2G27220/AT3G24465/AT1G32510/AT1G80590/AT4G08150/AT5G47710/AT5G44690/AT3G43190/AT5G41310/AT5G64060/AT4G16090/AT4G39810/AT4G09775/AT3G03410/AT3G53640/AT5G52720/AT5G17040/AT2G05117/AT5G50260/AT4G29283/AT3G14460/AT5G58780/AT2G22900/AT5G23020/AT1G79450/AT3G19530/AT3G55440/AT5G25470/AT1G53550/AT5G33393/AT2G07140/AT1G26510/AT5G23220/AT4G27910/AT1G70260/AT5G04700/AT1G69500/AT3G24230/AT1G32337/AT4G10250/AT1G16010/AT3G16040/AT2G23240/AT1G47350/AT4G38210/AT1G12630/AT5G44430/AT2G26010/AT5G17920/AT5G61850/AT1G78570/AT2G26020/AT1G29195/AT2G23900/AT3G50480/AT5G06010/AT4G31940/AT2G23400/AT5G56120/AT3G20740/AT5G03360/AT5G62120/AT1G74460/AT3G21980/AT5G01570/AT1G62220/AT2G38380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0071704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">organic substance metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=58%, list=44%, signal=40%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT1G27220/AT5G58170/AT1G28350/AT4G04404/AT2G18640/AT3G51700/AT1G47220/AT4G01680/AT1G11100/AT1G23320/AT1G59530/AT5G21120/AT5G55020/AT2G22750/AT1G04370/AT5G63595/AT1G31640/AT1G22670/AT4G02320/AT1G06140/AT2G42660/AT1G69100/AT1G43640/AT4G28420/AT1G75920/AT3G09010/AT1G30080/AT3G61850/AT5G06160/AT5G14010/AT3G12820/AT4G22100/AT5G42930/AT1G71170/AT3G16280/AT1G11920/AT2G35990/AT5G57980/AT2G34180/AT5G09750/AT4G26210/AT4G38000/AT2G19500/AT1G73340/AT1G72590/AT2G26940/AT2G47040/AT1G03980/AT1G48490/AT2G31770/AT5G50780/AT4G20940/AT2G31780/AT2G02860/AT4G10350/AT5G48930/AT4G05250/AT2G41540/AT1G05460/AT4G36070/AT5G57450/AT2G31310/AT4G21200/AT1G75920/AT5G39700/AT1G07890/AT2G46290/AT2G41690/AT3G21150/AT3G06470/AT5G54770/AT3G01530/AT5G09330/AT4G22090/AT1G56680/AT1G61820/AT4G36380/AT1G36580/AT5G49570/AT2G34500/AT4G10490/AT3G52930/AT4G16260/AT4G12750/AT5G20340/AT2G34890/AT4G29580/AT3G49700/AT5G12280/AT3G62710/AT3G42180/AT4G24000/AT2G31215/AT1G60090/AT3G25650/AT2G41800/AT4G15520/AT5G60830/AT1G08320/AT4G27290/AT3G15930/AT3G14490/AT4G13280/AT3G11460/AT2G29460/AT3G55160/AT2G16230/AT5G07990/AT3G13610/AT4G17380/AT4G28940/AT1G74420/AT2G47300/AT2G30660/AT5G61180/AT4G36590/AT4G21760/AT4G21770/AT2G15350/AT1G60350/AT2G33310/AT1G72570/AT4G09990/AT2G27220/AT1G32510/AT1G80590/AT4G08150/AT3G43190/AT5G64060/AT3G53640/AT5G17040/AT5G50260/AT5G58780/AT2G22900/AT5G23020/AT3G55440/AT4G27910/AT3G24230/AT4G10250/AT1G12630/AT5G17920/AT5G61850/AT1G78570/AT2G23900/AT4G31940/AT2G23400/AT3G20740/AT5G62120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:2000241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of reproductive process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=39%, list=29%, signal=29%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT2G33790/AT4G37900/AT5G36490/AT5G36480/AT5G36657/AT3G42565/AT5G36550/AT5G36658/AT5G36310/AT5G36370/AT5G36350/AT5G36320/AT5G36500/AT5G36520/AT5G36540/AT4G14465/AT5G45830/AT5G62165/AT5G36490/AT5G36480/AT5G36657/AT5G36661/AT5G36550/AT5G36658/AT5G36370/AT5G36350/AT5G36500/AT5G36520/AT5G36540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0005975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carbohydrate metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=57%, list=28%, signal=43%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT2G47040/AT2G02860/AT2G41540/AT4G22090/AT1G56680/AT1G61820/AT3G52930/AT4G16260/AT5G20340/AT3G62710/AT4G24000/AT1G60090/AT2G41800/AT2G16230/AT1G74420/AT4G21760/AT2G15350/AT4G09990/AT3G43190/AT2G22900/AT3G55440/AT3G24230/AT2G23900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0034641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular nitrogen compound metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=37%, list=19%, signal=34%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G15700/AT5G09770/AT2G19430/AT5G65080/AT5G58220/AT3G47340/AT1G33060/AT3G47340/AT3G52260/AT5G65080/AT4G03090/AT1G55600/AT5G09410/AT5G56950/AT1G56010/AT5G51790/AT3G47340/AT1G02040/AT1G80390/AT5G02220/AT4G08850/AT5G27860/AT4G35280/AT4G29620/AT5G54230/AT2G44910/AT2G34880/AT5G45830/AT3G05860/AT1G51120/AT1G08070/AT3G16810/AT5G04370/AT5G35550/AT4G04320/AT3G58590/AT3G24093/AT2G29540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OEP12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0046483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heterocycle metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=64%, list=42%, signal=41%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G15700/AT2G19430/AT5G65080/AT5G58220/AT1G33060/AT3G52260/AT5G65080/AT4G03090/AT1G55600/AT5G09410/AT5G56950/AT1G56010/AT5G51790/AT1G02040/AT1G80390/AT5G02220/AT4G08850/AT5G27860/AT4G35280/AT4G29620/AT5G54230/AT2G44910/AT2G34880/AT5G45830/AT3G05860/AT1G51120/AT1G08070/AT5G04370/AT5G35550/AT4G04320/AT3G58590/AT3G24093/AT2G29540/AT2G47460/AT1G79700/AT2G44910/AT5G67480/AT3G15130/AT2G30350/AT4G22600/AT3G06640/AT5G22470/AT5G35120/AT5G65080/AT2G48080/AT5G45830/AT3G03760/AT1G33280/AT2G33720/AT5G01900/AT3G16680/AT5G01200/AT1G13700/AT1G80580/AT1G31790/AT2G18550/AT4G12350/AT5G58610/AT4G04920/AT5G65740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:1901360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">organic cyclic compound metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=62%, list=42%, signal=41%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G15700/AT2G19430/AT5G65080/AT5G58220/AT1G33060/AT3G52260/AT5G65080/AT4G03090/AT1G55600/AT5G09410/AT5G56950/AT1G56010/AT5G51790/AT1G02040/AT1G80390/AT5G02220/AT4G08850/AT5G27860/AT2G44130/AT4G35280/AT4G29620/AT5G54230/AT2G44910/AT2G34880/AT4G15393/AT4G15396/AT5G45830/AT3G05860/AT1G51120/AT1G08070/AT5G04370/AT5G35550/AT4G04320/AT3G58590/AT3G24093/AT2G29540/AT5G48000/AT2G47460/AT1G79700/AT2G44910/AT5G67480/AT3G15130/AT2G30350/AT4G22600/AT3G06640/AT2G21730/AT2G23570/AT5G22470/AT5G35120/AT5G65080/AT2G48080/AT5G45830/AT3G03760/AT1G33280/AT2G33720/AT5G01900/AT3G16680/AT5G01200/AT1G13700/AT1G80580/AT1G31790/AT2G18550/AT4G12350/AT5G58610/AT4G04920/AT5G65740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nucleobase-containing compound metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G15700/AT2G19430/AT5G65080/AT5G58220/AT1G33060/AT3G52260/AT5G65080/AT4G03090/AT1G55600/AT5G09410/AT5G56950/AT1G56010/AT5G51790/AT1G02040/AT1G80390/AT5G02220/AT5G27860/AT4G35280/AT4G29620/AT5G54230/AT2G44910/AT2G34880/AT5G45830/AT3G05860/AT1G51120/AT1G08070/AT5G35550/AT4G04320/AT3G58590/AT3G24093/AT2G29540/AT2G47460/AT1G79700/AT2G44910/AT5G67480/AT3G15130/AT2G30350/AT4G22600/AT3G06640/AT5G22470/AT5G35120/AT5G65080/AT2G48080/AT5G45830/AT3G03760/AT1G33280/AT2G33720/AT5G01900/AT3G16680/AT5G01200/AT1G13700/AT1G80580/AT1G31790/AT2G18550/AT4G12350/AT5G58610/AT4G04920/AT5G65740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0090304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nucleic acid metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=65%, list=42%, signal=41%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G15700/AT2G19430/AT5G65080/AT1G33060/AT3G52260/AT5G65080/AT4G03090/AT1G55600/AT5G09410/AT5G56950/AT1G56010/AT5G51790/AT1G02040/AT1G80390/AT5G02220/AT5G27860/AT4G35280/AT5G54230/AT2G44910/AT2G34880/AT5G45830/AT3G05860/AT1G51120/AT1G08070/AT5G35550/AT3G58590/AT3G24093/AT2G29540/AT2G47460/AT1G79700/AT2G44910/AT5G67480/AT3G15130/AT2G30350/AT4G22600/AT3G06640/AT5G22470/AT5G35120/AT5G65080/AT2G48080/AT5G45830/AT3G03760/AT1G33280/AT2G33720/AT5G01900/AT3G16680/AT5G01200/AT1G80580/AT1G31790/AT2G18550/AT4G12350/AT5G58610/AT4G04920/AT5G65740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0009059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">macromolecule biosynthetic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=64%, list=41%, signal=41%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G15700/AT5G09770/AT2G19430/AT5G65080/AT1G80740/AT1G33060/AT3G52260/AT5G65080/AT4G03090/AT1G55600/AT5G09410/AT3G09320/AT1G56010/AT5G51790/AT1G02040/AT1G80390/AT5G27860/AT2G44140/AT4G35280/AT5G54230/AT2G44910/AT2G34880/AT5G45830/AT2G32750/AT3G05860/AT1G51120/AT1G08070/AT4G04330/AT3G16810/AT5G35550/AT4G04330/AT3G24093/AT2G29540/AT2G04030/AT2G47460/AT1G79700/AT2G44910/AT5G67480/AT2G30350/AT4G22600/AT3G06640/AT3G01620/AT5G35120/AT5G65080/AT2G48080/AT5G45830/AT3G03760/AT1G33280/AT2G33720/AT5G01900/AT3G16680/AT5G01200/AT1G68725/AT3G50220/AT5G21150/AT1G80580/AT2G18550/AT4G12350/AT5G58610/AT4G04920</t>
+    <t xml:space="preserve">tags=31%, list=25%, signal=34%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT4G21200/AT3G55100/AT1G73500/AT1G78000/AT1G48640/AT1G66120/AT3G18035/AT2G39030/AT1G69910/AT2G43480/AT2G30730/AT5G37670/AT2G46920/AT1G31260/AT5G48850/AT1G30120/AT1G47600/AT1G51470/AT2G36740/AT5G64940/AT4G10260/AT4G36070/AT5G63790/AT2G19130/AT1G07150/AT3G23030/AT4G26440/AT2G41540/AT4G22110/AT5G67450/AT1G74440/AT2G42890/AT5G65600/AT3G49130/AT4G34520/AT1G09330/AT3G20740/AT2G33080/AT1G02810/AT1G32640/AT3G56790/AT2G18720/AT1G52320/AT3G16280/AT5G27960/AT1G33750/AT5G52640/AT5G09290/AT5G55020/AT1G51800/AT3G44920/AT4G01840/AT5G41250/AT4G11030/AT4G21080/AT5G25250/AT5G28237/AT2G43150/AT1G21100/AT1G21110/AT1G16530/AT4G32780/ATMG01360/AT2G05117/AT4G24080/AT2G40000/AT4G00005/AT2G35380/AT2G33870/AT5G38030/AT2G20560/AT1G62220/AT5G34850/AT3G25260/AT3G50930/AT1G66145/AT1G36580/AT3G49580/AT3G14415/AT1G16420/AT5G01640/AT5G18350/AT1G07150/AT1G66870/ATMG01360/AT5G57590/AT2G46740/AT5G21120/AT5G62530/AT5G62520/AT5G61430/AT4G10490/AT5G51990/AT1G72920/AT1G67370/AT4G36280/AT1G72920/AT1G71170/AT5G59950/AT1G09070/AT2G20560/AT2G20520/AT4G16745/AT1G08430/AT1G30100/AT1G80460/AT1G61470/AT2G40000/AT2G46130/AT4G22105/AT2G06983/AT5G36870/AT2G02010/AT4G13620/AT1G16010/AT4G36990/AT3G48920/AT4G26701/AT5G57530/AT3G55540/AT3G46350/AT1G09410/AT1G27220/AT3G17790/AT4G24000/AT5G62120/AT1G05460/AT2G31910/AT5G39930/AT1G79330/AT5G37170/AT2G32460/AT5G25250/AT3G04100/AT1G32350/AT1G29870/AT1G44100/AT3G13460/AT1G12540/AT3G44550/AT1G10300/AT4G12020/AT1G72950/AT5G37260/AT1G54050/AT2G23640/AT5G57620/AT1G27820/AT3G61850/AT1G03490/AT5G61180/AT4G38000/AT4G24580/AT1G29830/AT4G05360/AT3G19940/AT1G14200/AT5G13220/AT1G08320/AT5G24590/AT4G11730/AT1G61140/AT1G26780/ATMG00210/AT2G07725/AT5G52640/AT3G46760/AT5G25420/AT2G13810/AT4G13280/AT4G13300/AT5G50780/AT1G78570/AT1G80590/AT1G22720/AT1G73200/AT3G10710/AT1G27890/AT3G52400/AT5G44920/AT3G23170/AT1G65990/AT3G18220/AT2G31880/AT2G31890/AT1G61420/AT5G39440/AT3G16340/AT2G03300/AT5G06320/AT2G40000/AT2G29100/AT1G73410/AT3G29780/AT3G59030/AT5G48010/AT5G58780/AT2G21610/AT5G60180/AT5G11400/AT3G01700/AT5G09330/AT1G77950/AT5G50260/AT5G67080/AT1G17615/AT4G12720/AT4G04920/AT2G16535/AT3G55160/AT2G05642/AT1G72920/ATMG00210/AT2G07725/AT4G31970/AT1G02830/AT2G31500/AT5G62240/AT2G38340/AT1G59860/AT3G45790/AT5G64750/AT2G41010/AT3G47740/AT3G45690/AT4G36380/AT1G61566/AT5G63130/AT3G08860/AT3G01420/AT4G13700/AT1G09070/AT5G21050/AT3G14110/AT1G72910/AT1G14780/AT3G63380/AT4G17840/AT1G32928/AT3G26520/AT1G76690/AT1G74310/AT5G52910/AT1G20823/AT1G13590/AT3G18400/AT2G44990/AT1G11100/AT1G51830/AT2G29110/AT3G22600/AT1G61480/AT2G33775/AT1G19210/AT5G08150/AT3G16860/AT5G63560/AT4G26700/AT1G61360/AT5G51190/AT3G28360/AT3G29255/AT3G09380/AT5G17410/AT4G18600/AT5G57510/AT1G51190/AT5G19240/AT1G11670/AT1G63750/AT3G45640/ATMG00590/AT5G04340/AT4G23450/AT1G52240/AT5G36150/AT5G22250/AT3G46540/AT5G18840/AT5G60830/AT1G74930/AT3G50060/AT3G44300/AT3G48620/AT1G66020/AT1G48150/AT1G63860/AT5G52270/AT5G17920/ATMG00290/AT2G03770/AT5G38250/AT5G23260/AT3G23820/AT1G72360/AT4G25110/AT4G33465/AT3G10070/AT4G31230/AT3G14530/AT4G02650/AT2G37420/AT3G49700/AT1G15810/AT1G51910/AT5G51190/AT4G14690/AT1G72520/AT3G01530/AT1G69320/AT2G38040/AT3G46230/AT3G55840/AT5G05410/AT3G04410/AT1G69500/AT1G19020/AT5G17970/AT3G23270/AT2G34825/AT3G12750/ATMG00940/AT5G66390/AT5G47230/AT1G32510/AT5G49240/AT3G49530/AT1G79580/AT4G19520/AT2G13680/AT5G18620/AT3G19020/AT4G24020/AT2G15660/AT5G24590/AT1G10390/AT2G40140/AT1G60980/AT2G32200/AT3G21370/AT3G58390/AT5G54770/AT2G22900/AT3G11430/AT3G27440/AT5G13220/AT2G34820/AT5G13740/AT1G76260/AT2G34600/AT3G06630/AT4G31800/AT1G33610/AT3G55210/AT1G64820/AT1G07400/AT3G22910/AT1G54330/AT4G17490/AT2G13150/AT1G15010/AT3G50720/AT2G30660/AT3G24290/AT4G01250/AT4G01950/AT5G02580/AT1G27770/AT1G68765/AT5G01380/AT1G15160/AT4G19520/AT5G27420/AT3G44260/AT1G70330/AT5G35190/AT4G26770/AT4G17380/AT1G43800/AT2G41240/AT3G17360/AT5G47710/AT2G03840/AT3G55500/AT4G08950/AT4G17490/AT4G23810/AT5G43890/AT5G58660/AT3G17360/AT1G67300/AT3G10930/AT1G34220/AT3G25830/AT3G25820/AT1G61950/AT1G73805/AT4G04260/AT3G53510/AT3G56520/AT5G41680/AT5G43620/AT2G47810/AT5G21960/AT1G66500/AT4G08950/AT2G23810/AT5G62165/AT1G21910/AT1G56540/AT2G44840/AT2G38470/AT1G02390/AT5G63160/AT1G32300/AT5G66650/AT1G60983/AT2G14620/AT1G59312/AT3G23980/AT1G56680/AT2G04300/AT4G27657/AT5G66280/AT5G06320/AT2G22500/AT2G21235/AT5G38120/AT1G21550/AT4G13280/AT1G10710/AT3G45970/AT5G41740/AT5G09220/AT3G62610/AT1G36060/AT3G05750/AT5G20230/AT5G20230/AT1G76050/AT2G30040/AT1G27730/AT2G18590/AT5G06650/AT1G51870/AT4G29570/AT4G08950/AT5G12330/AT1G50930/AT3G12890/AT4G01360/AT2G30020/AT1G07160/AT3G25180/AT3G21520/AT4G15417/AT2G38995/AT1G17380/AT4G11280/AT3G04640/AT2G37360/AT5G63790/AT2G32140/AT1G62060/AT1G62080/AT2G48110/AT5G20230/AT2G23810/AT5G05410/AT5G12180/AT4G23515/AT2G21900/AT2G29500/AT1G61590/AT3G48360/AT2G26150/AT5G18320/AT5G45340/AT5G19410/AT1G13300/AT4G39670/AT1G27770/AT5G01100/AT4G37770/AT2G20142/AT5G48000/AT1G61340/AT3G48520/AT2G42210/AT5G20230/AT2G30020/AT2G23810/AT1G66170/AT3G14230/AT2G23400/AT2G16980/AT2G05050/AT3G27140/AT4G08260/AT2G31690/AT2G40140/AT3G18400/AT2G30020/AT5G57450/AT5G39410/AT1G48490/AT1G19530/AT2G22500/AT1G18300/AT1G29690/AT5G56960/AT1G07135/AT2G47300/AT1G04310/AT5G41740/AT2G29460/AT4G17660/AT2G40340/ATMG00270/AT1G16130/AT5G66210/AT5G59820/AT1G63030/AT2G32210/AT1G57850/AT1G69930/AT1G24140/AT1G12780/AT1G06135/AT3G45970/AT1G74045/AT4G24110/AT1G22810/AT3G48360/AT2G37560/AT1G53540/AT3G28340/AT4G13395/AT4G09990/AT1G17600/AT4G19520/AT2G32050/AT5G66160/AT2G33580/AT3G46090/AT5G63770/AT2G20630/AT3G46640/AT3G48360/AT2G26400/AT1G28370/AT4G13420/AT5G66650/AT1G61800/AT1G77640/AT2G31650/AT1G64380/AT5G41750/AT5G45210/AT1G66090/AT3G26790/AT1G17235/AT3G14395/AT4G14640/AT5G41740/AT5G41750/AT5G64810/AT3G49860/AT1G74420/AT3G28340/AT4G20940/AT4G16950/AT3G55980/AT5G12280/AT3G56880/AT4G30280/AT4G23810/AT3G46080/AT3G09440/AT1G61800/AT4G25810/AT5G57560/AT4G25490/AT2G22760/AT5G12020/AT3G49530/AT2G23290/AT2G46400/AT5G45630/AT5G12030/AT1G65390/AT1G33760/AT4G34410/AT1G72570/AT3G04640/AT5G52050/AT4G08040/AT1G80840/AT2G46400/AT1G76650/AT1G72520/AT3G09360/AT5G51990/AT4G24570/AT1G12610/AT4G25470/AT1G80840/AT4G30430/AT4G10250/AT5G58860/AT1G35140/AT5G42380/AT5G20220/AT4G27670/AT5G42380/AT5G45340/AT1G35140/AT5G45340/AT4G29780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0050794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cellular process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=33%, list=24%, signal=29%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT3G18035/AT1G69910/AT2G46920/AT5G48850/AT2G36740/AT4G36070/AT5G63790/AT1G07150/AT3G23030/AT4G26440/AT5G67450/AT2G42890/AT5G65600/AT3G20740/AT2G33080/AT1G32640/AT3G16280/AT5G27960/AT5G55020/AT1G51800/AT4G21080/AT1G16530/AT4G32780/AT2G05117/AT4G24080/AT5G34850/AT3G50930/AT1G66145/AT5G18350/AT1G07150/AT1G66870/AT5G21120/AT5G61430/AT5G51990/AT1G72920/AT4G36280/AT1G72920/AT1G61470/AT2G46130/AT4G22105/AT2G06983/AT4G13620/AT4G36990/AT3G48920/AT1G27220/AT5G62120/AT1G05460/AT1G79330/AT2G32460/AT3G04100/AT3G13460/AT1G12540/AT4G12020/AT1G72950/AT5G37260/AT5G57620/AT1G27820/AT3G61850/AT1G03490/AT5G61180/AT4G38000/AT4G24580/AT5G13220/AT1G08320/AT1G26780/AT2G13810/AT5G50780/AT1G78570/AT1G80590/AT1G22720/AT1G73200/AT1G27890/AT3G52400/AT5G44920/AT2G31880/AT2G31890/AT3G16340/AT2G03300/AT2G29100/AT1G73410/AT3G29780/AT5G60180/AT5G09330/AT1G77950/AT5G67080/AT1G17615/AT4G12720/AT4G04920/AT3G55160/AT1G72920/AT2G31500/AT5G62240/AT2G38340/AT3G45790/AT5G64750/AT2G41010/AT1G61566/AT1G72910/AT1G14780/AT1G74310/AT5G52910/AT3G18400/AT2G29110/AT3G22600/AT2G33775/AT1G19210/AT5G08150/AT5G51190/AT5G17410/AT4G18600/AT1G51190/AT1G63750/AT3G45640/AT5G04340/AT4G23450/AT5G22250/AT5G60830/AT1G74930/AT3G50060/AT1G48150/AT1G63860/AT5G17920/AT5G23260/AT1G72360/AT4G25110/AT4G33465/AT3G49700/AT5G51190/AT4G14690/AT3G01530/AT1G69320/AT5G05410/AT3G04410/AT5G17970/AT3G23270/AT2G34825/ATMG00940/AT5G47230/AT1G32510/AT5G49240/AT3G49530/AT1G79580/AT4G19520/AT2G13680/AT5G18620/AT2G15660/AT2G40140/AT3G58390/AT5G13220/AT2G34820/AT5G13740/AT1G76260/AT2G34600/AT3G06630/AT4G31800/AT1G33610/AT3G55210/AT1G54330/AT4G17490/AT2G13150/AT3G50720/AT4G01250/AT5G02580/AT1G68765/AT5G01380/AT4G19520/AT3G44260/AT2G41240/AT5G47710/AT2G03840/AT4G08950/AT4G17490/AT4G23810/AT3G10930/AT1G61950/AT1G73805/AT4G04260/AT3G56520/AT2G47810/AT5G21960/AT4G08950/AT2G23810/AT5G62165/AT1G21910/AT1G56540/AT2G44840/AT2G38470/AT5G63160/AT1G60983/AT3G23980/AT2G21235/AT5G41740/AT3G62610/AT1G36060/AT5G20230/AT5G20230/AT2G30040/AT1G27730/AT5G06650/AT4G08950/AT5G12330/AT3G12890/AT2G30020/AT4G15417/AT1G17380/AT5G63790/AT2G32140/AT2G48110/AT5G20230/AT2G23810/AT5G05410/AT5G12180/AT4G23515/AT2G21900/AT1G61590/AT3G48360/AT2G26150/AT1G13300/AT5G01100/AT2G20142/AT5G20230/AT2G30020/AT2G23810/AT1G66170/AT3G14230/AT2G40140/AT3G18400/AT2G30020/AT1G48490/AT1G29690/AT5G56960/AT1G04310/AT5G41740/AT2G40340/AT1G16130/AT5G66210/AT1G63030/AT1G57850/AT1G06135/AT1G74045/AT1G22810/AT3G48360/AT4G13395/AT1G17600/AT4G19520/AT3G46090/AT5G63770/AT3G46640/AT3G48360/AT1G28370/AT1G61800/AT1G77640/AT2G31650/AT1G64380/AT5G41750/AT5G45210/AT1G66090/AT3G26790/AT1G17235/AT3G14395/AT4G14640/AT5G41740/AT5G41750/AT5G64810/AT4G20940/AT4G16950/AT3G55980/AT4G23810/AT3G46080/AT1G61800/AT4G25490/AT2G22760/AT3G49530/AT2G23290/AT2G46400/AT1G65390/AT1G33760/AT4G34410/AT1G72570/AT1G80840/AT2G46400/AT1G76650/AT5G51990/AT1G12610/AT4G25470/AT1G80840/AT4G30430/AT5G20220/AT4G27670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0023052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=39%, list=22%, signal=32%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT1G16530/AT4G32780/AT2G05117/AT4G24080/AT3G50930/AT1G66145/AT5G18350/AT1G07150/AT5G21120/AT1G72920/AT1G72920/AT4G22105/AT2G06983/AT5G62120/AT2G32460/AT4G12020/AT1G72950/AT4G24580/AT5G13220/AT1G08320/AT2G13810/AT1G78570/AT1G22720/AT1G73200/AT3G52400/AT5G44920/AT2G03300/AT2G29100/AT3G29780/AT5G67080/AT1G17615/AT4G12720/AT4G04920/AT3G55160/AT1G72920/AT2G31500/AT3G45790/AT5G64750/AT1G61566/AT1G72910/AT1G14780/AT5G52910/AT2G29110/AT3G22600/AT2G33775/AT5G08150/AT1G63750/AT3G45640/AT4G23450/AT3G50060/AT1G63860/AT1G72360/AT4G33465/AT3G01530/AT1G69320/AT5G17970/AT3G23270/AT2G34825/AT5G47230/AT5G49240/AT3G49530/AT4G19520/AT5G13220/AT1G76260/AT2G34600/AT3G06630/AT1G33610/AT4G17490/AT3G50720/AT4G19520/AT5G47710/AT2G03840/AT4G08950/AT4G17490/AT4G23810/AT1G61950/AT4G08950/AT2G23810/AT1G56540/AT2G44840/AT1G60983/AT5G41740/AT2G30040/AT4G08950/AT3G12890/AT2G30020/AT1G17380/AT2G32140/AT2G23810/AT5G12180/AT4G23515/AT3G48360/AT1G13300/AT2G20142/AT2G30020/AT2G23810/AT2G30020/AT1G48490/AT1G29690/AT1G04310/AT5G41740/AT1G16130/AT5G66210/AT1G57850/AT1G06135/AT1G74045/AT3G48360/AT1G17600/AT4G19520/AT5G63770/AT3G48360/AT1G28370/AT2G31650/AT5G41750/AT5G45210/AT1G66090/AT3G26790/AT3G14395/AT4G14640/AT5G41740/AT5G41750/AT5G64810/AT4G20940/AT4G16950/AT4G23810/AT3G49530/AT2G46400/AT1G65390/AT4G34410/AT2G46400/AT1G76650/AT4G30430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0044249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular biosynthetic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=31%, list=24%, signal=28%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G37670/AT2G46920/AT5G48850/AT1G30120/AT2G36740/AT5G64940/AT4G10260/AT5G63790/AT3G23030/AT4G26440/AT5G67450/AT3G49130/AT4G34520/AT3G20740/AT1G32640/AT3G56790/AT2G18720/AT1G52320/AT3G16280/AT5G27960/AT1G33750/AT5G52640/AT5G55020/AT5G41250/AT4G11030/AT4G21080/AT5G28237/AT1G21100/AT1G21110/AT2G20560/AT1G62220/AT3G14415/AT5G57590/AT2G46740/AT5G21120/AT5G61430/AT5G51990/AT5G59950/AT2G20560/AT4G16745/AT1G30100/AT1G61470/AT2G46130/AT5G36870/AT4G13620/AT4G36990/AT3G48920/AT1G27220/AT4G24000/AT5G62120/AT1G05460/AT5G39930/AT5G37170/AT2G32460/AT3G04100/AT1G29870/AT3G13460/AT1G12540/AT3G44550/AT4G12020/AT5G37260/AT1G54050/AT5G57620/AT1G27820/AT3G61850/AT1G03490/AT5G61180/AT4G38000/AT1G08320/AT1G26780/ATMG00210/AT2G07725/AT5G52640/AT2G13810/AT4G13280/AT4G13300/AT5G50780/AT1G78570/AT1G80590/AT1G27890/AT2G31890/AT3G16340/AT1G73410/AT3G59030/AT5G48010/AT5G58780/AT5G60180/AT5G09330/AT1G77950/AT4G12720/AT4G04920/AT3G55160/AT2G05642/ATMG00210/AT2G07725/AT1G02830/AT2G38340/AT1G59860/AT5G64750/AT3G01420/AT5G21050/AT3G14110/AT4G17840/AT1G76690/AT1G74310/AT3G18400/AT2G44990/AT1G19210/AT5G63560/AT5G51190/AT3G29255/AT3G09380/AT1G51190/AT3G45640/AT5G04340/AT4G23450/AT5G36150/AT5G22250/AT5G60830/AT1G74930/AT3G50060/AT3G44300/AT1G66020/AT1G48150/AT5G17920/ATMG00290/AT5G23260/AT3G23820/AT1G72360/AT3G10070/AT3G14530/AT3G49700/AT1G15810/AT5G51190/AT4G14690/AT1G72520/AT3G01530/AT2G38040/AT3G46230/AT5G05410/AT3G04410/AT1G69500/ATMG00940/AT5G66390/AT5G47230/AT1G32510/AT3G49530/AT1G79580/AT2G13680/AT2G15660/AT1G10390/AT2G40140/AT1G60980/AT3G58390/AT5G54770/AT2G22900/AT3G11430/AT3G27440/AT2G34820/AT3G06630/AT4G31800/AT3G55210/AT1G07400/AT1G54330/AT4G17490/AT2G13150/AT4G01250/AT4G01950/AT5G02580/AT1G68765/AT5G01380/AT3G44260/AT4G26770/AT2G41240/AT4G17490/AT4G23810/AT5G43890/AT3G10930/AT3G25830/AT3G25820/AT1G73805/AT4G04260/AT3G53510/AT3G56520/AT5G43620/AT2G47810/AT5G21960/AT1G66500/AT5G62165/AT1G21910/AT2G44840/AT2G38470/AT1G02390/AT5G63160/AT1G32300/AT3G23980/AT5G66280/AT2G21235/AT5G38120/AT4G13280/AT3G62610/AT1G36060/AT5G20230/AT5G20230/AT1G76050/AT2G30040/AT1G27730/AT5G06650/AT5G12330/AT3G12890/AT3G25180/AT4G15417/AT2G38995/AT4G11280/AT2G37360/AT5G63790/AT1G62060/AT1G62080/AT5G20230/AT5G05410/AT2G21900/AT2G29500/AT1G61590/AT3G48360/AT2G26150/AT1G13300/AT4G37770/AT5G20230/AT1G66170/AT3G14230/AT2G23400/AT2G31690/AT2G40140/AT3G18400/AT5G39410/AT5G56960/AT2G47300/AT2G29460/AT2G40340/AT1G63030/AT1G12780/AT1G22810/AT3G48360/AT1G53540/AT3G28340/AT4G09990/AT2G32050/AT3G46090/AT3G46640/AT3G48360/AT2G26400/AT1G28370/AT1G77640/AT2G31650/AT1G64380/AT3G26790/AT5G64810/AT1G74420/AT3G28340/AT3G55980/AT5G12280/AT4G23810/AT3G46080/AT3G09440/AT4G25490/AT2G22760/AT5G12020/AT3G49530/AT2G23290/AT2G46400/AT5G12030/AT1G33760/AT4G34410/AT1G72570/AT4G08040/AT1G80840/AT2G46400/AT1G72520/AT3G09360/AT5G51990/AT1G12610/AT4G25470/AT1G80840/AT4G10250/AT5G58860/AT5G20220/AT4G27670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signal transduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT1G16530/AT4G32780/AT2G05117/AT4G24080/AT3G50930/AT5G18350/AT1G07150/AT5G21120/AT1G72920/AT1G72920/AT4G22105/AT2G06983/AT5G62120/AT2G32460/AT4G12020/AT1G72950/AT4G24580/AT5G13220/AT1G08320/AT2G13810/AT1G78570/AT1G22720/AT1G73200/AT3G52400/AT5G44920/AT2G03300/AT2G29100/AT3G29780/AT5G67080/AT1G17615/AT4G12720/AT4G04920/AT3G55160/AT1G72920/AT2G31500/AT3G45790/AT5G64750/AT1G61566/AT1G72910/AT1G14780/AT5G52910/AT2G29110/AT3G22600/AT2G33775/AT5G08150/AT1G63750/AT3G45640/AT4G23450/AT3G50060/AT1G63860/AT1G72360/AT4G33465/AT3G01530/AT5G17970/AT3G23270/AT2G34825/AT5G47230/AT5G49240/AT3G49530/AT4G19520/AT5G13220/AT1G76260/AT2G34600/AT3G06630/AT1G33610/AT4G17490/AT3G50720/AT4G19520/AT5G47710/AT2G03840/AT4G08950/AT4G17490/AT4G23810/AT1G61950/AT4G08950/AT2G23810/AT1G56540/AT2G44840/AT1G60983/AT5G41740/AT2G30040/AT4G08950/AT3G12890/AT2G30020/AT1G17380/AT2G32140/AT2G23810/AT5G12180/AT4G23515/AT3G48360/AT1G13300/AT2G20142/AT2G30020/AT2G23810/AT2G30020/AT1G48490/AT1G29690/AT1G04310/AT5G41740/AT1G16130/AT5G66210/AT1G57850/AT1G06135/AT1G74045/AT3G48360/AT1G17600/AT4G19520/AT5G63770/AT3G48360/AT1G28370/AT2G31650/AT5G41750/AT5G45210/AT1G66090/AT3G26790/AT3G14395/AT4G14640/AT5G41740/AT5G41750/AT5G64810/AT4G20940/AT4G16950/AT4G23810/AT3G49530/AT2G46400/AT1G65390/AT4G34410/AT2G46400/AT1G76650/AT4G30430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0009058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biosynthetic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=31%, list=24%, signal=27%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G37670/AT2G46920/AT5G48850/AT1G30120/AT2G36740/AT5G64940/AT4G10260/AT5G63790/AT3G23030/AT4G26440/AT5G67450/AT3G49130/AT4G34520/AT3G20740/AT1G32640/AT3G56790/AT2G28860/AT2G18720/AT1G52320/AT3G16280/AT5G27960/AT1G33750/AT5G52640/AT5G55020/AT5G41250/AT4G11030/AT4G21080/AT5G28237/AT1G21100/AT1G21110/AT2G20560/AT1G62220/AT3G14415/AT5G07990/AT5G57590/AT2G46740/AT5G21120/AT5G61430/AT5G51990/AT5G59950/AT2G20560/AT4G16745/AT1G30100/AT1G80460/AT1G61470/AT2G46130/AT5G36870/AT4G13620/AT4G36990/AT3G48920/AT1G27220/AT4G24000/AT5G62120/AT1G05460/AT5G39930/AT5G37170/AT2G32460/AT3G04100/AT1G29870/AT3G13460/AT1G12540/AT3G44550/AT4G12020/AT5G37260/AT1G54050/AT5G57620/AT1G27820/AT3G61850/AT1G03490/AT5G61180/AT4G38000/AT1G08320/AT1G26780/ATMG00210/AT2G07725/AT5G52640/AT2G13810/AT4G13280/AT4G13300/AT5G50780/AT1G78570/AT1G80590/AT1G27890/AT2G31890/AT3G16340/AT1G73410/AT3G59030/AT5G48010/AT5G58780/AT5G60180/AT5G09330/AT1G77950/AT5G63595/AT4G12720/AT4G04920/AT3G55160/AT2G05642/ATMG00210/AT2G07725/AT1G02830/AT2G38340/AT1G59860/AT5G64750/AT4G36380/AT3G01420/AT5G21050/AT3G14110/AT5G17040/AT4G17840/AT1G76690/AT1G74310/AT3G18400/AT2G44990/AT1G19210/AT5G63560/AT5G51190/AT3G29255/AT3G09380/AT1G51190/AT3G45640/AT5G04340/AT4G23450/AT5G36150/AT5G22250/AT5G60830/AT1G74930/AT3G50060/AT3G44300/AT1G66020/AT1G48150/AT5G17920/ATMG00290/AT5G23260/AT3G23820/AT1G72360/AT3G10070/AT3G14530/AT3G49700/AT1G15810/AT5G51190/AT4G14690/AT1G72520/AT3G01530/AT2G38040/AT3G46230/AT5G05410/AT3G04410/AT1G69500/ATMG00940/AT5G66390/AT5G47230/AT1G32510/AT3G49530/AT1G79580/AT2G13680/AT2G15660/AT1G10390/AT2G40140/AT1G60980/AT3G58390/AT5G54770/AT2G28860/AT2G22900/AT3G11430/AT3G27440/AT2G34820/AT3G06630/AT4G31800/AT3G55210/AT1G07400/AT1G54330/AT4G17490/AT2G13150/AT4G01250/AT4G01950/AT5G02580/AT1G68765/AT5G01380/AT3G44260/AT4G26770/AT2G41240/AT4G17490/AT4G23810/AT5G43890/AT3G10930/AT3G25830/AT3G25820/AT1G73805/AT4G04260/AT3G53510/AT3G56520/AT5G43620/AT2G47810/AT5G21960/AT1G66500/AT5G62165/AT1G21910/AT2G44840/AT2G38470/AT1G02390/AT5G63160/AT1G32300/AT1G59312/AT3G23980/AT5G66280/AT2G21235/AT5G38120/AT4G13280/AT3G62610/AT1G36060/AT5G20230/AT5G20230/AT1G76050/AT2G30040/AT1G27730/AT5G06650/AT5G12330/AT3G12890/AT3G25180/AT4G15417/AT2G38995/AT4G11280/AT2G37360/AT5G63790/AT1G62060/AT1G62080/AT5G20230/AT5G05410/AT2G21900/AT2G29500/AT1G61590/AT3G48360/AT2G26150/AT1G13300/AT4G37770/AT5G48000/AT5G20230/AT1G66170/AT3G14230/AT2G23400/AT2G31690/AT2G40140/AT3G18400/AT5G39410/AT5G56960/AT2G47300/AT2G29460/AT2G40340/AT1G63030/AT1G12780/AT1G22810/AT3G48360/AT1G53540/AT3G28340/AT4G09990/AT2G32050/AT3G46090/AT3G46640/AT3G48360/AT2G26400/AT1G28370/AT1G77640/AT2G31650/AT1G64380/AT3G26790/AT5G64810/AT1G74420/AT3G28340/AT3G55980/AT5G12280/AT4G23810/AT3G46080/AT4G17090/AT3G09440/AT4G25490/AT2G22760/AT5G12020/AT3G49530/AT2G23290/AT2G46400/AT5G12030/AT1G33760/AT4G34410/AT1G72570/AT4G08040/AT1G80840/AT2G46400/AT1G72520/AT3G09360/AT5G51990/AT1G12610/AT4G25470/AT1G80840/AT4G10250/AT5G58860/AT5G20220/AT4G27670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0000302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to reactive oxygen species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=52%, list=16%, signal=44%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT4G12720/AT1G59860/AT3G01420/AT3G14110/AT1G72520/AT3G46230/AT5G05410/AT1G19020/AT1G07400/AT4G17490/AT4G17490/AT4G23810/AT5G36925/AT3G10930/AT5G63160/AT5G37770/AT5G05410/AT2G29500/AT3G48360/AT2G26150/AT3G48360/AT1G53540/AT3G48360/AT4G23810/AT5G12020/AT5G12030/AT1G72520/AT4G10250/AT5G42380/AT3G02840/AT5G42380</t>
   </si>
   <si>
     <t xml:space="preserve">GO:1901576</t>
@@ -224,214 +425,7 @@
     <t xml:space="preserve">organic substance biosynthetic process</t>
   </si>
   <si>
-    <t xml:space="preserve">tags=35%, list=19%, signal=33%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G15700/AT5G09770/AT2G19430/AT5G65080/AT1G80740/AT5G58220/AT3G47340/AT1G33060/AT3G47340/AT3G52260/AT5G65080/AT5G27320/AT4G03090/AT1G55600/AT4G20200/AT5G09410/AT3G09320/AT1G56010/AT5G51790/AT3G47340/AT1G02040/AT1G80390/AT5G05260/AT4G08850/AT5G27860/AT1G65880/AT2G44140/AT4G35280/AT5G54230/AT2G44910/AT2G34880/AT4G15393/AT4G15396/AT5G45830/AT2G32750/AT3G05860/AT1G51120/AT1G08070/AT4G04330/AT3G16810/AT5G35550/AT4G04330/AT4G04320/AT3G24093/AT2G29540/AT5G48000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0009058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biosynthetic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=33%, list=19%, signal=32%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nitrogen compound metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=35%, list=21%, signal=33%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G15700/AT5G09770/AT2G19430/AT5G65080/AT5G58220/AT3G47340/AT1G33060/AT3G47340/AT3G52260/AT5G65080/AT4G03090/AT1G55600/AT5G09410/AT3G09320/AT5G56950/AT1G56010/AT5G51790/AT3G47340/AT1G02040/AT1G80390/AT5G05260/AT5G02220/AT4G08850/AT5G11080/AT5G27860/AT1G65880/AT2G44140/AT4G35280/AT4G29620/AT5G54230/AT2G44910/AT2G34880/AT5G45830/AT2G32750/AT3G05860/AT1G51120/AT1G08070/AT4G04330/AT4G23300/AT3G16810/AT5G04370/AT5G35550/AT4G04330/AT4G04320/AT3G58590/AT3G24093/AT2G29540/AT5G18910/AT2G07200/AT5G28510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=53%, list=42%, signal=43%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G15700/AT5G09770/AT2G19430/AT5G65080/AT1G80740/AT5G58220/AT3G47340/AT1G33060/AT3G47340/AT2G24630/AT3G52260/AT5G65080/AT5G27320/AT1G56300/AT4G03090/AT1G12390/AT1G55600/AT1G56300/AT4G37900/AT4G20200/AT5G09410/AT3G09320/AT1G15460/AT5G56950/AT1G56010/AT5G51790/AT3G47720/AT3G47340/AT1G02040/AT1G80390/AT5G05260/AT5G02220/AT4G08850/AT2G28120/AT5G11080/AT3G23010/AT5G27860/AT1G65880/AT2G44130/AT2G44140/AT4G35280/AT4G17270/AT4G29620/AT5G54230/AT2G44910/AT1G20925/AT2G34880/AT1G08890/AT5G45830/AT2G32750/AT3G05860/AT1G51120/AT1G67265/AT2G32670/AT1G08070/AT4G04330/AT4G23300/AT3G16810/AT5G59370/AT5G04370/AT5G35550/AT4G04330/AT4G04320/AT3G58590/AT5G46050/AT3G24093/AT2G29540/AT5G48000/AT5G18910/AT5G28510/AT4G16295/AT2G04030/AT4G29340/AT4G13240/AT5G37450/AT5G39280/AT2G17055/AT1G13670/AT5G66200/AT2G47460/AT4G04220/AT1G79700/AT2G19020/AT2G44910/AT3G47720/AT1G17250/AT4G04110/AT5G67480/AT1G11370/AT3G15130/AT2G30350/AT4G22600/AT3G06640/AT1G06310/AT2G21730/AT4G03950/AT2G23570/AT1G10070/AT5G22470/AT4G20140/AT3G02040/AT3G01620/AT5G07370/AT1G01750/AT2G47550/AT3G18360/AT5G35120/AT2G15890/AT3G55500/AT5G23030/AT2G25470/AT4G03950/AT5G49360/AT3G25490/AT5G65080/AT4G14276/AT2G48080/AT5G45830/AT3G03760/AT1G33280/AT2G33720/AT5G01900/AT5G45090/AT3G16680/AT1G77730/AT5G01200/AT1G68725/AT1G13700/AT1G19900/AT2G41930/AT3G50220/AT5G21150/AT1G80580/AT1G31790/AT2G18550/AT4G12350/AT2G18260/AT5G58610/AT4G04920/AT5G65740/AT5G04970/AT1G22290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G15700/AT5G09770/AT2G19430/AT4G24610/AT2G15345/AT3G17675/AT3G50050/AT5G25550/AT5G65080/AT1G80740/AT5G58220/AT5G62860/AT3G28899/AT3G47340/AT5G02600/AT1G33060/AT3G27940/AT3G47340/AT2G24630/AT3G52260/AT2G48060/AT5G65080/AT5G27320/AT1G56300/AT3G04540/AT4G03090/AT1G12390/AT1G55600/AT3G59460/AT3G50290/AT1G56300/AT4G37900/AT4G20200/AT5G09410/AT3G09320/AT1G15460/AT5G14602/AT3G06090/AT5G56950/AT1G56010/AT5G37150/AT5G51790/AT3G42130/AT5G54370/AT3G47720/AT1G09360/AT3G47340/AT2G21750/AT1G02040/AT5G18880/AT2G32310/AT1G60110/AT4G17710/AT1G80390/AT2G05370/AT3G19530/AT5G05260/AT5G02220/AT2G13350/AT2G04830/AT4G08850/AT2G28120/AT5G11080/AT3G23010/AT5G15720/AT3G28750/AT5G27860/AT4G02830/AT1G65880/AT4G14465/AT2G14935/AT4G30030/AT2G44130/AT2G44140/AT4G35280/AT4G17270/AT4G29620/AT3G58910/AT5G54230/AT2G44910/AT1G20925/AT2G34880/AT4G15393/AT4G15396/AT1G08890/AT5G45830/AT2G18100/AT2G20380/AT2G32750/AT5G49820/AT3G05860/AT1G70860/AT1G23660/AT1G51120/AT5G38680/AT1G67265/AT5G56440/AT1G19470/AT2G32670/AT1G36920/AT5G19315/AT1G08070/AT5G36080/AT4G04330/AT4G31280/AT1G51405/AT1G70110/AT5G63085/AT4G23300/AT3G16810/AT5G59370/AT5G04370/AT5G40940/AT2G10557/AT4G23780/AT4G11430/AT3G50150/AT2G15610/AT5G35550/AT1G74210/AT3G27831/AT1G37000/AT1G07901/AT4G04330/AT4G04320/AT3G58590/AT5G46050/AT3G24093/AT2G29540/AT2G17080/AT5G48000/AT5G18910/AT1G26773/AT2G19700/AT1G63630/AT2G07200/AT5G25960/AT1G44085/AT5G28510/AT5G28720/AT2G14870/AT3G18810/AT4G16295/AT5G35900/AT2G04030/AT1G11765/AT4G29340/AT1G47786/AT3G02100/AT4G13240/AT5G07500/AT1G23580/AT5G37450/AT1G61070/AT5G39280/AT2G17055/AT3G04900/AT3G19700/AT1G13670/AT5G66200/AT5G51900/AT1G35820/AT1G05291/AT2G47460/AT4G04220/AT1G79700/AT5G07225/AT3G49307/AT2G19020/AT2G44910/AT4G20430/AT1G47660/AT3G47720/AT1G17250/AT4G04110/AT5G67480/AT5G28823/AT1G11370/AT3G15130/AT3G50010/AT2G30350/AT4G22600/AT3G06640/AT2G11851/AT1G06310/AT2G21730/AT1G67025/AT5G01480/AT1G26390/AT3G53800/AT4G03950/AT2G23570/AT1G10070/AT5G22470/AT4G20140/AT3G02040/AT1G61060/AT3G44180/AT3G01620/AT5G07370/AT3G23970/AT4G28815/AT1G64930/AT1G01750/AT1G65120/AT2G47550/AT3G18360/AT5G35120/AT2G15890/AT5G60260/AT3G55500/AT1G60095/AT1G47300/AT3G17152/AT5G60270/AT1G53282/AT3G19430/AT2G19630/AT5G23030/AT2G25470/AT4G03950/AT4G34780/AT2G33830/AT2G33830/AT5G49360/AT1G05770/AT3G25490/AT5G65080/AT4G14276/AT2G48080/AT5G45830/AT2G33830/AT3G03760/AT1G62770/AT1G33280/AT2G33720/AT5G01900/AT5G45090/AT3G51590/AT5G24480/AT5G10200/AT3G16680/AT1G77730/AT2G47480/AT4G10850/AT5G01200/AT1G68725/AT1G13700/AT1G19900/AT3G11990/AT5G06690/AT2G41930/AT2G16190/AT1G32420/AT3G50220/AT5G21150/AT4G17860/AT1G80580/AT1G31790/AT2G18550/AT1G13140/AT1G27670/AT4G12350/AT2G18260/AT4G01140/AT5G58610/AT3G20530/AT4G04920/AT3G56210/AT2G15260/AT5G65740/AT3G05746/AT5G04970/AT1G22290/AT5G17080/AT4G09300/AT5G67480/AT1G61060/AT1G08890/AT2G15610/AT3G02100/AT3G56210/AT5G34887/AT5G34905/AT5G02600/AT3G12880/AT2G32670/AT2G20380/AT3G21990/AT1G08070/AT1G76470/AT2G22750/AT3G28750/AT4G09466/AT4G09465/AT4G09467/AT4G09464/AT1G44085/AT1G67025/AT5G42955/AT5G36490/AT5G36440/AT5G36550/AT5G36390/AT5G36380/AT5G36410/AT5G36460/AT5G36420/AT5G36370/AT5G36350/AT5G36450/AT5G36400/AT5G36470/AT5G36500/AT5G36520/AT5G36540/AT5G36430/AT5G36360/AT5G46140/AT1G61060/AT4G28940/AT1G76930/AT1G15460/AT3G18360/AT5G41740/AT5G41750/AT3G30385/AT3G30387/AT1G75920/AT1G56010/AT5G34887/AT5G34881/AT3G30385/AT3G30387/AT2G19700/AT1G11765/AT5G36490/AT5G36440/AT5G36550/AT5G36390/AT5G36380/AT5G36340/AT5G36410/AT5G36310/AT5G36460/AT5G36420/AT5G36370/AT5G36350/AT5G36450/AT5G36400/AT5G36470/AT5G36500/AT5G36520/AT5G36540/AT5G36360/AT5G36430/AT1G20925/AT5G22470/AT5G33393/AT5G36490/AT5G36440/AT5G36550/AT5G36390/AT5G36380/AT5G36410/AT5G36460/AT5G36420/AT5G36370/AT5G36350/AT5G36450/AT5G36400/AT5G36470/AT5G36500/AT5G36430/AT5G36360/AT1G53705/AT5G48000/AT5G46140/AT3G49580/AT1G07150/AT3G19530/AT5G36490/AT5G36440/AT5G36390/AT5G36380/AT5G36410/AT5G36460/AT5G36420/AT5G36370/AT5G36350/AT5G36450/AT5G36400/AT5G36470/AT5G36500/AT5G36520/AT5G36540/AT5G36430/AT5G36360/AT4G09466/AT4G09465/AT4G09467/AT4G09464/AT4G09462/AT2G22500/AT2G11851/AT5G34887/AT5G34881/AT3G30385/AT3G30387/AT1G14960/AT1G75920/AT4G14465/AT1G27220/AT4G13280/AT3G21890/AT1G73410/AT3G28250/ATMG00840/AT2G40080/AT5G42567/AT1G11670/AT3G09450/AT1G60970/AT2G38890/AT5G34581/AT5G55870/AT5G48930/AT2G35380/AT2G28625/AT1G64480/AT1G19490/AT5G59950/AT5G27910/AT2G47130/AT2G31215/AT1G56070/AT2G39730/AT1G53705/AT3G10380/AT3G23820/AT4G04920/AT3G61111/AT2G26950/AT3G03080/AT1G37130/AT1G34825/AT1G34930/AT1G34795/AT1G34815/AT1G34860/AT1G34840/AT1G34805/AT1G34850/AT1G34800/AT1G34810/AT1G34792/AT1G34820/AT1G34830/AT3G29570/AT1G57760/AT1G16410/AT1G16530/AT4G17670/AT3G16555/AT1G60980/AT5G54360/AT4G11540/AT1G41820/AT5G38317/AT4G09795/AT1G61950/AT1G23690/AT4G09430/AT5G23650/AT2G20784/AT1G52110/AT5G08450/AT4G28940/AT2G41800/AT3G46910/AT5G62400/AT3G05930/AT3G52770/AT2G39320/AT1G58643/AT1G58936/AT1G59312/AT2G36260/AT5G33393/AT4G09466/AT4G09465/AT4G09467/AT4G09464/AT4G09462/AT5G55020/AT5G36490/AT5G36440/AT5G36550/AT5G36380/AT5G36340/AT5G36390/AT5G36410/AT5G36310/AT5G36460/AT5G36420/AT5G36370/AT5G36350/AT5G36450/AT5G36400/AT5G36470/AT5G36500/AT5G36520/AT5G36540/AT5G36430/AT5G36360/AT5G36330/AT5G09330/AT1G70260/AT1G75920/AT1G12660/AT4G10613/AT5G51690/AT1G61930/AT3G02020/AT5G38350/AT5G59105/AT3G19140/AT4G29520/AT3G55500/AT5G27260/AT2G03936/AT4G30970/AT2G44925/AT5G50910/AT4G32105/AT2G30940/AT2G33270/AT5G41740/AT5G18620/AT1G30020/AT1G12805/AT3G45243/AT5G60510/AT5G19470/AT2G05400/AT1G35630/AT1G76930/AT5G21050/AT2G35250/AT2G24400/AT1G61140/AT3G29690/AT1G44090/AT2G16520/AT1G72580/AT1G07150/AT2G21650/AT2G16290/AT3G30820/AT1G27220/AT1G29690/AT4G13263/AT4G29580/AT1G10300/AT4G36580/AT5G25290/AT2G12880/AT3G14490/AT1G01460/AT5G44470/AT3G14030/AT3G44990/AT1G75530/AT4G32370/AT2G37560/AT3G48620/AT1G71170/AT1G69660/AT3G09380/AT4G18920/AT3G12880/AT2G11015/AT3G24700/AT3G13010/AT5G37260/AT3G11980/AT2G34680/AT5G13690/AT1G43760/AT2G17170/AT3G59455/AT1G51000/AT3G61630/AT4G09300/AT2G22500/AT1G77815/AT1G27870/AT1G55860/AT2G46130/AT3G19410/AT2G04050/AT1G29080/AT3G22580/AT3G29100/AT4G11385/AT4G15393/AT5G53260/AT2G21920/AT2G42210/AT3G26790/AT1G26790/AT4G09467/AT4G09464/AT4G09462/AT1G64870/AT3G52430/AT2G34825/AT2G38995/AT4G23380/AT5G36340/AT5G36310/AT5G36550/AT2G42180/AT1G24420/AT5G36805/AT5G38378/AT5G36720/AT1G24200/AT5G23212/AT3G45060/AT1G06120/AT1G11610/AT5G34887/AT5G34881/AT5G34905/AT3G30385/AT3G30387/AT4G13280/AT4G14165/AT3G16130/AT4G27590/AT1G29830/AT1G77950/AT4G36380/AT1G61820/AT2G28090/AT4G09740/AT2G23640/AT1G48640/AT2G44010/AT1G22670/AT2G06570/AT1G70260/AT5G50260/AT1G76470/AT4G24975/AT5G55131/AT1G51870/AT3G43505/AT4G15056/AT1G61093/AT2G22750/AT3G22030/AT5G18350/AT5G36150/AT5G55132/AT1G62060/AT1G62080/AT5G42955/AT1G52415/AT4G21030/AT3G49580/AT5G02930/AT3G02885/AT5G13825/AT4G11650/AT1G16770/AT5G18160/AT4G36560/AT3G18650/AT2G31910/AT5G46140/AT5G23790/AT5G67040/AT3G53550/AT3G23320/AT3G26790/AT2G06983/AT5G59820/AT5G41740/AT5G41750/AT2G47000/AT4G31970/AT3G18190/AT3G21990/AT1G53980/AT2G02490/AT1G14960/AT1G28550/AT1G54550/AT3G12240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0050794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of cellular process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=57%, list=41%, signal=38%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT2G19430/AT5G65080/AT1G80740/AT5G58220/AT1G33060/AT5G65080/AT5G27320/AT1G56300/AT4G03090/AT1G55600/AT1G56300/AT4G37900/AT5G09410/AT1G56010/AT5G51790/AT1G02040/AT1G80390/AT5G02220/AT4G08850/AT3G23010/AT2G44130/AT4G35280/AT4G17270/AT5G54230/AT2G44910/AT2G34880/AT5G45830/AT3G05860/AT1G51120/AT1G67265/AT3G16810/AT5G35550/AT3G24093/AT4G29340/AT4G13240/AT2G17055/AT1G13670/AT5G66200/AT2G47460/AT4G04220/AT1G79700/AT2G19020/AT2G44910/AT1G17250/AT4G04110/AT5G67480/AT2G30350/AT3G06640/AT4G20140/AT3G18360/AT5G35120/AT5G23030/AT2G25470/AT3G25490/AT5G65080/AT2G48080/AT5G45830/AT3G03760/AT1G33280/AT2G33720/AT5G01900/AT5G45090/AT1G77730/AT5G01200/AT2G41930/AT5G21150/AT1G80580/AT2G18550/AT4G12350/AT5G58610/AT4G04920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0065007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biological regulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=19%, list=14%, signal=21%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT2G19430/AT5G65080/AT1G80740/AT5G58220/AT1G33060/AT5G65080/AT5G27320/AT1G56300/AT4G03090/AT1G55600/AT1G56300/AT4G37900/AT5G09410/AT1G56010/AT5G51790/AT1G09360/AT2G21750/AT1G02040/AT1G80390/AT5G02220/AT4G08850/AT3G23010/AT4G14465/AT2G44130/AT4G35280/AT4G17270/AT5G54230/AT2G44910/AT1G20925/AT2G34880/AT4G15393/AT4G15396/AT5G45830/AT3G05860/AT1G51120/AT1G67265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0048583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of response to stimulus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=43%, list=12%, signal=39%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT2G19430/AT5G65080/AT5G58220/AT5G65080/AT5G27320/AT1G56300/AT1G56300/AT4G37900/AT4G08850/AT4G14465/AT2G44130/AT2G34880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0044238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">primary metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=55%, list=43%, signal=39%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G15700/AT5G09770/AT2G19430/AT5G65080/AT5G58220/AT3G47340/AT1G33060/AT3G47340/AT3G52260/AT5G65080/AT5G27320/AT4G03090/AT1G55600/AT4G20200/AT5G09410/AT3G09320/AT5G56950/AT1G56010/AT5G51790/AT3G47340/AT1G02040/AT1G80390/AT5G02220/AT4G08850/AT5G11080/AT5G27860/AT2G44140/AT4G35280/AT4G29620/AT5G54230/AT2G44910/AT2G34880/AT4G15393/AT4G15396/AT5G45830/AT2G32750/AT3G05860/AT1G51120/AT1G08070/AT4G04330/AT4G23300/AT3G16810/AT5G35550/AT1G74210/AT4G04330/AT4G04320/AT3G58590/AT3G24093/AT2G29540/AT5G48000/AT5G18910/AT2G07200/AT5G28510/AT2G04030/AT5G37450/AT2G47460/AT1G79700/AT5G07225/AT2G44910/AT5G67480/AT1G11370/AT3G15130/AT2G30350/AT4G22600/AT3G06640/AT1G06310/AT2G23570/AT1G10070/AT5G22470/AT3G02040/AT3G01620/AT2G47550/AT5G35120/AT5G49360/AT5G65080/AT2G48080/AT5G45830/AT3G03760/AT1G33280/AT2G33720/AT5G01900/AT3G16680/AT5G01200/AT1G68725/AT1G13700/AT2G41930/AT3G50220/AT1G80580/AT1G31790/AT2G18550/AT4G12350/AT5G58610/AT4G04920/AT5G65740/AT5G04970/AT5G17080/AT4G09300/AT5G67480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0009628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to abiotic stimulus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=72%, list=31%, signal=52%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G09570/AT2G47520/AT2G46240/AT2G46240/AT2G46240/AT3G47720/AT4G14465/AT3G47720/AT5G67480/AT2G48060/AT5G37670/AT4G04920/AT4G37900/AT5G28510/AT5G35550/AT1G52560/AT1G73130/AT2G16365/AT2G16005/AT5G67480/AT1G52330/AT1G72330/AT2G47460/AT3G63350/AT5G10200/AT2G32120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OEM20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=100%, list=100%, signal=0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G15700/AT2G03130/AT5G09570/AT2G47520/AT5G26717/AT2G21640/AT2G21640/AT1G10550/AT2G46240/AT5G54450/AT3G01600/AT2G46240/AT5G58610/AT2G11851/AT4G20095/AT3G58190/AT1G57830/AT2G46240/AT2G18150/AT5G05260/AT5G57550/AT5G48940/AT4G08730/AT3G02590/AT4G21490/AT5G07530/AT5G11080/AT1G77530/AT5G59370/AT4G08850/AT1G53830/AT3G47720/AT1G31790/AT5G35900/AT4G20670/AT3G21990/AT5G45090/AT1G50680/AT1G55030/AT2G47480/AT3G08560/AT5G35660/AT4G15393/AT4G15396/AT3G44180/AT5G36080/AT1G47300/AT3G50290/AT5G26290/AT2G01960/AT4G14465/AT1G74140/AT2G19800/AT1G51120/AT3G47720/AT3G50150/AT4G03090/AT3G03650/AT2G16190/AT1G23810/AT3G52600/AT5G48000/AT2G21655/AT1G05291/AT5G67480/AT3G58590/AT2G48060/AT2G05370/AT1G02940/AT3G01190/AT1G26510/AT5G22570/AT5G40350/AT4G13230/AT3G01600/AT3G61035/AT5G38920/AT3G45480/AT2G15185/AT5G14602/AT5G24390/AT4G08560/AT5G37670/AT1G64800/AT3G25490/AT1G56550/AT4G01970/AT4G04920/AT4G17710/AT2G11005/AT3G16810/AT4G31280/AT1G17770/AT3G09640/AT1G63070/AT4G37900/AT5G28510/AT5G17080/AT5G56440/AT1G56010/AT1G24090/AT4G00830/AT2G14935/AT3G28520/AT4G17270/AT1G14520/AT5G47075/AT4G35010/AT2G17055/AT1G69940/AT5G01480/AT5G35550/AT1G52560/AT1G73130/AT1G60095/AT1G74210/AT2G35270/AT1G51830/AT5G07490/AT2G32750/AT1G47660/AT2G12405/AT1G60040/AT5G41830/AT2G18130/AT1G23660/AT4G30120/AT4G30030/AT5G22470/AT4G36740/AT3G28560/AT1G13050/AT5G05030/AT5G56470/AT1G73860/AT4G35150/AT1G35500/AT2G39200/AT2G48130/AT4G24070/AT3G21730/AT4G18823/AT2G15260/AT3G50010/AT4G13240/AT4G29658/AT2G16365/AT2G13350/AT3G13677/AT3G04540/AT5G44345/AT4G35390/AT1G65120/AT1G71690/AT1G66850/AT2G16005/AT5G40940/AT5G67480/AT1G47495/AT2G20380/AT1G28327/AT1G52330/AT2G38220/AT3G45170/AT1G08590/AT5G61050/AT2G35480/AT4G38781/AT4G29220/AT2G07200/AT1G72330/AT1G29480/AT2G47460/AT2G39820/AT1G80580/AT3G63350/AT3G05860/AT4G17860/AT4G04220/AT2G35480/AT5G10200/AT2G04480/AT3G04900/AT1G30974/AT1G02040/AT4G33170/AT5G41840/AT2G32120/AT1G18690/AT4G27580/AT1G68250/AT5G41530/AT2G33796/AT4G14250/AT1G61415/AT4G13261/AT5G23030/AT4G27170/AT5G62165/AT2G17080/AT4G20200/AT1G17250/AT4G01890/AT3G14160/AT4G08867/AT5G01200/AT4G15230/AT4G15230/AT2G28220/AT3G18360/AT1G04500/AT5G51310/AT2G20480/AT1G56300/AT2G20380/AT5G53240/AT4G32800/AT3G19700/AT3G27831/AT5G24280/AT4G30640/AT3G06090/AT3G16680/AT4G19030/AT1G14520/AT1G54510/AT1G30920/AT2G15670/AT1G22530/AT5G36680/AT5G36770/AT2G25330/AT2G25360/AT2G14870/AT1G80390/AT5G26840/AT1G22530/AT5G23240/ATMG00630/AT3G22490/AT2G34290/AT4G16640/AT5G03545/AT3G05300/AT1G22882/AT4G22600/AT4G08593/AT4G14276/AT4G29450/AT3G30725/AT1G43970/AT3G49230/AT5G46050/AT1G11370/AT2G06555/AT5G26740/AT5G03545/AT1G22530/AT5G26740/AT5G41330/AT4G15230/AT3G28560/AT5G48000/AT4G09467/AT4G09464/AT3G45480/AT1G56300/AT1G73860/AT1G61060/AT5G23240/AT5G36490/AT5G36480/AT5G36657/AT5G36440/AT5G36550/AT5G36390/AT5G36380/AT5G36410/AT5G36658/AT5G36460/AT5G36420/AT5G36370/AT5G36350/AT5G36450/AT5G36400/AT5G36470/AT5G36500/AT5G36430/AT5G36360/AT1G61060/AT1G68250/AT1G18690/AT5G38920/AT1G63190/AT3G18360/AT1G26510/AT4G14465/AT3G22490/AT5G40350/AT5G46140/AT5G42955/AT1G68250/AT1G66460/AT4G15393/AT1G28327/AT1G56010/AT3G21990/AT5G41330/AT4G09467/AT4G09464/AT4G09462/AT5G35660/AT5G36490/AT5G36657/AT5G36440/AT5G36390/AT5G36380/AT5G36410/AT5G36658/AT5G36460/AT5G36420/AT5G36370/AT5G36350/AT5G36450/AT5G36400/AT5G36470/AT5G36500/AT5G36430/AT5G36360/AT2G11851/AT5G62165/AT5G36490/AT5G36480/AT5G36657/AT5G36440/AT5G36550/AT5G36390/AT5G36380/AT5G36340/AT5G36410/AT5G36658/AT5G36310/AT5G36460/AT5G36420/AT5G36370/AT5G36350/AT5G36450/AT5G36400/AT5G36470/AT5G36500/AT5G36360/AT5G36430/AT2G28860/AT4G04920/AT5G07490/AT5G09370/AT5G46140/AT5G52720/AT4G09467/AT4G09464/AT4G09462/AT4G15740/AT5G36490/AT5G36440/AT5G36550/AT5G36380/AT5G36340/AT5G36390/AT5G36410/AT5G36310/AT5G36460/AT5G36420/AT5G36370/AT5G36350/AT5G36450/AT5G36400/AT5G36470/AT5G36500/AT5G36430/AT5G36360/ATMG01360/ATMG00580/AT2G07669/AT1G29690/AT3G30460/AT5G38350/AT2G39030/AT4G09795/AT4G17690/AT5G56325/AT3G23820/AT4G28090/AT3G49700/AT4G04404/AT4G17660/ATMG00580/AT4G09467/AT4G09464/AT4G09462/AT2G24000/AT1G69530/AT2G30690/AT3G23270/AT4G15740/AT1G66145/AT1G09330/AT5G22470/AT3G24790/AT2G07727/ATMG00220/AT5G15100/AT5G26150/AT3G61120/AT4G02650/AT1G63280/AT5G37060/AT1G60750/AT5G18160/AT5G50540/AT3G24517/AT4G21020/AT3G13460/AT1G48100/AT2G02700/AT2G41540/AT3G58920/AT5G60830/AT4G12750/AT5G59950/AT3G05930/AT4G27745/AT1G64295/AT5G06040/AT1G30473/AT3G01700/AT4G00280/AT1G65620/AT2G28860/AT3G04903/AT1G44180/AT5G21080/AT2G40080/AT3G14250/AT3G14030/AT5G10990/AT1G61060/AT5G43175/AT2G17890/AT5G13690/AT4G36590/AT3G08680/AT1G24540/AT5G46950/AT2G14920/AT2G15010/AT3G62710/AT5G36657/AT5G36658/AT2G27570/AT3G59170/AT5G62240/AT1G66460/AT5G41890/AT4G36380/AT5G39310/AT1G23510/AT2G06541/AT5G42955/AT2G16300/AT1G69530/AT4G10950/AT5G15725/AT3G53640/AT3G32400/AT3G30290/AT3G47150/AT2G22900/AT1G43780/AT2G03320/AT3G29570/AT1G14686/AT1G36942/AT5G17740/AT3G15604/AT1G11610/AT1G22670/AT5G25600/AT5G41330/AT5G36490/AT5G36480/AT5G36657/AT5G36440/AT5G36550/AT5G36390/AT5G36380/AT5G36410/AT5G36658/AT5G36460/AT5G36420/AT5G36370/AT5G36350/AT5G36450/AT5G36400/AT5G36470/AT5G36500/AT5G36430/AT5G36360/AT2G29460/AT4G15093/AT1G61140/AT5G19580/AT5G21080/AT5G55020/AT1G69650/AT3G11160/AT2G34180/AT2G02490/AT1G71890/AT4G36070/AT5G46140/AT1G12805/AT5G36190/AT1G64480/AT5G39490/AT3G43291/AT5G38317/AT4G11250/AT1G69910/AT5G09370/AT3G50460/AT5G51690/AT1G09245/AT5G50780/AT1G68250/AT2G17050/ATMG00513/AT2G31083/AT4G11030/AT5G09610/AT1G09260/AT2G24460/AT1G73200/AT4G38030/AT5G43570/AT1G48940/AT5G52720/AT2G39520/ATMG00570/AT2G36120/AT1G48490/AT4G11410/AT3G25650/AT2G27220/AT1G34490/AT3G03620/ATMG00840/AT4G24580/AT1G34220/ATMG00210/AT2G07725/AT2G37290/AT3G45790/AT3G30430/ATMG00910/AT5G36340/AT5G36310/AT5G36550/AT2G20870/AT4G37400/AT1G63190/AT3G28790/AT5G39700/AT3G44570/AT5G21050/AT1G55070/AT5G36900/ATMG00210/AT2G07725/AT2G07669/AT4G30970/AT3G28830/AT5G11416/AT1G17615/AT1G30020/AT5G44316/ATMG00940/AT2G16505/AT1G49190/AT4G14390/AT2G21610/AT5G34581/AT5G26080/AT3G54490/ATMG00010/ATMG00890/AT5G29560/ATMG01360/AT2G33775/AT2G44100/AT4G16040/AT1G35550/AT3G01080/AT5G22680/AT3G61440/AT3G61440/AT1G51870/AT2G03560/ATMG00590/AT2G07718/AT1G53550/AT4G30050/ATMG00530/AT2G07776/ATMG00520/ATMG00270/ATMG00900/AT2G07771/AT2G07681/ATMG00290/AT2G07734/ATMG00520/AT2G07825/AT2G07734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=50%, list=31%, signal=39%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G15700/AT2G03130/AT2G47520/AT2G46240/AT3G01600/AT2G46240/AT5G58610/AT3G58190/AT2G46240/AT5G05260/AT3G02590/AT1G77530/AT4G08850/AT1G50680/AT4G15393/AT4G15396/AT1G51120/AT4G03090/AT3G03650/AT1G23810/AT5G48000/AT5G67480/AT5G22570/AT5G40350/AT3G01600/AT4G08560/AT5G37670/AT1G64800/AT1G56550/AT4G04920/AT3G16810/AT1G56010/AT4G00830/AT5G35550/AT2G35270/AT2G32750/AT1G60040/AT4G36740/AT5G56470/AT4G35150/AT3G21730/AT2G16365/AT1G71690/AT5G67480/AT3G45170/AT1G72330/AT2G47460/AT2G39820/AT1G80580/AT3G63350/AT3G05860/AT1G02040/AT2G32120/AT1G18690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=52%, list=37%, signal=40%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G15700/AT2G03130/AT2G47520/AT1G10550/AT2G46240/AT3G01600/AT2G46240/AT5G58610/AT3G58190/AT2G46240/AT5G05260/AT5G57550/AT3G02590/AT4G21490/AT5G11080/AT4G08850/AT1G53830/AT1G31790/AT1G50680/AT4G15393/AT4G15396/AT2G19800/AT1G51120/AT4G03090/AT3G03650/AT1G23810/AT3G52600/AT5G48000/AT5G67480/AT3G58590/AT1G02940/AT5G22570/AT5G40350/AT3G01600/AT3G45480/AT4G08560/AT5G37670/AT1G64800/AT1G56550/AT4G04920/AT3G16810/AT5G28510/AT5G17080/AT1G56010/AT4G00830/AT1G14520/AT4G35010/AT1G69940/AT5G35550/AT1G74210/AT2G35270/AT2G32750/AT1G60040/AT5G22470/AT4G36740/AT5G56470/AT3G21730/AT2G16365/AT1G71690/AT5G67480/AT3G45170/AT4G29220/AT2G07200/AT1G72330/AT2G47460/AT2G39820/AT1G80580/AT3G63350/AT3G05860/AT1G02040/AT4G33170/AT2G32120/AT1G18690/AT4G14250/AT5G62165/AT4G20200/AT4G01890/AT3G14160/AT5G01200/AT5G51310/AT4G32800/AT5G24280/AT4G30640/AT3G16680/AT1G14520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0070887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular response to chemical stimulus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=47%, list=17%, signal=40%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT2G47520/AT3G58190/AT4G08850/AT3G47720/AT2G01960/AT3G47720/AT5G22570/AT5G40350/AT5G37670/AT4G04920/AT3G09640/AT4G37900/AT1G56010/AT4G00830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:1901362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">organic cyclic compound biosynthetic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=54%, list=30%, signal=40%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G15700/AT2G47520/AT3G01600/AT5G58610/AT3G58190/AT3G02590/AT4G08850/AT1G50680/AT4G15393/AT4G15396/AT1G51120/AT4G03090/AT1G23810/AT5G48000/AT5G67480/AT5G22570/AT5G40350/AT3G01600/AT1G64800/AT4G04920/AT1G56010/AT4G00830/AT5G35550/AT2G35270/AT1G60040/AT4G36740/AT5G56470/AT3G21730/AT2G16365/AT5G67480/AT3G45170/AT2G47460/AT1G80580/AT3G63350/AT3G05860/AT1G02040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=50%, list=31%, signal=38%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G15700/AT2G03130/AT2G47520/AT2G46240/AT3G01600/AT2G46240/AT5G58610/AT3G58190/AT2G46240/AT5G05260/AT3G02590/AT4G08850/AT1G50680/AT4G15393/AT4G15396/AT1G51120/AT4G03090/AT3G03650/AT1G23810/AT5G48000/AT5G67480/AT5G22570/AT5G40350/AT3G01600/AT4G08560/AT5G37670/AT1G64800/AT1G56550/AT4G04920/AT3G16810/AT1G56010/AT4G00830/AT5G35550/AT2G35270/AT2G32750/AT1G60040/AT4G36740/AT5G56470/AT3G21730/AT2G16365/AT1G71690/AT5G67480/AT3G45170/AT2G47460/AT2G39820/AT1G80580/AT3G63350/AT3G05860/AT1G02040/AT2G32120/AT1G18690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0019438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aromatic compound biosynthetic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=57%, list=30%, signal=42%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G15700/AT2G47520/AT3G01600/AT5G58610/AT3G58190/AT1G77530/AT4G08850/AT1G50680/AT1G51120/AT4G03090/AT1G23810/AT5G67480/AT5G22570/AT5G40350/AT3G01600/AT1G64800/AT4G04920/AT1G56010/AT4G00830/AT5G35550/AT2G35270/AT1G60040/AT4G36740/AT4G35150/AT3G21730/AT2G16365/AT5G67480/AT3G45170/AT2G47460/AT1G80580/AT3G63350/AT3G05860/AT1G02040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=61%, list=37%, signal=42%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G15700/AT2G47520/AT3G01600/AT5G58610/AT3G58190/AT4G21490/AT4G08850/AT1G31790/AT1G50680/AT1G51120/AT4G03090/AT1G23810/AT5G67480/AT3G58590/AT5G22570/AT5G40350/AT3G01600/AT1G64800/AT4G04920/AT1G56010/AT4G00830/AT5G35550/AT2G35270/AT1G60040/AT5G22470/AT4G36740/AT5G56470/AT3G21730/AT2G16365/AT5G67480/AT3G45170/AT4G29220/AT2G47460/AT2G39820/AT1G80580/AT3G63350/AT3G05860/AT1G02040/AT4G33170/AT5G62165/AT3G14160/AT5G01200/AT4G32800/AT5G24280/AT3G16680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0016070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=62%, list=37%, signal=42%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G15700/AT2G47520/AT3G01600/AT5G58610/AT3G58190/AT1G31790/AT1G50680/AT1G51120/AT4G03090/AT1G23810/AT5G67480/AT3G58590/AT5G22570/AT5G40350/AT3G01600/AT1G64800/AT4G04920/AT1G56010/AT4G00830/AT5G35550/AT2G35270/AT1G60040/AT4G36740/AT2G16365/AT5G67480/AT3G45170/AT2G47460/AT2G39820/AT1G80580/AT3G63350/AT3G05860/AT1G02040/AT4G33170/AT5G62165/AT3G14160/AT5G01200/AT4G32800/AT3G16680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=47%, list=37%, signal=39%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G15700/AT2G03130/AT5G09570/AT2G47520/AT1G10550/AT2G46240/AT3G01600/AT2G46240/AT5G58610/AT3G58190/AT1G57830/AT2G46240/AT5G05260/AT5G57550/AT4G21490/AT5G07530/AT5G11080/AT1G77530/AT5G59370/AT4G08850/AT1G53830/AT3G47720/AT1G31790/AT5G45090/AT1G50680/AT5G26290/AT2G01960/AT2G19800/AT1G51120/AT3G47720/AT4G03090/AT3G03650/AT1G23810/AT5G48000/AT5G67480/AT3G58590/AT1G02940/AT5G22570/AT5G40350/AT3G01600/AT4G08560/AT5G37670/AT1G64800/AT3G25490/AT1G56550/AT4G04920/AT3G16810/AT3G09640/AT4G37900/AT5G28510/AT1G56010/AT4G00830/AT4G17270/AT1G14520/AT2G17055/AT1G69940/AT5G35550/AT2G35270/AT1G51830/AT2G32750/AT1G60040/AT2G18130/AT4G30120/AT5G22470/AT4G36740/AT5G56470/AT1G73860/AT4G35150/AT3G21730/AT4G13240/AT4G29658/AT2G16365/AT4G35390/AT1G71690/AT2G16005/AT5G67480/AT2G38220/AT3G45170/AT4G29220/AT1G72330/AT2G47460/AT2G39820/AT1G80580/AT3G63350/AT3G05860/AT4G04220/AT1G02040/AT4G33170/AT2G32120/AT1G18690/AT5G23030/AT5G62165/AT4G20200/AT1G17250/AT3G14160/AT5G01200/AT4G15230/AT4G15230/AT3G18360/AT5G51310/AT1G56300/AT4G32800/AT5G24280/AT3G16680/AT4G19030/AT1G14520/AT1G54510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of DNA-templated transcription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT2G47520/AT3G01600/AT5G58610/AT3G58190/AT1G50680/AT1G51120/AT4G03090/AT1G23810/AT5G67480/AT5G22570/AT5G40350/AT3G01600/AT1G64800/AT4G04920/AT1G56010/AT4G00830/AT5G35550/AT2G35270/AT1G60040/AT4G36740/AT2G16365/AT5G67480/AT3G45170/AT2G47460/AT1G80580/AT3G63350/AT3G05860/AT1G02040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:2001141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of RNA biosynthetic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0019222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=56%, list=30%, signal=42%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT2G47520/AT2G46240/AT3G01600/AT2G46240/AT5G58610/AT3G58190/AT2G46240/AT1G50680/AT1G51120/AT4G03090/AT1G23810/AT5G67480/AT5G22570/AT5G40350/AT3G01600/AT4G08560/AT1G64800/AT4G04920/AT3G16810/AT1G56010/AT4G00830/AT5G35550/AT2G35270/AT1G60040/AT4G36740/AT2G16365/AT5G67480/AT3G45170/AT2G47460/AT1G80580/AT3G63350/AT3G05860/AT1G02040</t>
+    <t xml:space="preserve">AT5G37670/AT2G46920/AT5G48850/AT1G30120/AT2G36740/AT5G64940/AT4G10260/AT5G63790/AT3G23030/AT4G26440/AT5G67450/AT3G49130/AT4G34520/AT3G20740/AT1G32640/AT3G56790/AT2G28860/AT2G18720/AT1G52320/AT3G16280/AT5G27960/AT1G33750/AT5G52640/AT5G55020/AT5G41250/AT4G11030/AT4G21080/AT5G28237/AT2G20560/AT5G07990/AT5G57590/AT2G46740/AT5G21120/AT5G61430/AT5G51990/AT5G59950/AT2G20560/AT4G16745/AT1G30100/AT1G80460/AT1G61470/AT2G46130/AT5G36870/AT4G13620/AT4G36990/AT3G48920/AT1G27220/AT4G24000/AT5G62120/AT1G05460/AT5G39930/AT2G32460/AT3G04100/AT1G29870/AT3G13460/AT1G12540/AT3G44550/AT4G12020/AT5G37260/AT1G54050/AT5G57620/AT1G27820/AT3G61850/AT1G03490/AT5G61180/AT4G38000/AT1G08320/AT1G26780/ATMG00210/AT2G07725/AT5G52640/AT2G13810/AT4G13280/AT4G13300/AT5G50780/AT1G78570/AT1G80590/AT1G27890/AT2G31890/AT3G16340/AT1G73410/AT3G59030/AT5G48010/AT5G58780/AT5G60180/AT5G09330/AT1G77950/AT5G63595/AT4G12720/AT4G04920/AT3G55160/AT2G05642/ATMG00210/AT2G07725/AT1G02830/AT2G38340/AT1G59860/AT5G64750/AT4G36380/AT3G01420/AT5G21050/AT3G14110/AT5G17040/AT4G17840/AT1G76690/AT1G74310/AT3G18400/AT2G44990/AT1G19210/AT5G63560/AT5G51190/AT3G29255/AT3G09380/AT1G51190/AT3G45640/AT5G04340/AT5G36150/AT5G22250/AT5G60830/AT1G74930/AT3G50060/AT3G44300/AT1G66020/AT1G48150/AT5G17920/ATMG00290/AT5G23260/AT3G23820/AT1G72360/AT3G10070/AT3G14530/AT3G49700/AT1G15810/AT5G51190/AT4G14690/AT1G72520/AT3G01530/AT2G38040/AT3G46230/AT5G05410/AT3G04410/ATMG00940/AT5G66390/AT5G47230/AT1G32510/AT3G49530/AT1G79580/AT2G13680/AT2G15660/AT1G10390/AT2G40140/AT1G60980/AT3G58390/AT5G54770/AT2G28860/AT2G22900/AT3G11430/AT3G27440/AT2G34820/AT3G06630/AT4G31800/AT3G55210/AT1G07400/AT1G54330/AT4G17490/AT2G13150/AT4G01250/AT4G01950/AT5G02580/AT1G68765/AT5G01380/AT3G44260/AT4G26770/AT2G41240/AT4G17490/AT4G23810/AT3G10930/AT3G25830/AT3G25820/AT1G73805/AT4G04260/AT3G53510/AT3G56520/AT5G43620/AT2G47810/AT5G21960/AT1G66500/AT5G62165/AT1G21910/AT2G44840/AT2G38470/AT1G02390/AT5G63160/AT1G32300/AT1G59312/AT3G23980/AT5G66280/AT2G21235/AT5G38120/AT4G13280/AT3G62610/AT1G36060/AT5G20230/AT5G20230/AT1G76050/AT2G30040/AT1G27730/AT5G06650/AT5G12330/AT3G12890/AT3G25180/AT4G15417/AT2G38995/AT4G11280/AT2G37360/AT5G63790/AT5G20230/AT5G05410/AT2G21900/AT2G29500/AT1G61590/AT3G48360/AT2G26150/AT1G13300/AT4G37770/AT5G48000/AT5G20230/AT1G66170/AT3G14230/AT2G23400/AT2G31690/AT2G40140/AT3G18400/AT5G39410/AT5G56960/AT2G47300/AT2G29460/AT2G40340/AT1G63030/AT1G12780/AT1G22810/AT3G48360/AT1G53540/AT3G28340/AT4G09990/AT2G32050/AT3G46090/AT3G46640/AT3G48360/AT2G26400/AT1G28370/AT1G77640/AT2G31650/AT1G64380/AT3G26790/AT5G64810/AT1G74420/AT3G28340/AT3G55980/AT5G12280/AT4G23810/AT3G46080/AT4G17090/AT3G09440/AT4G25490/AT2G22760/AT5G12020/AT3G49530/AT2G23290/AT2G46400/AT5G12030/AT1G33760/AT4G34410/AT1G72570/AT4G08040/AT1G80840/AT2G46400/AT1G72520/AT3G09360/AT5G51990/AT1G12610/AT4G25470/AT1G80840/AT4G10250/AT5G58860/AT5G20220/AT4G27670</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0031323</t>
@@ -440,169 +434,211 @@
     <t xml:space="preserve">regulation of cellular metabolic process</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0010556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of macromolecule biosynthetic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=55%, list=30%, signal=40%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT2G47520/AT3G01600/AT5G58610/AT3G58190/AT1G50680/AT1G51120/AT4G03090/AT1G23810/AT5G67480/AT5G22570/AT5G40350/AT3G01600/AT4G08560/AT1G64800/AT4G04920/AT3G16810/AT1G56010/AT4G00830/AT5G35550/AT2G35270/AT1G60040/AT4G36740/AT2G16365/AT5G67480/AT3G45170/AT2G47460/AT1G80580/AT3G63350/AT3G05860/AT1G02040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to osmotic stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=75%, list=29%, signal=54%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G67480/AT5G37670/AT4G04920/AT4G37900/AT5G28510/AT5G35550/AT2G16005/AT5G67480/AT2G47460</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0032502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">developmental process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=51%, list=37%, signal=35%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT2G47520/AT2G46240/AT2G46240/AT3G58190/AT2G46240/AT5G48940/AT5G07530/AT4G08850/AT4G15393/AT4G15396/AT5G26290/AT4G14465/AT2G19800/AT4G03090/AT3G03650/AT3G52600/AT5G48000/AT5G40350/AT4G04920/AT3G16810/AT4G37900/AT1G56010/AT4G00830/AT1G14520/AT1G69940/AT5G35550/AT2G35270/AT2G39200/AT2G48130/AT4G13240/AT2G16365/AT4G35390/AT2G38220/AT3G45170/AT1G08590/AT5G62165/AT2G17080/AT1G17250/AT4G15230/AT4G15230/AT3G18360/AT1G04500/AT5G51310/AT3G19700/AT1G14520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0048731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">system development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=35%, list=17%, signal=31%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT2G47520/AT2G46240/AT2G46240/AT3G58190/AT2G46240/AT5G48940/AT5G07530/AT4G14465/AT4G03090/AT3G52600/AT5G48000/AT5G40350/AT4G04920/AT3G16810/AT4G37900/AT1G56010/AT4G00830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0009755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hormone-mediated signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=63%, list=35%, signal=42%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT3G58190/AT4G08850/AT2G01960/AT5G40350/AT4G04920/AT4G37900/AT1G56010/AT4G35390/AT1G80580/AT5G23030/AT4G15230/AT4G15230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0032501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multicellular organismal process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=51%, list=36%, signal=35%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT2G47520/AT2G46240/AT2G46240/AT3G58190/AT2G46240/AT5G48940/AT5G07530/AT4G08850/AT1G53830/AT4G15393/AT4G15396/AT5G26290/AT4G14465/AT4G03090/AT3G03650/AT3G52600/AT5G48000/AT5G40350/AT4G04920/AT3G16810/AT4G37900/AT1G56010/AT4G00830/AT1G69940/AT2G35270/AT2G39200/AT2G48130/AT4G13240/AT2G16365/AT4G35390/AT2G38220/AT1G08590/AT5G62165/AT2G17080/AT1G17250/AT4G15230/AT4G15230/AT3G18360/AT1G04500/AT5G51310/AT3G19700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0036294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular response to decreased oxygen levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=54%, list=18%, signal=47%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G59820/AT2G22500/AT1G32928/AT4G31970/AT1G72920/AT1G72920/AT1G72920/AT2G40140/AT4G24570/AT4G27657/AT3G04640/AT5G05410/AT1G27730/AT1G76650/AT4G13395/AT5G66650/AT3G46090/AT1G18300/AT5G05410/AT2G22500/AT5G66650/AT3G04640/AT2G46400/AT3G46080/AT2G46400/AT5G42380/AT5G12030/AT5G42380/AT5G45630</t>
+    <t xml:space="preserve">tags=29%, list=21%, signal=25%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G21120/AT5G61430/AT5G51990/AT4G36280/AT1G61470/AT2G46130/AT4G13620/AT4G36990/AT3G48920/AT1G27220/AT5G62120/AT1G05460/AT2G32460/AT3G04100/AT3G13460/AT1G12540/AT4G12020/AT5G37260/AT5G57620/AT1G27820/AT3G61850/AT1G03490/AT5G61180/AT4G38000/AT1G08320/AT1G26780/AT5G50780/AT1G80590/AT1G27890/AT2G31890/AT3G16340/AT1G73410/AT5G60180/AT5G09330/AT1G77950/AT4G12720/AT4G04920/AT2G38340/AT5G64750/AT2G41010/AT1G74310/AT5G52910/AT3G18400/AT1G19210/AT5G51190/AT1G51190/AT5G04340/AT4G23450/AT5G22250/AT5G60830/AT1G74930/AT3G50060/AT1G48150/AT5G17920/AT5G23260/AT1G72360/AT3G49700/AT5G51190/AT4G14690/AT3G01530/AT5G05410/AT3G04410/ATMG00940/AT5G47230/AT1G32510/AT3G49530/AT1G79580/AT2G15660/AT2G40140/AT3G58390/AT2G34820/AT3G06630/AT4G31800/AT3G55210/AT1G54330/AT4G17490/AT2G13150/AT4G01250/AT5G02580/AT1G68765/AT5G01380/AT3G44260/AT2G41240/AT4G17490/AT4G23810/AT3G10930/AT1G73805/AT4G04260/AT3G56520/AT2G47810/AT5G21960/AT5G62165/AT1G21910/AT2G44840/AT2G38470/AT5G63160/AT3G23980/AT2G21235/AT3G62610/AT1G36060/AT5G20230/AT5G20230/AT2G30040/AT1G27730/AT5G06650/AT5G12330/AT3G12890/AT4G15417/AT5G63790/AT2G48110/AT5G20230/AT5G05410/AT2G21900/AT1G61590/AT3G48360/AT2G26150/AT1G13300/AT5G20230/AT1G66170/AT3G14230/AT2G40140/AT3G18400/AT1G29690/AT5G56960/AT2G40340/AT1G63030/AT1G22810/AT3G48360/AT3G46090/AT3G46640/AT3G48360/AT1G28370/AT1G61800/AT1G77640/AT2G31650/AT1G64380/AT3G26790/AT5G64810/AT3G55980/AT4G23810/AT3G46080/AT1G61800/AT4G25490/AT2G22760/AT3G49530/AT2G23290/AT2G46400/AT1G33760/AT4G34410/AT1G72570/AT1G80840/AT2G46400/AT5G51990/AT1G12610/AT4G25470/AT1G80840/AT5G20220/AT4G27670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0009642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to light intensity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=53%, list=19%, signal=43%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2G17840/AT2G17840/AT1G74310/AT4G14690/AT4G17490/AT4G17490/AT5G20230/AT5G20230/AT1G27730/AT5G37770/AT5G20230/AT5G20230/AT5G59820/AT1G61800/AT4G20940/AT1G61800/AT5G45630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0009414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to water deprivation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=33%, list=15%, signal=28%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT3G23250/AT2G38340/AT2G41010/AT1G51190/AT4G23450/AT3G52450/AT5G05410/AT3G46620/AT1G19020/AT4G24020/AT5G59550/AT3G23250/AT2G35930/AT2G41240/AT2G38470/AT1G27730/AT4G11280/AT5G05410/AT5G18320/AT5G45340/AT1G22810/AT2G31650/AT4G25490/AT2G46400/AT5G52050/AT2G46400/AT1G12610/AT5G42380/AT3G02840/AT5G42380/AT5G45340/AT5G45340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=55%, list=21%, signal=44%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT1G09070/AT5G24590/AT4G27657/AT5G25250/AT5G57560/AT1G35140/AT1G07150/AT4G24570/AT1G66090/AT3G55980/AT1G61340/AT2G22500/AT3G56880/AT4G24110/AT2G40140/AT1G15010/AT5G24590/AT4G10250/AT2G40000/AT1G73500/AT1G32928/AT2G22500/AT5G59820/AT1G14200/AT3G46090/AT5G57510/AT3G04640/AT2G40000/AT3G04640/AT5G62520/AT1G35140/AT1G43800/AT2G40000/AT1G54050/AT3G52800/AT4G19520/AT1G72910/AT3G46080/AT4G01360/AT1G74310/AT4G12720/AT4G27280/AT4G29780/AT5G05410/AT1G73500/AT2G46400/AT4G13395/AT4G19520/AT4G19520/AT2G46400/AT5G66650/AT1G27730/AT1G72920/AT2G40140/AT5G45340/AT5G54490/AT1G72920/AT5G45340/AT5G66650/AT1G18300/AT1G59860/AT5G45340/AT5G45630/AT4G31970/AT5G05410/AT1G72920/AT1G76650/AT3G46230/AT1G07400/AT5G42380/AT2G26150/AT5G42380/AT5G12020/AT5G12030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpotmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=54%, list=21%, signal=44%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT1G09070/AT5G24590/AT4G27657/AT5G25250/AT5G57560/AT1G35140/AT1G07150/AT4G24570/AT1G66090/AT3G55980/AT1G61340/AT2G22500/AT3G56880/AT4G24110/AT2G40140/AT1G15010/AT5G24590/AT4G10250/AT2G40000/AT1G73500/AT1G32928/AT2G22500/AT5G59820/AT1G14200/AT3G46090/AT5G57510/AT3G04640/AT2G40000/AT3G04640/AT5G62520/AT1G35140/AT1G43800/AT2G40000/AT1G54050/AT3G52800/AT3G48090/AT4G19520/AT1G72910/AT3G46080/AT4G01360/AT1G74310/AT4G12720/AT4G27280/AT4G29780/AT5G05410/AT1G73500/AT2G46400/AT4G13395/AT4G19520/AT4G19520/AT3G52430/AT2G46400/AT5G66650/AT1G27730/AT1G72920/AT2G40140/AT5G45340/AT5G54490/AT1G72920/AT5G45340/AT5G66650/AT1G18300/AT1G59860/AT5G45340/AT5G45630/AT4G31970/AT5G05410/AT1G72920/AT1G76650/AT3G46230/AT1G07400/AT5G42380/AT2G26150/AT5G42380/AT5G12020/AT5G12030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0046283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anthocyanin-containing compound metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=82%, list=9%, signal=75%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G42800/AT5G42800/AT3G29590/AT5G42800/AT4G09820/AT5G54060/AT5G17220/AT4G22880/AT4G14090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0098754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detoxification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=36%, list=13%, signal=31%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2G29490/AT1G17180/AT1G02940/AT1G22990/AT3G44300/AT1G17170/AT3G53480/AT1G02930/AT1G56160/AT2G29470/AT5G17220/AT1G02930/AT4G22110/AT2G04040/AT1G78360/AT5G19700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0009408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to heat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=31%, list=11%, signal=28%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT1G54280/AT1G54050/AT5G37770/AT1G21910/AT1G74310/AT5G05410/AT3G12580/AT5G52640/AT2G16575/AT3G22830/AT5G52640/AT1G59860/AT5G05410/AT4G27670/AT5G51190/AT5G51190/AT3G61190/AT2G29500/AT1G53540/AT3G46230/AT1G07400/AT1G12610/AT2G26150/AT5G12020/AT5G12030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=52%, list=16%, signal=43%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G48570/AT4G10250/AT1G54050/AT2G20560/AT3G12580/AT5G52640/AT2G20560/AT5G52640/AT3G22920/AT1G59860/AT2G29500/AT1G53540/AT3G46230/AT1G07400/AT5G12020/AT5G12030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=50%, list=17%, signal=42%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2G36260/AT5G48570/AT3G09380/AT4G10250/AT1G54050/AT2G20560/AT3G12580/AT5G52640/AT2G20560/AT5G52640/AT4G17840/AT3G22920/AT1G59860/AT2G29500/AT1G53540/AT3G46230/AT1G07400/AT5G12020/AT5G12030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0009718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anthocyanin-containing compound biosynthetic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=89%, list=9%, signal=81%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G42800/AT5G42800/AT3G29590/AT5G42800/AT4G09820/AT5G54060/AT4G22880/AT4G14090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glutathione metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=69%, list=13%, signal=61%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2G29490/AT1G17180/AT1G02940/AT1G17170/AT1G02930/AT2G29470/AT5G17220/AT1G02930/AT1G78360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein dephosphorylation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=53%, list=7%, signal=50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2G05050/AT3G27140/AT4G08260/AT2G30020/AT3G09400/AT2G30020/AT2G30020/AT2G46920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0009407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toxin catabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=75%, list=13%, signal=66%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=42%, list=18%, signal=35%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G63160/AT3G28580/AT1G72520/AT3G17800/AT4G10250/AT5G64940/AT1G54050/AT5G10720/AT3G48090/AT5G37770/AT4G12720/AT5G05410/AT3G48360/AT1G59860/AT3G14110/AT5G05410/AT2G29500/AT1G53540/AT3G46230/AT1G07400/AT5G42380/AT2G26150/AT5G42380/AT5G12020/AT5G12030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=67%, list=16%, signal=57%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT1G19020/AT1G19530/AT4G30280/AT5G27420/AT1G73500/AT1G78070/AT3G55980/AT5G06320/AT5G20230/AT1G09070/AT2G36220/AT3G23170/AT1G07135/AT3G52800/AT2G40000/AT5G20230/AT1G14200/AT1G59860/AT5G20230/AT5G24590/AT5G24590/AT4G12720/AT3G23170/AT5G25250/AT2G40000/AT5G20230/AT4G19520/AT4G19520/AT2G41010/AT4G10250/AT2G40000/AT5G06320/AT2G32210/AT5G45340/AT1G74310/AT4G19520/AT5G19240/AT3G56880/AT1G66090/AT1G09070/AT5G62520/AT3G25250/AT1G15010/AT3G46230/AT1G72910/AT5G25250/AT2G40140/AT5G54490/AT4G24110/AT2G32200/AT4G01360/AT1G07400/AT5G63130/AT5G45340/AT5G59820/AT2G26150/AT5G04340/AT2G22500/AT1G32928/AT4G31970/AT5G45340/AT5G57510/AT1G72920/AT1G72920/AT1G61340/AT1G72920/AT2G40140/AT4G24570/AT4G27657/AT3G04640/AT5G05410/AT1G27730/AT1G76650/AT4G13395/AT5G66650/AT3G46090/AT1G18300/AT5G05410/AT2G22500/AT5G12020/AT5G66650/AT4G29780/AT3G04640/AT2G46400/AT3G46080/AT2G46400/AT5G42380/AT5G12030/AT5G42380/AT5G45630</t>
   </si>
   <si>
     <t xml:space="preserve">Tmp-P1</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0071453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular response to oxygen levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0071456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular response to hypoxia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0001666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to hypoxia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=62%, list=22%, signal=52%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT1G15010/AT1G72910/AT2G40140/AT4G24110/AT2G32200/AT3G52430/AT5G59820/AT2G22500/AT1G32928/AT4G31970/AT1G72920/AT1G72920/AT1G72920/AT2G40140/AT4G24570/AT4G27657/AT3G04640/AT5G05410/AT1G27730/AT1G76650/AT4G13395/AT5G66650/AT3G46090/AT1G18300/AT5G05410/AT2G22500/AT5G66650/AT3G04640/AT2G46400/AT3G46080/AT2G46400/AT5G42380/AT5G12030/AT5G42380/AT5G45630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0036293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to decreased oxygen levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0070482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to oxygen levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=72%, list=40%, signal=47%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT2G23810/AT3G23170/AT4G24080/AT3G48360/AT2G23810/AT5G19790/AT2G40000/AT4G19520/AT4G19520/AT2G23810/AT2G40000/AT1G67160/AT4G23450/AT4G19520/AT3G56880/AT1G09070/AT5G01060/AT1G15010/AT1G72910/AT2G40140/AT2G44340/AT4G24110/AT2G32200/AT3G52430/AT2G13810/AT5G59820/AT1G16420/AT2G22500/AT1G32928/AT4G31970/AT2G32460/AT1G72920/AT1G72920/AT5G47230/AT3G13610/AT1G29690/AT1G72920/AT2G40140/AT4G24570/AT4G27657/AT3G04640/AT5G05410/AT1G27730/AT1G76650/AT4G13395/AT5G66650/AT3G46090/AT2G30020/AT1G18300/AT5G05410/AT2G22500/AT2G30020/AT5G66650/AT2G30020/AT3G04640/AT2G46400/AT3G46080/AT2G46400/AT5G42380/AT5G12030/AT5G42380/AT5G45630/AT4G30430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0042221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to chemical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=46%, list=27%, signal=39%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G01060/AT3G17800/AT1G15010/AT5G38030/AT3G10585/AT1G72910/AT3G52450/AT2G17740/AT2G40140/AT2G44340/AT4G24110/AT2G32200/AT3G52430/AT3G17690/AT2G13810/AT5G59820/AT1G16420/AT3G23030/AT2G22500/AT1G32928/AT4G31970/AT3G59030/AT1G73805/AT3G46620/AT2G32460/AT3G52450/AT1G72920/AT1G72920/AT5G47230/AT3G13610/AT1G29690/AT1G72920/AT2G40140/AT4G24570/AT4G27657/AT3G04640/AT5G05410/AT1G27730/AT1G76650/AT4G13395/AT3G10930/AT5G66650/ATMG00940/AT3G46090/AT2G30020/AT1G18300/AT5G05410/AT2G22500/AT2G30020/AT5G66650/AT2G30020/AT3G04640/AT2G46400/AT3G46080/AT3G61190/AT2G46400/AT5G42380/AT5G12030/AT5G42380/AT5G45630/AT4G30430/AT3G61440/AT3G61440</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monoatomic ion transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=77%, list=20%, signal=62%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G37060/AT2G22500/AT4G08230/AT2G16980/AT5G66650/AT2G22500/AT5G66650/ATMG01360/ATMG00900/AT2G07681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0009266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to temperature stimulus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=48%, list=18%, signal=41%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G59820/AT5G47230/AT5G51190/AT2G40140/AT5G51190/AT5G05410/AT1G27730/AT5G05410/AT4G25470/AT3G61190/AT5G12030/AT3G09440</t>
+    <t xml:space="preserve">tags=66%, list=16%, signal=57%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT1G19020/AT1G19530/AT4G30280/AT5G27420/AT1G73500/AT1G78070/AT3G55980/AT5G06320/AT5G20230/AT1G09070/AT2G36220/AT3G23170/AT1G07135/AT3G52800/AT2G40000/AT5G20230/AT1G14200/AT1G59860/AT5G20230/AT5G24590/AT5G24590/AT4G12720/AT3G14230/AT3G23170/AT5G25250/AT2G40000/AT5G20230/AT4G19520/AT4G19520/AT2G41010/AT4G10250/AT2G40000/AT5G06320/AT2G32210/AT5G45340/AT1G74310/AT4G19520/AT5G19240/AT3G56880/AT1G66090/AT1G09070/AT5G62520/AT3G25250/AT1G15010/AT3G46230/AT1G72910/AT5G25250/AT2G40140/AT5G54490/AT4G24110/AT2G32200/AT4G01360/AT1G07400/AT5G63130/AT3G52430/AT5G45340/AT5G59820/AT2G26150/AT5G04340/AT2G22500/AT1G32928/AT4G31970/AT5G45340/AT5G57510/AT1G72920/AT1G72920/AT1G61340/AT1G72920/AT2G40140/AT4G24570/AT4G27657/AT3G04640/AT5G05410/AT1G27730/AT1G76650/AT4G13395/AT5G66650/AT3G46090/AT1G18300/AT5G05410/AT2G22500/AT5G12020/AT5G66650/AT4G29780/AT3G04640/AT2G46400/AT3G46080/AT2G46400/AT5G42380/AT5G12030/AT5G42380/AT5G45630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=32%, list=18%, signal=30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT4G17490/AT5G66130/AT1G61360/AT3G22830/AT5G63790/AT5G44430/AT1G21250/AT1G72520/AT4G13280/AT4G13300/AT1G19490/AT1G61140/AT3G17790/AT3G04720/AT2G26010/AT3G22600/AT2G38470/AT1G06135/AT5G36925/AT1G19020/AT2G05642/AT4G16260/AT1G19530/AT2G14560/AT5G50260/AT3G62680/AT4G30280/AT5G64750/AT2G27270/AT1G80590/AT5G27420/AT1G73500/AT2G23400/AT3G21780/AT1G32920/AT1G24010/AT3G12820/AT3G28600/AT5G66210/AT3G20740/AT1G78070/AT3G01080/AT3G55980/AT5G02140/AT3G44540/AT3G62260/AT5G06320/AT3G28340/AT5G20230/AT1G09070/AT5G52640/AT1G52060/AT4G36990/AT1G09090/AT5G61430/AT2G36220/AT4G16950/AT3G23170/AT5G52640/AT1G20823/AT1G07135/AT3G52800/AT2G40000/AT5G20230/AT5G21160/AT3G28340/AT1G14200/AT2G26020/AT3G12580/AT1G59860/AT5G20230/AT4G15740/AT1G24100/AT1G68850/AT1G61030/AT5G24590/AT2G29460/AT5G24590/AT4G12720/AT2G03300/AT3G14230/AT4G36430/AT3G27835/AT5G40420/AT4G14670/AT1G74930/AT2G23810/AT3G23170/AT2G33580/AT3G50930/AT3G48360/AT5G45210/AT2G31880/AT2G23810/AT5G25250/AT5G19790/AT2G40000/AT5G20230/AT4G19520/AT4G19520/AT4G11280/AT2G17840/AT2G23810/AT2G41010/AT4G10250/AT1G14960/AT2G40000/AT5G22470/AT5G06320/AT2G32210/AT5G45340/AT5G56960/AT4G23450/AT1G74310/AT1G10300/AT4G19520/AT1G72950/AT5G19240/AT3G20340/AT3G56880/AT1G66090/AT5G59550/AT5G37770/AT1G09070/AT1G66760/AT4G17090/AT5G41740/AT2G03250/AT5G62530/AT5G62520/AT3G25250/AT3G50930/AT3G17800/AT2G38390/AT1G15010/AT2G17840/AT3G57960/AT3G46230/AT1G72910/AT5G25250/AT3G52450/AT5G22250/AT2G40140/AT3G48330/AT4G13280/AT5G54490/AT2G44240/AT1G48490/AT2G29500/AT3G23250/AT4G24110/AT2G32200/AT4G11650/AT4G12490/AT4G01360/AT1G07400/AT3G52400/AT5G63130/AT3G52430/AT2G13810/AT3G44260/AT1G53540/AT5G45340/AT3G49530/AT5G59820/AT2G26150/AT3G23250/AT1G16420/AT5G65300/AT1G24140/AT5G04340/AT2G22500/AT5G43570/AT2G27080/AT1G32928/AT4G31970/AT5G45340/AT5G57510/AT5G22530/AT1G73805/AT3G46620/AT3G52450/AT1G72920/AT1G72920/AT1G70130/AT1G61340/AT2G38380/AT4G27670/AT5G47230/AT3G13610/AT1G29690/AT1G72920/AT5G51190/AT4G00380/AT1G15910/AT2G40140/AT4G24570/AT5G51190/AT4G27657/AT5G52050/AT3G04640/AT1G80840/AT1G58420/AT5G05410/AT1G27730/AT1G12610/AT1G76650/AT5G50780/AT4G13395/AT3G10930/AT5G66650/AT3G46090/AT1G80840/AT2G30020/AT1G18300/AT5G41740/AT5G05410/AT4G25470/AT2G22500/AT2G30020/AT3G28580/AT5G12020/AT5G66650/AT2G30020/AT1G70850/AT4G29780/AT3G04640/AT4G25490/AT1G70850/AT4G34410/AT1G22810/AT2G46400/AT5G39670/AT3G46080/AT3G61190/AT5G41740/AT2G46400/AT3G02840/AT3G48520/AT5G42380/AT5G12030/AT5G42380/AT5G45630/AT3G09440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=51%, list=28%, signal=38%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT3G48090/AT5G44420/AT3G51450/AT3G50460/AT1G61800/AT2G32680/AT3G22231/AT1G70260/AT3G59740/AT3G46760/AT3G16530/AT1G73805/AT3G26830/AT4G04920/AT3G56410/AT4G23810/AT4G37990/AT1G37130/AT1G65390/AT4G02380/AT1G29195/AT4G18040/AT2G41800/AT1G32640/AT1G17615/AT3G25830/AT3G25820/AT4G10490/AT3G49530/AT1G68765/AT5G38378/AT1G61480/AT1G73500/AT1G61800/AT2G26560/AT4G10500/AT3G14460/AT4G17490/AT5G64810/AT2G22000/AT1G17600/AT1G14780/AT4G17490/AT1G61360/AT1G21250/AT1G72520/AT3G04720/AT3G22600/AT2G38470/AT1G06135/AT5G36925/AT1G19020/AT4G16260/AT2G14560/AT5G50260/AT5G64750/AT2G27270/AT5G27420/AT1G73500/AT5G66210/AT5G06320/AT5G20230/AT5G52640/AT1G08320/AT3G23170/AT5G52640/AT2G40000/AT5G20230/AT1G14200/AT3G12580/AT5G20230/AT1G24100/AT5G24590/AT2G29460/AT5G24590/AT4G20000/AT4G12720/AT4G36430/AT1G74930/AT2G23810/AT3G23170/AT2G33580/AT3G50930/AT2G18280/AT2G23810/AT1G21835/AT1G16410/AT2G40000/AT5G20230/AT2G23810/AT2G40000/AT5G06320/AT1G10300/AT5G37770/AT3G50930/AT1G15010/AT5G38030/AT3G57960/AT5G22250/AT2G17740/AT2G40140/AT1G48490/AT4G11650/AT4G12490/AT3G52400/AT3G52430/AT3G17690/AT2G13810/AT3G44260/AT3G49530/AT1G24140/AT2G27080/AT1G73805/AT1G70130/AT1G61340/AT1G29690/AT2G40140/AT1G80840/AT5G50780/AT3G10930/AT1G80840/AT2G30020/AT2G30020/AT2G30020/AT4G34410/AT1G22810/AT2G46400/AT5G39670/AT2G46400/AT5G17350/AT5G17350/AT3G48520/AT5G45630/AT3G09440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0009451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA modification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=70%, list=33%, signal=47%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT3G58590/AT1G31790/AT5G42450/AT1G15480/AT5G13230/AT3G20730/AT5G50990/AT1G16480/AT4G33170/AT3G14140/AT3G15130/AT1G53260/AT3G05300/AT2G33760/AT3G18970/AT1G04840/AT1G12700/AT3G14160/AT1G64310/AT5G39680/AT5G59600/AT1G08070/AT1G08070/AT5G39680/AT4G30700/AT4G39530/AT5G25030/AT1G20230/AT3G52260/AT1G03530/AT2G03380/AT3G15930/AT3G11460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=45%, list=13%, signal=40%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G52640/AT5G52640/AT3G12580/AT1G59860/AT2G20560/AT4G10250/AT2G20560/AT3G46230/AT2G29500/AT1G07400/AT1G53540/AT5G12020/AT5G12030/AT3G09440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=100%, list=15%, signal=85%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT1G75040/AT3G29590/AT5G42800/AT5G42800/AT5G42800/AT5G54060/AT4G09820/AT4G22880/AT4G14090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=36%, list=27%, signal=30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT4G10260/AT3G11980/AT4G24000/AT5G23190/AT3G22231/AT5G09750/AT4G29520/AT2G22750/AT5G39700/AT5G48570/AT2G34410/AT1G50960/AT4G01750/AT2G41690/AT4G14690/AT1G73805/AT3G26830/AT1G03490/AT1G01460/AT1G72110/AT4G04920/AT5G61850/AT1G62410/AT1G56010/AT4G24150/AT5G27070/AT5G26950/AT4G01680/AT5G23650/AT4G23810/AT1G73410/AT4G37990/AT1G37130/AT3G62610/AT1G26780/AT4G17840/AT5G22490/AT4G11250/AT3G30260/AT4G15520/AT5G64940/AT2G13150/AT3G49190/AT3G50060/AT3G26790/AT2G27220/AT2G31690/AT4G18040/AT1G32640/AT3G10380/AT3G25830/AT3G25820/AT3G28917/AT2G15350/AT3G43250/AT1G33760/AT3G54340/AT1G61820/AT3G49530/AT3G44550/AT4G08040/AT5G63160/AT5G63790/AT2G38340/AT3G48920/AT3G53510/AT1G68765/AT1G54330/AT4G11030/AT2G15090/AT1G73500/AT3G04100/AT3G11430/AT3G54020/AT1G27220/AT5G17920/AT1G54360/AT3G10070/AT3G10320/AT1G02830/AT2G26950/AT2G22760/AT2G26560/AT5G51990/AT5G01380/AT1G19300/AT4G00980/AT4G06746/AT4G21030/AT1G02390/AT1G74420/AT1G62220/AT5G01620/AT2G22900/AT1G77640/AT4G17490/AT2G32620/AT5G39220/AT5G64810/AT1G54050/AT5G62120/AT4G04404/AT5G60180/AT5G60510/AT1G78570/AT1G72360/AT5G57620/AT2G35640/AT1G51190/AT3G61120/AT1G72590/AT5G39410/AT1G23320/AT3G22510/AT5G55020/AT5G63790/AT4G17490/AT3G22830/AT5G63790/AT2G34140/AT1G72520/AT3G26790/AT3G18400/AT4G13280/AT4G13300/AT5G59950/AT1G19490/AT5G14340/AT3G21890/AT1G60980/AT1G29870/AT1G21100/AT5G36150/AT3G23980/AT2G32050/AT3G58390/AT2G38470/AT5G66280/AT3G12890/AT2G05642/AT1G49190/AT3G16280/AT3G27440/AT1G27220/AT5G64750/AT1G72570/AT1G80590/AT1G73500/AT4G38000/AT2G23400/AT3G12820/AT3G51060/AT2G21900/AT5G09350/AT3G20740/AT1G68200/AT3G01080/AT3G55980/AT1G26790/AT5G21050/AT2G35990/AT3G44540/AT1G10390/AT1G60920/AT3G46640/AT3G28340/AT1G77080/AT5G20230/AT4G12750/AT1G69500/AT5G52640/AT5G66870/AT1G08320/AT1G31640/AT4G36990/AT5G61430/AT4G16745/AT4G16430/AT1G27890/AT1G61470/AT4G21080/AT1G09610/AT2G38995/AT3G09620/AT5G52640/AT5G20230/AT5G21160/AT3G28340/AT5G39400/AT3G12580/AT3G03200/AT3G16340/AT1G07940/AT1G59860/AT5G20230/AT5G66990/AT5G37260/AT1G14687/AT5G64590/AT1G24100/AT2G29460/AT1G28960/AT3G06560/AT5G08141/AT1G60240/AT4G12720/ATMG00210/AT2G07725/AT4G25020/AT1G27820/AT3G14230/AT3G49130/AT3G29340/AT1G12780/AT1G74930/AT5G02580/AT2G20560/ATMG00210/AT2G07725/AT2G09990/AT5G43620/AT3G48360/AT2G18280/AT2G31890/AT1G66500/AT1G16410/AT5G19790/AT5G20230/AT5G48930/AT1G01530/AT4G11280/AT2G18720/AT4G10250/AT3G19090/AT1G36060/AT5G65130/AT1G77950/AT5G56960/AT4G00390/AT2G30040/AT4G01037/AT2G38040/AT4G23450/AT1G74310/AT2G44840/AT1G33750/AT5G62165/AT1G29962/AT5G27610/AT2G26400/AT2G20560/AT2G23290/AT1G66170/AT3G46230/AT5G51990/AT5G22250/AT2G40140/AT4G13280/AT3G21150/AT2G29500/AT1G07400/AT2G38110/AT3G18400/AT4G34520/AT3G52430/AT4G09990/AT2G13810/AT3G44260/AT1G53540/AT5G27910/AT5G20220/AT2G47300/AT5G38120/AT3G49530/AT2G26150/AT1G78815/AT1G28370/AT5G04340/AT3G23030/AT1G64380/AT2G03280/AT1G63030/AT2G22630/AT1G62060/AT1G62080/AT3G59030/AT1G73805/AT2G32460/AT4G27670/AT5G47230/AT3G13610/AT5G51190/AT3G55440/AT4G13620/AT2G40140/AT5G51190/AT1G80840/AT5G05410/AT1G27730/AT5G63560/AT1G12610/AT5G65130/AT5G50780/AT3G10930/ATMG00940/AT3G46090/AT1G80840/AT5G05410/AT4G25470/AT5G12020/AT1G19210/AT5G21960/AT4G25490/AT4G34410/AT1G22810/AT2G46400/AT3G46080/AT2G13680/AT2G46400/AT5G58860/AT5G12030/ATMG00290/AT3G09440/AT3G61440/AT3G61440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=50%, list=20%, signal=41%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT4G17490/AT1G54050/AT4G17490/AT1G72520/AT3G17790/AT5G36925/AT1G19020/AT1G59860/AT4G12720/AT3G48360/AT5G19790/AT4G10250/AT5G37770/AT3G17800/AT3G46230/AT2G29500/AT1G07400/AT1G53540/AT2G26150/AT1G16420/AT3G13610/AT5G05410/AT3G10930/AT5G05410/AT3G28580/AT5G12020/AT3G02840/AT5G42380/AT5G12030/AT5G42380</t>
   </si>
 </sst>
 </file>
@@ -983,25 +1019,25 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>0.762355803854402</v>
+        <v>0.600404076640787</v>
       </c>
       <c r="E2" t="n">
-        <v>3.11924853388174</v>
+        <v>2.35225655095522</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0000000638219697438292</v>
+        <v>0.0000166770620516595</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00000389314015437358</v>
+        <v>0.0173405316048058</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00000345982257032337</v>
+        <v>0.01674765301716</v>
       </c>
       <c r="I2" t="n">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -1013,7 +1049,7 @@
         <v>17</v>
       </c>
       <c r="M2" t="n">
-        <v>5.40969996125091</v>
+        <v>1.76093759258676</v>
       </c>
     </row>
     <row r="3">
@@ -1024,25 +1060,25 @@
         <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>0.762355803854402</v>
+        <v>0.600404076640787</v>
       </c>
       <c r="E3" t="n">
-        <v>3.11924853388174</v>
+        <v>2.35225655095522</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0000000638219697438292</v>
+        <v>0.0000166770620516595</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00000389314015437358</v>
+        <v>0.0173405316048058</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00000345982257032337</v>
+        <v>0.01674765301716</v>
       </c>
       <c r="I3" t="n">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
@@ -1054,7 +1090,7 @@
         <v>17</v>
       </c>
       <c r="M3" t="n">
-        <v>5.40969996125091</v>
+        <v>1.76093759258676</v>
       </c>
     </row>
     <row r="4">
@@ -1065,28 +1101,28 @@
         <v>21</v>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>0.762355803854402</v>
+        <v>0.569829811760623</v>
       </c>
       <c r="E4" t="n">
-        <v>3.11924853388174</v>
+        <v>2.27362353059261</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0000000638219697438292</v>
+        <v>0.0000221745928450202</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00000389314015437358</v>
+        <v>0.0173405316048058</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00000345982257032337</v>
+        <v>0.01674765301716</v>
       </c>
       <c r="I4" t="n">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -1095,39 +1131,39 @@
         <v>17</v>
       </c>
       <c r="M4" t="n">
-        <v>5.40969996125091</v>
+        <v>1.76093759258676</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.569829811760623</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.27362353059261</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0000221745928450202</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0173405316048058</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.01674765301716</v>
+      </c>
+      <c r="I5" t="n">
+        <v>455</v>
+      </c>
+      <c r="J5" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.762355803854402</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.11924853388174</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0000000638219697438292</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.00000389314015437358</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.00000345982257032337</v>
-      </c>
-      <c r="I5" t="n">
-        <v>398</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -1136,89 +1172,89 @@
         <v>17</v>
       </c>
       <c r="M5" t="n">
-        <v>5.40969996125091</v>
+        <v>1.76093759258676</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>328</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.198422635071136</v>
+        <v>-0.998734977862113</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.91301750253914</v>
+        <v>-1.56052003263331</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000336145407390577</v>
+        <v>0.00000766681488285766</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0136699132338835</v>
+        <v>0.0119908984767894</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0121484129688524</v>
+        <v>0.011936020222891</v>
       </c>
       <c r="I6" t="n">
-        <v>594</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M6" t="n">
-        <v>1.86423424199145</v>
+        <v>1.92114827404107</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.998734977862113</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1.56052003263331</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.00000766681488285766</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0119908984767894</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.011936020222891</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="L7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="n">
-        <v>789</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.169423458432141</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-1.75206753440448</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.000432864320118423</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.0150884134441279</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0134090300668263</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1359</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" t="s">
-        <v>17</v>
-      </c>
       <c r="M7" t="n">
-        <v>1.82135642415319</v>
+        <v>1.92114827404107</v>
       </c>
     </row>
     <row r="8">
@@ -1229,25 +1265,25 @@
         <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.20285098463578</v>
+        <v>0.713495468763254</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.84056032863772</v>
+        <v>2.21889876620531</v>
       </c>
       <c r="F8" t="n">
-        <v>0.000950021677293402</v>
+        <v>0.0000394347745706905</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0289756611574488</v>
+        <v>0.0411173249523733</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0257505875687422</v>
+        <v>0.0409291449754746</v>
       </c>
       <c r="I8" t="n">
-        <v>594</v>
+        <v>1107</v>
       </c>
       <c r="J8" t="s">
         <v>34</v>
@@ -1256,10 +1292,10 @@
         <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M8" t="n">
-        <v>1.53796664565752</v>
+        <v>1.38597514781175</v>
       </c>
     </row>
     <row r="9">
@@ -1270,25 +1306,25 @@
         <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D9" t="n">
-        <v>0.384692548907982</v>
+        <v>-0.519269893289123</v>
       </c>
       <c r="E9" t="n">
-        <v>2.0992159789769</v>
+        <v>-2.09184894045194</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00153570661407739</v>
+        <v>0.0000029408022660653</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0374712413834882</v>
+        <v>0.00919882948825225</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0333005855263096</v>
+        <v>0.00909481795547352</v>
       </c>
       <c r="I9" t="n">
-        <v>398</v>
+        <v>1490</v>
       </c>
       <c r="J9" t="s">
         <v>38</v>
@@ -1297,92 +1333,92 @@
         <v>39</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M9" t="n">
-        <v>1.42630191894067</v>
+        <v>2.03626743125598</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="n">
+        <v>32</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.581935543535644</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.28295940576123</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.00000719155903823534</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0112475983358001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0111204212917555</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1726</v>
+      </c>
+      <c r="J10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="n">
-        <v>38</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.371793518796281</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-2.06388002668165</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.00220450543974257</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0488999388451989</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.0434572364198058</v>
-      </c>
-      <c r="I10" t="n">
-        <v>381</v>
-      </c>
-      <c r="J10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" t="s">
-        <v>17</v>
-      </c>
       <c r="M10" t="n">
-        <v>1.31069168400949</v>
+        <v>1.94894020118452</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="n">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>0.347910295650405</v>
+        <v>0.628958928750041</v>
       </c>
       <c r="E11" t="n">
-        <v>2.31512942909212</v>
+        <v>2.38840128238281</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0000230614316590495</v>
+        <v>0.0000186771799670225</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00374803186052326</v>
+        <v>0.0194740729789488</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00289979307103642</v>
+        <v>0.0192538788572323</v>
       </c>
       <c r="I11" t="n">
-        <v>179</v>
+        <v>1370</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="M11" t="n">
-        <v>2.42619672600448</v>
+        <v>1.71054320681121</v>
       </c>
     </row>
     <row r="12">
@@ -1393,25 +1429,25 @@
         <v>50</v>
       </c>
       <c r="C12" t="n">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D12" t="n">
-        <v>0.337743992896764</v>
+        <v>-0.597755968956861</v>
       </c>
       <c r="E12" t="n">
-        <v>2.19538552031589</v>
+        <v>-2.7933646367426</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0000374803186052326</v>
+        <v>0.0000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00374803186052326</v>
+        <v>0.0000000173777777777778</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00289979307103642</v>
+        <v>0.0000000165964912280702</v>
       </c>
       <c r="I12" t="n">
-        <v>402</v>
+        <v>1341</v>
       </c>
       <c r="J12" t="s">
         <v>51</v>
@@ -1420,1814 +1456,2593 @@
         <v>52</v>
       </c>
       <c r="L12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M12" t="n">
-        <v>2.42619672600448</v>
+        <v>7.7600057607155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="n">
+        <v>101</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.597755968956861</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-2.7933646367426</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0000000173777777777778</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0000000165964912280702</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1341</v>
+      </c>
+      <c r="J13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" t="s">
         <v>53</v>
       </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" t="n">
-        <v>92</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.326086174930663</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.19828159191661</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.0000741758166774704</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.00466425809552975</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.00360866284233091</v>
-      </c>
-      <c r="I13" t="n">
-        <v>402</v>
-      </c>
-      <c r="J13" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" t="s">
-        <v>48</v>
-      </c>
       <c r="M13" t="n">
-        <v>2.33121742600996</v>
+        <v>7.7600057607155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
         <v>57</v>
       </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
       <c r="C14" t="n">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="D14" t="n">
-        <v>0.339295842160515</v>
+        <v>-0.597755968956861</v>
       </c>
       <c r="E14" t="n">
-        <v>2.18445565441119</v>
+        <v>-2.7933646367426</v>
       </c>
       <c r="F14" t="n">
-        <v>0.000160626064051595</v>
+        <v>0.0000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00466425809552975</v>
+        <v>0.0000000173777777777778</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00360866284233091</v>
+        <v>0.0000000165964912280702</v>
       </c>
       <c r="I14" t="n">
-        <v>402</v>
+        <v>1341</v>
       </c>
       <c r="J14" t="s">
         <v>51</v>
       </c>
       <c r="K14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M14" t="n">
-        <v>2.33121742600996</v>
+        <v>7.7600057607155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="n">
+        <v>106</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.581731288604191</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-2.73218505808779</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0000000001</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0000000173777777777778</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0000000165964912280702</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1341</v>
+      </c>
+      <c r="J15" t="s">
         <v>60</v>
       </c>
-      <c r="B15" t="s">
+      <c r="K15" t="s">
         <v>61</v>
       </c>
-      <c r="C15" t="n">
-        <v>72</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.341081504731602</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2.1226452253388</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.000164590674140809</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.00466425809552975</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.00360866284233091</v>
-      </c>
-      <c r="I15" t="n">
-        <v>402</v>
-      </c>
-      <c r="J15" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" t="s">
-        <v>63</v>
-      </c>
       <c r="L15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M15" t="n">
-        <v>2.33121742600996</v>
+        <v>7.7600057607155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" t="n">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="D16" t="n">
-        <v>0.321848206309094</v>
+        <v>-0.581731288604191</v>
       </c>
       <c r="E16" t="n">
-        <v>2.10879776739774</v>
+        <v>-2.73218505808779</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00018657032382119</v>
+        <v>0.0000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00466425809552975</v>
+        <v>0.0000000173777777777778</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00360866284233091</v>
+        <v>0.0000000165964912280702</v>
       </c>
       <c r="I16" t="n">
-        <v>397</v>
+        <v>1341</v>
       </c>
       <c r="J16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M16" t="n">
-        <v>2.33121742600996</v>
+        <v>7.7600057607155</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C17" t="n">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D17" t="n">
-        <v>0.295126266750715</v>
+        <v>-0.581731288604191</v>
       </c>
       <c r="E17" t="n">
-        <v>2.09969824344569</v>
+        <v>-2.73218505808779</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000120510890372388</v>
+        <v>0.0000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00466425809552975</v>
+        <v>0.0000000173777777777778</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00360866284233091</v>
+        <v>0.0000000165964912280702</v>
       </c>
       <c r="I17" t="n">
-        <v>181</v>
+        <v>1341</v>
       </c>
       <c r="J17" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K17" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="L17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M17" t="n">
-        <v>2.33121742600996</v>
+        <v>7.7600057607155</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C18" t="n">
-        <v>121</v>
+        <v>225</v>
       </c>
       <c r="D18" t="n">
-        <v>0.276243837530669</v>
+        <v>-0.446267148806123</v>
       </c>
       <c r="E18" t="n">
-        <v>1.9932512845068</v>
+        <v>-2.33414324864737</v>
       </c>
       <c r="F18" t="n">
-        <v>0.000341751705111081</v>
+        <v>0.0000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00621366736565602</v>
+        <v>0.0000000173777777777778</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00480741633027071</v>
+        <v>0.0000000165964912280702</v>
       </c>
       <c r="I18" t="n">
-        <v>181</v>
+        <v>1446</v>
       </c>
       <c r="J18" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M18" t="n">
-        <v>2.2066519994117</v>
+        <v>7.7600057607155</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C19" t="n">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="D19" t="n">
-        <v>0.276320413900675</v>
+        <v>-0.446267148806123</v>
       </c>
       <c r="E19" t="n">
-        <v>1.99783214237034</v>
+        <v>-2.33414324864737</v>
       </c>
       <c r="F19" t="n">
-        <v>0.000417820098800799</v>
+        <v>0.0000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00657934328984118</v>
+        <v>0.0000000173777777777778</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00509033401898239</v>
+        <v>0.0000000165964912280702</v>
       </c>
       <c r="I19" t="n">
-        <v>197</v>
+        <v>1446</v>
       </c>
       <c r="J19" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L19" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M19" t="n">
-        <v>2.18181745286499</v>
+        <v>7.7600057607155</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="C20" t="n">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D20" t="n">
-        <v>0.222939163819083</v>
+        <v>-0.446267148806123</v>
       </c>
       <c r="E20" t="n">
-        <v>1.80379204519865</v>
+        <v>-2.33414324864737</v>
       </c>
       <c r="F20" t="n">
-        <v>0.000439444844188612</v>
+        <v>0.0000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00657934328984118</v>
+        <v>0.0000000173777777777778</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00509033401898239</v>
+        <v>0.0000000165964912280702</v>
       </c>
       <c r="I20" t="n">
-        <v>405</v>
+        <v>1446</v>
       </c>
       <c r="J20" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K20" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="L20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M20" t="n">
-        <v>2.18181745286499</v>
+        <v>7.7600057607155</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C21" t="n">
-        <v>538</v>
+        <v>225</v>
       </c>
       <c r="D21" t="n">
-        <v>0.198630673774753</v>
+        <v>-0.446267148806123</v>
       </c>
       <c r="E21" t="n">
-        <v>1.76347038443329</v>
+        <v>-2.33414324864737</v>
       </c>
       <c r="F21" t="n">
-        <v>0.000472491943781969</v>
+        <v>0.0000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00657934328984118</v>
+        <v>0.0000000173777777777778</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00509033401898239</v>
+        <v>0.0000000165964912280702</v>
       </c>
       <c r="I21" t="n">
-        <v>954</v>
+        <v>1446</v>
       </c>
       <c r="J21" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="K21" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="L21" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M21" t="n">
-        <v>2.18181745286499</v>
+        <v>7.7600057607155</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C22" t="n">
-        <v>108</v>
+        <v>285</v>
       </c>
       <c r="D22" t="n">
-        <v>0.261308997906131</v>
+        <v>-0.427573437283016</v>
       </c>
       <c r="E22" t="n">
-        <v>1.82743777776054</v>
+        <v>-2.29807878439475</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00202848080187245</v>
+        <v>0.0000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0213524294933942</v>
+        <v>0.0000000173777777777778</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0165200375554155</v>
+        <v>0.0000000165964912280702</v>
       </c>
       <c r="I22" t="n">
-        <v>397</v>
+        <v>1517</v>
       </c>
       <c r="J22" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L22" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M22" t="n">
-        <v>1.67055270351733</v>
+        <v>7.7600057607155</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C23" t="n">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="D23" t="n">
-        <v>0.240927853974304</v>
+        <v>-0.420462496077165</v>
       </c>
       <c r="E23" t="n">
-        <v>1.77055976455783</v>
+        <v>-2.21915517829108</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0026559479503356</v>
+        <v>0.0000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>0.026559479503356</v>
+        <v>0.0000000173777777777778</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0205486499315439</v>
+        <v>0.0000000165964912280702</v>
       </c>
       <c r="I23" t="n">
-        <v>133</v>
+        <v>1446</v>
       </c>
       <c r="J23" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K23" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M23" t="n">
-        <v>1.57578044026167</v>
+        <v>7.7600057607155</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C24" t="n">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="D24" t="n">
-        <v>0.465863195859325</v>
+        <v>-0.418859772572373</v>
       </c>
       <c r="E24" t="n">
-        <v>1.96996960256905</v>
+        <v>-2.19063580941357</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00376573261491965</v>
+        <v>0.0000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0301258609193572</v>
+        <v>0.0000000173777777777778</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0233079029218185</v>
+        <v>0.0000000165964912280702</v>
       </c>
       <c r="I24" t="n">
-        <v>116</v>
+        <v>1728</v>
       </c>
       <c r="J24" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L24" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M24" t="n">
-        <v>1.52106053322426</v>
+        <v>7.7600057607155</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C25" t="n">
-        <v>154</v>
+        <v>653</v>
       </c>
       <c r="D25" t="n">
-        <v>0.227384750607498</v>
+        <v>-0.355766527548644</v>
       </c>
       <c r="E25" t="n">
-        <v>1.7235270789977</v>
+        <v>-2.06069717716174</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00465162023547784</v>
+        <v>0.0000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0357816941190603</v>
+        <v>0.0000000173777777777778</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0276837317657993</v>
+        <v>0.0000000165964912280702</v>
       </c>
       <c r="I25" t="n">
-        <v>411</v>
+        <v>1541</v>
       </c>
       <c r="J25" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="L25" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M25" t="n">
-        <v>1.44633910118782</v>
+        <v>7.7600057607155</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C26" t="n">
-        <v>28</v>
+        <v>394</v>
       </c>
       <c r="D26" t="n">
-        <v>0.539511211059995</v>
+        <v>-0.364708027207939</v>
       </c>
       <c r="E26" t="n">
-        <v>2.71039263579522</v>
+        <v>-2.02034959473789</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00000284361097140686</v>
+        <v>0.0000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00048057025416776</v>
+        <v>0.0000000173777777777778</v>
       </c>
       <c r="H26" t="n">
-        <v>0.000281367822433942</v>
+        <v>0.0000000165964912280702</v>
       </c>
       <c r="I26" t="n">
-        <v>289</v>
+        <v>1050</v>
       </c>
       <c r="J26" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L26" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="M26" t="n">
-        <v>3.31824311420336</v>
+        <v>7.7600057607155</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="C27" t="n">
-        <v>473</v>
+        <v>515</v>
       </c>
       <c r="D27" t="n">
-        <v>0.216809435779426</v>
+        <v>-0.355789383796113</v>
       </c>
       <c r="E27" t="n">
-        <v>2.01411404143062</v>
+        <v>-2.01959610854402</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0000164296568614769</v>
+        <v>0.0000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0013883060047948</v>
+        <v>0.0000000173777777777778</v>
       </c>
       <c r="H27" t="n">
-        <v>0.000812835655252016</v>
+        <v>0.0000000165964912280702</v>
       </c>
       <c r="I27" t="n">
-        <v>924</v>
+        <v>1716</v>
       </c>
       <c r="J27" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K27" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L27" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="M27" t="n">
-        <v>2.85751479789664</v>
+        <v>7.7600057607155</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C28" t="n">
-        <v>92</v>
+        <v>556</v>
       </c>
       <c r="D28" t="n">
-        <v>0.304016423633124</v>
+        <v>-0.352699139306492</v>
       </c>
       <c r="E28" t="n">
-        <v>2.19419938754321</v>
+        <v>-2.0143715691646</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0000628288015607456</v>
+        <v>0.0000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00253786328114277</v>
+        <v>0.0000000173777777777778</v>
       </c>
       <c r="H28" t="n">
-        <v>0.00148588694131062</v>
+        <v>0.0000000165964912280702</v>
       </c>
       <c r="I28" t="n">
-        <v>291</v>
+        <v>1542</v>
       </c>
       <c r="J28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L28" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="M28" t="n">
-        <v>2.59553177776715</v>
+        <v>7.7600057607155</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="C29" t="n">
-        <v>143</v>
+        <v>1051</v>
       </c>
       <c r="D29" t="n">
-        <v>0.265670464879006</v>
+        <v>-0.312188437843365</v>
       </c>
       <c r="E29" t="n">
-        <v>2.10032770716291</v>
+        <v>-1.86701583325375</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0000750847124598454</v>
+        <v>0.0000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>0.00253786328114277</v>
+        <v>0.0000000173777777777778</v>
       </c>
       <c r="H29" t="n">
-        <v>0.00148588694131062</v>
+        <v>0.0000000165964912280702</v>
       </c>
       <c r="I29" t="n">
-        <v>344</v>
+        <v>1542</v>
       </c>
       <c r="J29" t="s">
+        <v>106</v>
+      </c>
+      <c r="K29" t="s">
         <v>107</v>
       </c>
-      <c r="K29" t="s">
-        <v>108</v>
-      </c>
       <c r="L29" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="M29" t="n">
-        <v>2.59553177776715</v>
+        <v>7.7600057607155</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" t="s">
         <v>109</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="n">
+        <v>1840</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.234527796363836</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-1.44332800606031</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0000000278565104831114</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.00000396068930868966</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0000037826208971804</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1563</v>
+      </c>
+      <c r="J30" t="s">
         <v>110</v>
       </c>
-      <c r="C30" t="n">
-        <v>22</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.513902798010916</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2.3785870442963</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.000188943916424767</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.0035479468750873</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.00207727814548867</v>
-      </c>
-      <c r="I30" t="n">
-        <v>153</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>111</v>
       </c>
-      <c r="K30" t="s">
-        <v>112</v>
-      </c>
       <c r="L30" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="M30" t="n">
-        <v>2.45002289166702</v>
+        <v>5.40222922394607</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" t="s">
         <v>113</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="n">
+        <v>773</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.269075273373113</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1.58003249310754</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.000000467483378431556</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0000635777394666916</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0000607193513953664</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1545</v>
+      </c>
+      <c r="J31" t="s">
         <v>114</v>
       </c>
-      <c r="C31" t="n">
-        <v>58</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.360018211159516</v>
-      </c>
-      <c r="E31" t="n">
-        <v>2.23373833166428</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.000148402175773995</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.0035479468750873</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.00207727814548867</v>
-      </c>
-      <c r="I31" t="n">
-        <v>281</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>115</v>
       </c>
-      <c r="K31" t="s">
-        <v>116</v>
-      </c>
       <c r="L31" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="M31" t="n">
-        <v>2.45002289166702</v>
+        <v>4.19669491766999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="C32" t="n">
-        <v>88</v>
+        <v>301</v>
       </c>
       <c r="D32" t="n">
-        <v>0.295398787434252</v>
+        <v>-0.3277211709563</v>
       </c>
       <c r="E32" t="n">
-        <v>2.09236888162759</v>
+        <v>-1.77188453304386</v>
       </c>
       <c r="F32" t="n">
-        <v>0.000140096083846346</v>
+        <v>0.00000162779910135898</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0035479468750873</v>
+        <v>0.000175577778932789</v>
       </c>
       <c r="H32" t="n">
-        <v>0.00207727814548867</v>
+        <v>0.000167683987283368</v>
       </c>
       <c r="I32" t="n">
-        <v>291</v>
+        <v>1411</v>
       </c>
       <c r="J32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L32" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="M32" t="n">
-        <v>2.45002289166702</v>
+        <v>3.75553044912198</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C33" t="n">
-        <v>52</v>
+        <v>825</v>
       </c>
       <c r="D33" t="n">
-        <v>0.361532127326838</v>
+        <v>-0.258932175575756</v>
       </c>
       <c r="E33" t="n">
-        <v>2.21979164874653</v>
+        <v>-1.52778739843329</v>
       </c>
       <c r="F33" t="n">
-        <v>0.00027436485548067</v>
+        <v>0.00000217405500171869</v>
       </c>
       <c r="G33" t="n">
-        <v>0.00421524187056666</v>
+        <v>0.000226681468179202</v>
       </c>
       <c r="H33" t="n">
-        <v>0.00246797094882134</v>
+        <v>0.000216490108592198</v>
       </c>
       <c r="I33" t="n">
-        <v>281</v>
+        <v>1534</v>
       </c>
       <c r="J33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L33" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="M33" t="n">
-        <v>2.37517750050811</v>
+        <v>3.64458398316632</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="C34" t="n">
-        <v>67</v>
+        <v>296</v>
       </c>
       <c r="D34" t="n">
-        <v>0.32757104369963</v>
+        <v>-0.327189433362273</v>
       </c>
       <c r="E34" t="n">
-        <v>2.12848184770882</v>
+        <v>-1.76339529786299</v>
       </c>
       <c r="F34" t="n">
-        <v>0.00027135896549384</v>
+        <v>0.00000282409542803473</v>
       </c>
       <c r="G34" t="n">
-        <v>0.00421524187056666</v>
+        <v>0.000284960338673956</v>
       </c>
       <c r="H34" t="n">
-        <v>0.00246797094882134</v>
+        <v>0.000272148822572583</v>
       </c>
       <c r="I34" t="n">
-        <v>340</v>
+        <v>1411</v>
       </c>
       <c r="J34" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L34" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="M34" t="n">
-        <v>2.37517750050811</v>
+        <v>3.54521558172368</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C35" t="n">
-        <v>55</v>
+        <v>871</v>
       </c>
       <c r="D35" t="n">
-        <v>0.340606134525553</v>
+        <v>-0.248329342837824</v>
       </c>
       <c r="E35" t="n">
-        <v>2.1003092066165</v>
+        <v>-1.47013364972636</v>
       </c>
       <c r="F35" t="n">
-        <v>0.000485552653879835</v>
+        <v>0.00000930829754133992</v>
       </c>
       <c r="G35" t="n">
-        <v>0.00631218450043786</v>
+        <v>0.000808787630814202</v>
       </c>
       <c r="H35" t="n">
-        <v>0.00369570441009753</v>
+        <v>0.000772425392465576</v>
       </c>
       <c r="I35" t="n">
-        <v>340</v>
+        <v>1534</v>
       </c>
       <c r="J35" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K35" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L35" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="M35" t="n">
-        <v>2.19982031550982</v>
+        <v>3.09216549924472</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="C36" t="n">
-        <v>198</v>
+        <v>47</v>
       </c>
       <c r="D36" t="n">
-        <v>0.207630519320011</v>
+        <v>-0.554116201542286</v>
       </c>
       <c r="E36" t="n">
-        <v>1.74571016951461</v>
+        <v>-2.21313799670139</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00132560138729755</v>
+        <v>0.0000182250007030322</v>
       </c>
       <c r="G36" t="n">
-        <v>0.00974028845449068</v>
+        <v>0.00146173851792525</v>
       </c>
       <c r="H36" t="n">
-        <v>0.00570281603688648</v>
+        <v>0.00139602029676668</v>
       </c>
       <c r="I36" t="n">
-        <v>345</v>
+        <v>985</v>
       </c>
       <c r="J36" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K36" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L36" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="M36" t="n">
-        <v>2.01142818148498</v>
+        <v>2.8351303088957</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C37" t="n">
-        <v>43</v>
+        <v>838</v>
       </c>
       <c r="D37" t="n">
-        <v>0.354570997221045</v>
+        <v>-0.246163772408186</v>
       </c>
       <c r="E37" t="n">
-        <v>2.0678234742864</v>
+        <v>-1.45241955708188</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00209720258468981</v>
+        <v>0.0000241719687070621</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0122216288556061</v>
+        <v>0.00184414434428513</v>
       </c>
       <c r="H37" t="n">
-        <v>0.00715560954485816</v>
+        <v>0.00176123356073536</v>
       </c>
       <c r="I37" t="n">
-        <v>281</v>
+        <v>1534</v>
       </c>
       <c r="J37" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="K37" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L37" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="M37" t="n">
-        <v>1.91287090899859</v>
+        <v>2.73420508899111</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C38" t="n">
-        <v>43</v>
+        <v>490</v>
       </c>
       <c r="D38" t="n">
-        <v>0.354570997221045</v>
+        <v>-0.256562672901644</v>
       </c>
       <c r="E38" t="n">
-        <v>2.0678234742864</v>
+        <v>-1.45179628460436</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00209720258468981</v>
+        <v>0.000222235112084859</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0122216288556061</v>
+        <v>0.0147904559702434</v>
       </c>
       <c r="H38" t="n">
-        <v>0.00715560954485816</v>
+        <v>0.0141254926785404</v>
       </c>
       <c r="I38" t="n">
-        <v>281</v>
+        <v>1333</v>
       </c>
       <c r="J38" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="K38" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L38" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="M38" t="n">
-        <v>1.91287090899859</v>
+        <v>1.83001843707085</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C39" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D39" t="n">
-        <v>0.327227331443511</v>
+        <v>-0.610376774628871</v>
       </c>
       <c r="E39" t="n">
-        <v>1.99323936206301</v>
+        <v>-2.02991941510478</v>
       </c>
       <c r="F39" t="n">
-        <v>0.00266605636049447</v>
+        <v>0.000306173842923144</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0140801101538614</v>
+        <v>0.0199523287638249</v>
       </c>
       <c r="H39" t="n">
-        <v>0.00824372690416052</v>
+        <v>0.0190552931187693</v>
       </c>
       <c r="I39" t="n">
-        <v>281</v>
+        <v>1222</v>
       </c>
       <c r="J39" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="K39" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="L39" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="M39" t="n">
-        <v>1.85139394753574</v>
+        <v>1.70000640773388</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C40" t="n">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="D40" t="n">
-        <v>0.327227331443511</v>
+        <v>-0.384821866383596</v>
       </c>
       <c r="E40" t="n">
-        <v>1.99323936206301</v>
+        <v>-1.71978792306547</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00266605636049447</v>
+        <v>0.000902787187469531</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0140801101538614</v>
+        <v>0.0465187398570392</v>
       </c>
       <c r="H40" t="n">
-        <v>0.00824372690416052</v>
+        <v>0.0444273064053969</v>
       </c>
       <c r="I40" t="n">
-        <v>281</v>
+        <v>958</v>
       </c>
       <c r="J40" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="K40" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="L40" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="M40" t="n">
-        <v>1.85139394753574</v>
+        <v>1.33237205835775</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="C41" t="n">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="D41" t="n">
-        <v>0.323876533646072</v>
+        <v>-0.463753637569134</v>
       </c>
       <c r="E41" t="n">
-        <v>1.94704967407461</v>
+        <v>-2.16242414681642</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00531730918413068</v>
+        <v>0.000000518366923650361</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0208982616771648</v>
+        <v>0.000270241956196388</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0122356686244378</v>
+        <v>0.000269459858732635</v>
       </c>
       <c r="I41" t="n">
-        <v>281</v>
+        <v>1336</v>
       </c>
       <c r="J41" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="K41" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="L41" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="M41" t="n">
-        <v>1.67988983711442</v>
+        <v>3.56824722404075</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="C42" t="n">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D42" t="n">
-        <v>0.573304157549234</v>
+        <v>-0.463753637569134</v>
       </c>
       <c r="E42" t="n">
-        <v>1.91965112555099</v>
+        <v>-2.16242414681642</v>
       </c>
       <c r="F42" t="n">
-        <v>0.00470469227289621</v>
+        <v>0.000000518366923650361</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0208982616771648</v>
+        <v>0.000270241956196388</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0122356686244378</v>
+        <v>0.000269459858732635</v>
       </c>
       <c r="I42" t="n">
-        <v>265</v>
+        <v>1336</v>
       </c>
       <c r="J42" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K42" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L42" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="M42" t="n">
-        <v>1.67988983711442</v>
+        <v>3.56824722404075</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="n">
+        <v>101</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.463753637569134</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-2.16242414681642</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.000000518366923650361</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.000270241956196388</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.000269459858732635</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1336</v>
+      </c>
+      <c r="J43" t="s">
         <v>150</v>
       </c>
-      <c r="B43" t="s">
+      <c r="K43" t="s">
         <v>151</v>
       </c>
-      <c r="C43" t="n">
-        <v>72</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.263695671586211</v>
-      </c>
-      <c r="E43" t="n">
-        <v>1.75359501707215</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.00588033933711712</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.0225858488175635</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.0132237296097849</v>
-      </c>
-      <c r="I43" t="n">
-        <v>344</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="L43" t="s">
         <v>152</v>
       </c>
-      <c r="K43" t="s">
-        <v>153</v>
-      </c>
-      <c r="L43" t="s">
-        <v>102</v>
-      </c>
       <c r="M43" t="n">
-        <v>1.64616358321386</v>
+        <v>3.56824722404075</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="n">
+        <v>106</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.454446979919439</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-2.14104973193688</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.000000377564571695113</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.000270241956196388</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.000269459858732635</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1336</v>
+      </c>
+      <c r="J44" t="s">
+        <v>153</v>
+      </c>
+      <c r="K44" t="s">
         <v>154</v>
       </c>
-      <c r="B44" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" t="n">
-        <v>39</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.334748111456995</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1.89469123244908</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.00699390987586619</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.0262660170893642</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.0153784217153549</v>
-      </c>
-      <c r="I44" t="n">
-        <v>153</v>
-      </c>
-      <c r="J44" t="s">
-        <v>156</v>
-      </c>
-      <c r="K44" t="s">
-        <v>157</v>
-      </c>
       <c r="L44" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="M44" t="n">
-        <v>1.58060577750903</v>
+        <v>3.56824722404075</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="C45" t="n">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D45" t="n">
-        <v>0.467746784663923</v>
+        <v>-0.454446979919439</v>
       </c>
       <c r="E45" t="n">
-        <v>1.82180112587891</v>
+        <v>-2.14104973193688</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01312311390094</v>
+        <v>0.000000377564571695113</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0414197002604353</v>
+        <v>0.000270241956196388</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0242507120802299</v>
+        <v>0.000269459858732635</v>
       </c>
       <c r="I45" t="n">
-        <v>322</v>
+        <v>1336</v>
       </c>
       <c r="J45" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="K45" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="L45" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="M45" t="n">
-        <v>1.38279304826512</v>
+        <v>3.56824722404075</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="C46" t="n">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="D46" t="n">
-        <v>0.270676405771068</v>
+        <v>-0.454446979919439</v>
       </c>
       <c r="E46" t="n">
-        <v>1.76163422262134</v>
+        <v>-2.14104973193688</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0132346971246361</v>
+        <v>0.000000377564571695113</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0414197002604353</v>
+        <v>0.000270241956196388</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0242507120802299</v>
+        <v>0.000269459858732635</v>
       </c>
       <c r="I46" t="n">
-        <v>335</v>
+        <v>1336</v>
       </c>
       <c r="J46" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="K46" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="L46" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="M46" t="n">
-        <v>1.38279304826512</v>
+        <v>3.56824722404075</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B47" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C47" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.458637887581686</v>
+        <v>0.847330733721727</v>
       </c>
       <c r="E47" t="n">
-        <v>-2.46279759080668</v>
+        <v>2.14856705203859</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0000355217565166611</v>
+        <v>0.0000511614485624288</v>
       </c>
       <c r="G47" t="n">
-        <v>0.00129433634234188</v>
+        <v>0.0228618587290396</v>
       </c>
       <c r="H47" t="n">
-        <v>0.00117305913490508</v>
+        <v>0.0227956950511995</v>
       </c>
       <c r="I47" t="n">
-        <v>169</v>
+        <v>544</v>
       </c>
       <c r="J47" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="K47" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="L47" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="M47" t="n">
-        <v>2.8879528545463</v>
+        <v>1.64088846322555</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C48" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.458637887581686</v>
+        <v>0.529981744778851</v>
       </c>
       <c r="E48" t="n">
-        <v>-2.46279759080668</v>
+        <v>2.05823716325424</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0000355217565166611</v>
+        <v>0.000068043368149382</v>
       </c>
       <c r="G48" t="n">
-        <v>0.00129433634234188</v>
+        <v>0.0266049569464084</v>
       </c>
       <c r="H48" t="n">
-        <v>0.00117305913490508</v>
+        <v>0.0265279605035025</v>
       </c>
       <c r="I48" t="n">
-        <v>169</v>
+        <v>836</v>
       </c>
       <c r="J48" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K48" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="L48" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="M48" t="n">
-        <v>2.8879528545463</v>
+        <v>1.5750374395377</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B49" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C49" t="n">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.458637887581686</v>
+        <v>-0.446244504276082</v>
       </c>
       <c r="E49" t="n">
-        <v>-2.46279759080668</v>
+        <v>-1.93174826940216</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0000355217565166611</v>
+        <v>0.000122871334380714</v>
       </c>
       <c r="G49" t="n">
-        <v>0.00129433634234188</v>
+        <v>0.0384341533942873</v>
       </c>
       <c r="H49" t="n">
-        <v>0.00117305913490508</v>
+        <v>0.0383229225021111</v>
       </c>
       <c r="I49" t="n">
-        <v>169</v>
+        <v>722</v>
       </c>
       <c r="J49" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K49" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L49" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="M49" t="n">
-        <v>2.8879528545463</v>
+        <v>1.41528268088166</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="C50" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.446241941709165</v>
+        <v>-0.598016300866091</v>
       </c>
       <c r="E50" t="n">
-        <v>-2.43229866722339</v>
+        <v>-2.05623879043032</v>
       </c>
       <c r="F50" t="n">
-        <v>0.000040629391912077</v>
+        <v>0.000170991978077553</v>
       </c>
       <c r="G50" t="n">
-        <v>0.00129433634234188</v>
+        <v>0.0486239006751443</v>
       </c>
       <c r="H50" t="n">
-        <v>0.00117305913490508</v>
+        <v>0.0484831800041905</v>
       </c>
       <c r="I50" t="n">
-        <v>208</v>
+        <v>1029</v>
       </c>
       <c r="J50" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="K50" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="L50" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="M50" t="n">
-        <v>2.8879528545463</v>
+        <v>1.31315020440383</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="C51" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.446241941709165</v>
+        <v>-0.56903289069211</v>
       </c>
       <c r="E51" t="n">
-        <v>-2.43229866722339</v>
+        <v>-2.03594150966133</v>
       </c>
       <c r="F51" t="n">
-        <v>0.000040629391912077</v>
+        <v>0.000214008317752575</v>
       </c>
       <c r="G51" t="n">
-        <v>0.00129433634234188</v>
+        <v>0.0490771541107553</v>
       </c>
       <c r="H51" t="n">
-        <v>0.00117305913490508</v>
+        <v>0.0489351216954395</v>
       </c>
       <c r="I51" t="n">
-        <v>208</v>
+        <v>1086</v>
       </c>
       <c r="J51" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="K51" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="L51" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="M51" t="n">
-        <v>2.8879528545463</v>
+        <v>1.3091206291119</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B52" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C52" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.446241941709165</v>
+        <v>0.853853486364393</v>
       </c>
       <c r="E52" t="n">
-        <v>-2.43229866722339</v>
+        <v>2.02353257119131</v>
       </c>
       <c r="F52" t="n">
-        <v>0.000040629391912077</v>
+        <v>0.000235344409098891</v>
       </c>
       <c r="G52" t="n">
-        <v>0.00129433634234188</v>
+        <v>0.0490771541107553</v>
       </c>
       <c r="H52" t="n">
-        <v>0.00117305913490508</v>
+        <v>0.0489351216954395</v>
       </c>
       <c r="I52" t="n">
-        <v>208</v>
+        <v>544</v>
       </c>
       <c r="J52" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K52" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L52" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="M52" t="n">
-        <v>2.8879528545463</v>
+        <v>1.3091206291119</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="C53" t="n">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.385223517844661</v>
+        <v>-0.996363061353574</v>
       </c>
       <c r="E53" t="n">
-        <v>-2.42647777127849</v>
+        <v>-1.55404487907429</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0000232178120475728</v>
+        <v>0.000230083095974071</v>
       </c>
       <c r="G53" t="n">
-        <v>0.00129433634234188</v>
+        <v>0.0490771541107553</v>
       </c>
       <c r="H53" t="n">
-        <v>0.00117305913490508</v>
+        <v>0.0489351216954395</v>
       </c>
       <c r="I53" t="n">
-        <v>384</v>
+        <v>26</v>
       </c>
       <c r="J53" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="K53" t="s">
-        <v>184</v>
+        <v>28</v>
       </c>
       <c r="L53" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="M53" t="n">
-        <v>2.8879528545463</v>
+        <v>1.3091206291119</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="C54" t="n">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.298189238957233</v>
+        <v>-0.996363061353574</v>
       </c>
       <c r="E54" t="n">
-        <v>-2.13011481950966</v>
+        <v>-1.55404487907429</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00026394168436516</v>
+        <v>0.000230083095974071</v>
       </c>
       <c r="G54" t="n">
-        <v>0.00735737445167883</v>
+        <v>0.0490771541107553</v>
       </c>
       <c r="H54" t="n">
-        <v>0.00666800044711983</v>
+        <v>0.0489351216954395</v>
       </c>
       <c r="I54" t="n">
-        <v>254</v>
+        <v>26</v>
       </c>
       <c r="J54" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="K54" t="s">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="L54" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="M54" t="n">
-        <v>2.13327714008915</v>
+        <v>1.3091206291119</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B55" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C55" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.589082907988277</v>
+        <v>0.742173970633233</v>
       </c>
       <c r="E55" t="n">
-        <v>-1.87764321623869</v>
+        <v>2.0878725733755</v>
       </c>
       <c r="F55" t="n">
-        <v>0.00203820310170971</v>
+        <v>0.000299453624591826</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0378766076401055</v>
+        <v>0.0495947297628437</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0343276311866899</v>
+        <v>0.0494511994505673</v>
       </c>
       <c r="I55" t="n">
-        <v>191</v>
+        <v>798</v>
       </c>
       <c r="J55" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="K55" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="L55" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="M55" t="n">
-        <v>1.42162892484186</v>
+        <v>1.30456447182681</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>179</v>
+      </c>
+      <c r="B56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" t="n">
+        <v>12</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0.748864833670139</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-2.08782163370273</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.000284832590930736</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0495947297628437</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.0494511994505673</v>
+      </c>
+      <c r="I56" t="n">
+        <v>435</v>
+      </c>
+      <c r="J56" t="s">
+        <v>181</v>
+      </c>
+      <c r="K56" t="s">
+        <v>182</v>
+      </c>
+      <c r="L56" t="s">
+        <v>152</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.30456447182681</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" t="n">
+        <v>11</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.747366244702309</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2.02826126396326</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.000301246760068424</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0495947297628437</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.0494511994505673</v>
+      </c>
+      <c r="I57" t="n">
+        <v>798</v>
+      </c>
+      <c r="J57" t="s">
+        <v>185</v>
+      </c>
+      <c r="K57" t="s">
+        <v>178</v>
+      </c>
+      <c r="L57" t="s">
+        <v>152</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.30456447182681</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" t="n">
+        <v>47</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-0.486595211801917</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-1.92738003089176</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.000270183646573105</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0495947297628437</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.0494511994505673</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1130</v>
+      </c>
+      <c r="J58" t="s">
+        <v>186</v>
+      </c>
+      <c r="K58" t="s">
+        <v>187</v>
+      </c>
+      <c r="L58" t="s">
+        <v>152</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.30456447182681</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" t="n">
+        <v>101</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.630538500034949</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-2.75198896675121</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0000000001</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0000000521333333333333</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.0000000508070175438596</v>
+      </c>
+      <c r="I59" t="n">
+        <v>997</v>
+      </c>
+      <c r="J59" t="s">
+        <v>188</v>
+      </c>
+      <c r="K59" t="s">
+        <v>189</v>
+      </c>
+      <c r="L59" t="s">
+        <v>190</v>
+      </c>
+      <c r="M59" t="n">
+        <v>7.28288450599583</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="n">
+        <v>101</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.630538500034949</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-2.75198896675121</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0000000001</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0000000521333333333333</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.0000000508070175438596</v>
+      </c>
+      <c r="I60" t="n">
+        <v>997</v>
+      </c>
+      <c r="J60" t="s">
+        <v>188</v>
+      </c>
+      <c r="K60" t="s">
+        <v>189</v>
+      </c>
+      <c r="L60" t="s">
+        <v>190</v>
+      </c>
+      <c r="M60" t="n">
+        <v>7.28288450599583</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" t="n">
+        <v>101</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-0.630538500034949</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-2.75198896675121</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0000000001</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0000000521333333333333</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.0000000508070175438596</v>
+      </c>
+      <c r="I61" t="n">
+        <v>997</v>
+      </c>
+      <c r="J61" t="s">
+        <v>188</v>
+      </c>
+      <c r="K61" t="s">
+        <v>189</v>
+      </c>
+      <c r="L61" t="s">
+        <v>190</v>
+      </c>
+      <c r="M61" t="n">
+        <v>7.28288450599583</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" t="n">
+        <v>106</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-0.617047089612413</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-2.73584233338495</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0000000001</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.0000000521333333333333</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.0000000508070175438596</v>
+      </c>
+      <c r="I62" t="n">
+        <v>997</v>
+      </c>
+      <c r="J62" t="s">
+        <v>191</v>
+      </c>
+      <c r="K62" t="s">
+        <v>192</v>
+      </c>
+      <c r="L62" t="s">
+        <v>190</v>
+      </c>
+      <c r="M62" t="n">
+        <v>7.28288450599583</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" t="n">
+        <v>106</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.617047089612413</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-2.73584233338495</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0000000001</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.0000000521333333333333</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.0000000508070175438596</v>
+      </c>
+      <c r="I63" t="n">
+        <v>997</v>
+      </c>
+      <c r="J63" t="s">
+        <v>191</v>
+      </c>
+      <c r="K63" t="s">
+        <v>192</v>
+      </c>
+      <c r="L63" t="s">
+        <v>190</v>
+      </c>
+      <c r="M63" t="n">
+        <v>7.28288450599583</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" t="n">
+        <v>106</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.617047089612413</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-2.73584233338495</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0000000001</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.0000000521333333333333</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.0000000508070175438596</v>
+      </c>
+      <c r="I64" t="n">
+        <v>997</v>
+      </c>
+      <c r="J64" t="s">
+        <v>191</v>
+      </c>
+      <c r="K64" t="s">
+        <v>192</v>
+      </c>
+      <c r="L64" t="s">
+        <v>190</v>
+      </c>
+      <c r="M64" t="n">
+        <v>7.28288450599583</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" t="n">
+        <v>653</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.31968141256352</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-1.73989325250981</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.00000000180256890266086</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.000000704804440940398</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.000000686873623961298</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1113</v>
+      </c>
+      <c r="J65" t="s">
         <v>193</v>
       </c>
-      <c r="B56" t="s">
+      <c r="K65" t="s">
         <v>194</v>
       </c>
-      <c r="C56" t="n">
-        <v>18</v>
-      </c>
-      <c r="D56" t="n">
-        <v>-0.47924128357736</v>
-      </c>
-      <c r="E56" t="n">
-        <v>-1.93885917086048</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.0031250670510838</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.0464593301594458</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.0421061665830238</v>
-      </c>
-      <c r="I56" t="n">
-        <v>169</v>
-      </c>
-      <c r="J56" t="s">
+      <c r="L65" t="s">
+        <v>190</v>
+      </c>
+      <c r="M65" t="n">
+        <v>6.15193136811781</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" t="n">
+        <v>225</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.375037898175518</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-1.8515269842865</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.00000193859872794056</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.000356702165941064</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.000347627363226989</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1775</v>
+      </c>
+      <c r="J66" t="s">
         <v>195</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K66" t="s">
         <v>196</v>
       </c>
-      <c r="L56" t="s">
-        <v>170</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.33292705605437</v>
+      <c r="L66" t="s">
+        <v>190</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3.44769425356213</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" t="n">
+        <v>225</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-0.375037898175518</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-1.8515269842865</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.00000193859872794056</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.000356702165941064</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.000347627363226989</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1775</v>
+      </c>
+      <c r="J67" t="s">
+        <v>195</v>
+      </c>
+      <c r="K67" t="s">
+        <v>196</v>
+      </c>
+      <c r="L67" t="s">
+        <v>190</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3.44769425356213</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" t="n">
+        <v>225</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-0.375037898175518</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-1.8515269842865</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.00000193859872794056</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.000356702165941064</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.000347627363226989</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1775</v>
+      </c>
+      <c r="J68" t="s">
+        <v>195</v>
+      </c>
+      <c r="K68" t="s">
+        <v>196</v>
+      </c>
+      <c r="L68" t="s">
+        <v>190</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3.44769425356213</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>197</v>
+      </c>
+      <c r="B69" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" t="n">
+        <v>44</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.524612022198334</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2.1565542028677</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.00003476956003678</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.00572416756816042</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.00557853993720305</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2106</v>
+      </c>
+      <c r="J69" t="s">
+        <v>199</v>
+      </c>
+      <c r="K69" t="s">
+        <v>200</v>
+      </c>
+      <c r="L69" t="s">
+        <v>190</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2.24228766127456</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.996995572422517</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-1.5404832178418</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0000728880326118004</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0103633530004414</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.0100997005953959</v>
+      </c>
+      <c r="I70" t="n">
+        <v>22</v>
+      </c>
+      <c r="J70" t="s">
+        <v>27</v>
+      </c>
+      <c r="K70" t="s">
+        <v>28</v>
+      </c>
+      <c r="L70" t="s">
+        <v>190</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1.98449970849103</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.996995572422517</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-1.5404832178418</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0000728880326118004</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0103633530004414</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.0100997005953959</v>
+      </c>
+      <c r="I71" t="n">
+        <v>22</v>
+      </c>
+      <c r="J71" t="s">
+        <v>27</v>
+      </c>
+      <c r="K71" t="s">
+        <v>28</v>
+      </c>
+      <c r="L71" t="s">
+        <v>190</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1.98449970849103</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" t="n">
+        <v>26</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-0.612285536054684</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-2.03641401714978</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0000890241194130068</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0121072802401689</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.0117992608613303</v>
+      </c>
+      <c r="I72" t="n">
+        <v>818</v>
+      </c>
+      <c r="J72" t="s">
+        <v>201</v>
+      </c>
+      <c r="K72" t="s">
+        <v>202</v>
+      </c>
+      <c r="L72" t="s">
+        <v>190</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1.9169534051101</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>171</v>
+      </c>
+      <c r="B73" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" t="n">
+        <v>7</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.85171704383605</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2.04635057041253</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.000191290188015806</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0230136810812862</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.0224281937042014</v>
+      </c>
+      <c r="I73" t="n">
+        <v>944</v>
+      </c>
+      <c r="J73" t="s">
+        <v>203</v>
+      </c>
+      <c r="K73" t="s">
+        <v>204</v>
+      </c>
+      <c r="L73" t="s">
+        <v>190</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1.63801390956135</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" t="n">
+        <v>825</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.255210265754235</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-1.40407423880631</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.000211031413387475</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0244483800398527</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.0238263927161843</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1698</v>
+      </c>
+      <c r="J74" t="s">
+        <v>205</v>
+      </c>
+      <c r="K74" t="s">
+        <v>206</v>
+      </c>
+      <c r="L74" t="s">
+        <v>190</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1.61174991212567</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" t="n">
+        <v>47</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-0.499503858126276</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-1.88839977333114</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.000425407455716667</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0415835787963042</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.0405256576235351</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1234</v>
+      </c>
+      <c r="J75" t="s">
+        <v>207</v>
+      </c>
+      <c r="K75" t="s">
+        <v>208</v>
+      </c>
+      <c r="L75" t="s">
+        <v>190</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1.38107813682746</v>
       </c>
     </row>
   </sheetData>
